--- a/refs_jorge_june/Saavedra_Garcia_automobile_gas_generator_v2.xlsx
+++ b/refs_jorge_june/Saavedra_Garcia_automobile_gas_generator_v2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8CD4E8-A890-48BB-B5ED-267C5808C7A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26288851-DB77-4830-B14D-8726B08DF3A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7995" yWindow="1350" windowWidth="13275" windowHeight="6150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Given parameter &amp; assumptions" sheetId="1" r:id="rId1"/>
@@ -4112,6 +4112,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4181,6 +4184,72 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4188,9 +4257,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4217,67 +4283,19 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4292,61 +4310,25 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4361,11 +4343,29 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4387,7 +4387,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4886,7 +4886,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5385,7 +5385,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5775,7 +5775,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6347,7 +6347,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7219,7 +7219,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8091,7 +8091,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8964,7 +8964,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9327,7 +9327,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9899,7 +9899,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10479,7 +10479,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10875,7 +10875,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11378,7 +11378,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11944,7 +11944,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12524,7 +12524,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13090,7 +13090,7 @@
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13659,7 +13659,7 @@
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14038,7 +14038,7 @@
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14414,7 +14414,7 @@
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14805,7 +14805,7 @@
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15198,7 +15198,7 @@
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15595,7 +15595,7 @@
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15986,7 +15986,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16488,7 +16488,7 @@
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16881,7 +16881,7 @@
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17794,7 +17794,7 @@
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19462,7 +19462,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -19965,7 +19965,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20469,7 +20469,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -20709,7 +20709,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -21207,7 +21207,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -21709,7 +21709,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -23832,7 +23832,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -24155,17 +24155,17 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24173,20 +24173,20 @@
         <v>775</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="226" t="s">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="228"/>
-      <c r="F3" s="232" t="s">
+      <c r="B3" s="228"/>
+      <c r="C3" s="229"/>
+      <c r="F3" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
+      <c r="G3" s="233"/>
+      <c r="H3" s="233"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -24204,7 +24204,7 @@
       </c>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -24222,7 +24222,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -24240,7 +24240,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -24258,7 +24258,7 @@
       </c>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -24305,7 +24305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="19"/>
@@ -24317,12 +24317,12 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="229" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="230"/>
-      <c r="C10" s="231"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="232"/>
       <c r="F10" s="15" t="s">
         <v>37</v>
       </c>
@@ -24330,7 +24330,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -24345,7 +24345,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -24365,7 +24365,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>100</v>
       </c>
@@ -24402,34 +24402,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="243" t="str">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="244" t="str">
         <f>'Given parameter &amp; assumptions'!A3:C3</f>
         <v>Given parameters</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
-      <c r="F1" s="240" t="str">
+      <c r="B1" s="245"/>
+      <c r="C1" s="246"/>
+      <c r="F1" s="241" t="str">
         <f>'Given parameter &amp; assumptions'!F3:G3</f>
         <v>Assumptions</v>
       </c>
-      <c r="G1" s="241"/>
-      <c r="H1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="243"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="str">
         <f>'Given parameter &amp; assumptions'!A4:C4</f>
         <v>P01</v>
@@ -24463,7 +24463,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A5:C5</f>
         <v>T01</v>
@@ -24497,7 +24497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A6:C6</f>
         <v>πc</v>
@@ -24531,7 +24531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A7:C7</f>
         <v>T03</v>
@@ -24562,7 +24562,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A8:C8</f>
         <v>Net power</v>
@@ -24596,7 +24596,7 @@
         <v>J/kg</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F7" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!F9:G9</f>
         <v>Efficiency 2nd turbine</v>
@@ -24607,7 +24607,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F8" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!F10:G10</f>
         <v>Combustor P efficiency</v>
@@ -24618,7 +24618,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F9" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!F11:G11</f>
         <v>Combustor burner efficiency</v>
@@ -24629,27 +24629,27 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="236" t="str">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="237" t="str">
         <f>'Given parameter &amp; assumptions'!A10:C10</f>
         <v>Fluid properties</v>
       </c>
-      <c r="B11" s="237"/>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="238"/>
+      <c r="B11" s="238"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="238"/>
+      <c r="H11" s="238"/>
+      <c r="I11" s="238"/>
+      <c r="J11" s="239"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="str">
         <f>'Given parameter &amp; assumptions'!A11:C11</f>
         <v>ϒ Compressor</v>
@@ -24684,7 +24684,7 @@
         <v>0.28571428571428564</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A12:C12</f>
         <v>Cp Compressir</v>
@@ -24704,7 +24704,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>102</v>
       </c>
@@ -24720,7 +24720,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>104</v>
       </c>
@@ -24736,7 +24736,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A13:C13</f>
         <v>ϒ Turbine</v>
@@ -24771,7 +24771,7 @@
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A14:C14</f>
         <v>Cp Turbine</v>
@@ -24792,7 +24792,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
@@ -24812,7 +24812,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>105</v>
       </c>
@@ -24831,20 +24831,20 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="246" t="s">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="247"/>
-      <c r="C21" s="248"/>
-      <c r="H21" s="239" t="s">
+      <c r="B21" s="248"/>
+      <c r="C21" s="249"/>
+      <c r="H21" s="240" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="239"/>
-      <c r="J21" s="239"/>
+      <c r="I21" s="240"/>
+      <c r="J21" s="240"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>8</v>
       </c>
@@ -24867,7 +24867,7 @@
         <v>J/Kg</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>7</v>
       </c>
@@ -24890,12 +24890,12 @@
         <v>kg/s</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="246" t="s">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="247" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="247"/>
-      <c r="C24" s="248"/>
+      <c r="B24" s="248"/>
+      <c r="C24" s="249"/>
       <c r="H24" s="3" t="str">
         <f>A4</f>
         <v>πc</v>
@@ -24909,7 +24909,7 @@
         <v>[-]</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>33</v>
       </c>
@@ -24931,7 +24931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -24955,7 +24955,7 @@
         <v>Pa</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -24979,7 +24979,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>42</v>
       </c>
@@ -25003,12 +25003,12 @@
         <v>J/Kg</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="246" t="s">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="247"/>
-      <c r="C29" s="248"/>
+      <c r="B29" s="248"/>
+      <c r="C29" s="249"/>
       <c r="H29" s="3" t="s">
         <v>191</v>
       </c>
@@ -25020,7 +25020,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>10</v>
       </c>
@@ -25042,7 +25042,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -25088,7 +25088,7 @@
         <v>J/Kg</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>39</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>J/Kg</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
@@ -25132,12 +25132,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="233" t="s">
+    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="234" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="234"/>
-      <c r="C35" s="235"/>
+      <c r="B35" s="235"/>
+      <c r="C35" s="236"/>
       <c r="M35" s="16" t="s">
         <v>296</v>
       </c>
@@ -25146,7 +25146,7 @@
         <v>1021.4470685054727</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>44</v>
       </c>
@@ -25172,7 +25172,7 @@
         <v>J/Kg</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -25195,7 +25195,7 @@
         <v>J/Kg</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -25207,7 +25207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -25224,12 +25224,12 @@
       <c r="H39" s="45"/>
       <c r="I39" s="45"/>
     </row>
-    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="233" t="s">
+    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="234"/>
-      <c r="C40" s="235"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="236"/>
       <c r="D40" t="s">
         <v>58</v>
       </c>
@@ -25247,7 +25247,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>196</v>
       </c>
@@ -25268,7 +25268,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>50</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>49</v>
       </c>
@@ -25317,7 +25317,7 @@
         <v>1021.4470685054727</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>51</v>
       </c>
@@ -25338,7 +25338,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -25367,7 +25367,7 @@
         <v>1083.5297492705752</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -25389,7 +25389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -25411,7 +25411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G48" s="3" t="s">
         <v>69</v>
       </c>
@@ -25423,7 +25423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G49" s="3" t="s">
         <v>71</v>
       </c>
@@ -25442,7 +25442,7 @@
         <v>0.75205594332708658</v>
       </c>
     </row>
-    <row r="50" spans="7:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G50" s="30" t="s">
         <v>80</v>
       </c>
@@ -25483,73 +25483,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ217"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="43.1796875" style="73" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.1796875" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.81640625" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="22" max="22" width="11.453125" style="73"/>
+    <col min="22" max="22" width="11.42578125" style="73"/>
     <col min="23" max="23" width="35" customWidth="1"/>
-    <col min="24" max="24" width="35.7265625" customWidth="1"/>
-    <col min="27" max="27" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="35.7109375" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.1796875" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.140625" customWidth="1"/>
     <col min="32" max="32" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="243" t="str">
+    <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="244" t="str">
         <f>'Given parameter &amp; assumptions'!A3:C3</f>
         <v>Given parameters</v>
       </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="245"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="246"/>
       <c r="D1" s="78"/>
-      <c r="E1" s="265" t="s">
+      <c r="E1" s="271" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="I1" s="265" t="s">
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="I1" s="271" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="265"/>
-      <c r="K1" s="265"/>
-      <c r="M1" s="266" t="s">
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="M1" s="262" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="266"/>
-      <c r="O1" s="266"/>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
+      <c r="N1" s="262"/>
+      <c r="O1" s="262"/>
+      <c r="P1" s="262"/>
+      <c r="Q1" s="262"/>
+      <c r="R1" s="262"/>
+      <c r="S1" s="262"/>
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
       <c r="V1" s="79"/>
       <c r="W1" s="79"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="str">
         <f>'Given parameter &amp; assumptions'!A4:C4</f>
         <v>P01</v>
@@ -25624,7 +25624,7 @@
         <v>0.23076923076923078</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A5:C5</f>
         <v>T01</v>
@@ -25675,7 +25675,7 @@
         <v>J/(kg K)</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A6:C6</f>
         <v>πc</v>
@@ -25729,7 +25729,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A7:C7</f>
         <v>T03</v>
@@ -25782,7 +25782,7 @@
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>'Given parameter &amp; assumptions'!A8:C8</f>
         <v>Net power</v>
@@ -25854,7 +25854,7 @@
       </c>
       <c r="AP6" s="41"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="36"/>
       <c r="C7" s="2"/>
@@ -25925,12 +25925,12 @@
       </c>
       <c r="AQ7" s="35"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
-      <c r="A8" s="253" t="s">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="253"/>
-      <c r="C8" s="253"/>
+      <c r="B8" s="275"/>
+      <c r="C8" s="275"/>
       <c r="D8" s="78"/>
       <c r="F8" t="s">
         <v>371</v>
@@ -25999,7 +25999,7 @@
         <v>56.495682668479276</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>74</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -26115,7 +26115,7 @@
       <c r="AO10" s="32"/>
       <c r="AP10" s="32"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>79</v>
       </c>
@@ -26155,7 +26155,7 @@
       <c r="AO11" s="32"/>
       <c r="AP11" s="32"/>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>72</v>
       </c>
@@ -26195,7 +26195,7 @@
       <c r="AO12" s="32"/>
       <c r="AP12" s="32"/>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>112</v>
       </c>
@@ -26242,7 +26242,7 @@
       <c r="AO13" s="32"/>
       <c r="AP13" s="32"/>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>82</v>
       </c>
@@ -26276,7 +26276,7 @@
       <c r="AO14" s="32"/>
       <c r="AP14" s="32"/>
     </row>
-    <row r="15" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -26307,7 +26307,7 @@
       <c r="AO15" s="32"/>
       <c r="AP15" s="32"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>87</v>
       </c>
@@ -26347,36 +26347,36 @@
       <c r="AO16" s="32"/>
       <c r="AP16" s="32"/>
     </row>
-    <row r="17" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="36"/>
       <c r="C17" s="2"/>
       <c r="D17" s="32"/>
-      <c r="F17" s="249" t="s">
+      <c r="F17" s="272" t="s">
         <v>237</v>
       </c>
-      <c r="G17" s="249"/>
-      <c r="H17" s="249"/>
-      <c r="J17" s="250" t="s">
+      <c r="G17" s="272"/>
+      <c r="H17" s="272"/>
+      <c r="J17" s="273" t="s">
         <v>239</v>
       </c>
-      <c r="K17" s="250"/>
-      <c r="L17" s="250"/>
-      <c r="N17" s="251" t="s">
+      <c r="K17" s="273"/>
+      <c r="L17" s="273"/>
+      <c r="N17" s="274" t="s">
         <v>253</v>
       </c>
-      <c r="O17" s="251"/>
-      <c r="P17" s="251"/>
-      <c r="R17" s="263" t="s">
+      <c r="O17" s="274"/>
+      <c r="P17" s="274"/>
+      <c r="R17" s="269" t="s">
         <v>242</v>
       </c>
-      <c r="S17" s="263"/>
-      <c r="T17" s="263"/>
-      <c r="V17" s="264" t="s">
+      <c r="S17" s="269"/>
+      <c r="T17" s="269"/>
+      <c r="V17" s="270" t="s">
         <v>243</v>
       </c>
-      <c r="W17" s="264"/>
-      <c r="X17" s="264"/>
+      <c r="W17" s="270"/>
+      <c r="X17" s="270"/>
       <c r="AA17" s="32"/>
       <c r="AB17" s="32"/>
       <c r="AC17" s="32"/>
@@ -26394,12 +26394,12 @@
       <c r="AO17" s="32"/>
       <c r="AP17" s="32"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A18" s="254" t="s">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A18" s="276" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="254"/>
-      <c r="C18" s="254"/>
+      <c r="B18" s="276"/>
+      <c r="C18" s="276"/>
       <c r="D18" s="78"/>
       <c r="F18" s="10" t="s">
         <v>7</v>
@@ -26465,7 +26465,7 @@
       <c r="AO18" s="32"/>
       <c r="AP18" s="32"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>84</v>
       </c>
@@ -26544,7 +26544,7 @@
       <c r="AO19" s="32"/>
       <c r="AP19" s="32"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>164</v>
       </c>
@@ -26602,7 +26602,7 @@
       </c>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="73"/>
       <c r="B21" s="74"/>
       <c r="C21" s="73"/>
@@ -26652,12 +26652,12 @@
       </c>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A22" s="255" t="s">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A22" s="277" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="255"/>
-      <c r="C22" s="255"/>
+      <c r="B22" s="277"/>
+      <c r="C22" s="277"/>
       <c r="D22" s="78"/>
       <c r="F22" s="9" t="s">
         <v>212</v>
@@ -26707,7 +26707,7 @@
       </c>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
@@ -26765,7 +26765,7 @@
       </c>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
@@ -26825,7 +26825,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>88</v>
       </c>
@@ -26883,7 +26883,7 @@
       </c>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="35"/>
       <c r="F26" s="81" t="s">
         <v>417</v>
@@ -26931,12 +26931,12 @@
       </c>
       <c r="X26" s="8"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A27" s="255" t="s">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27" s="277" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="255"/>
-      <c r="C27" s="255"/>
+      <c r="B27" s="277"/>
+      <c r="C27" s="277"/>
       <c r="D27" s="78"/>
       <c r="F27" s="9" t="str">
         <f t="shared" ref="F27:H30" si="0">E99</f>
@@ -26979,7 +26979,7 @@
       </c>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>94</v>
       </c>
@@ -27032,7 +27032,7 @@
       </c>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -27087,7 +27087,7 @@
       </c>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
@@ -27176,7 +27176,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="72"/>
       <c r="F31" s="13" t="s">
         <v>593</v>
@@ -27262,12 +27262,12 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
-      <c r="A32" s="252" t="s">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A32" s="268" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="252"/>
-      <c r="C32" s="252"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="268"/>
       <c r="D32" s="78"/>
       <c r="E32" s="71"/>
       <c r="J32" s="9" t="s">
@@ -27291,7 +27291,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>91</v>
       </c>
@@ -27325,7 +27325,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
@@ -27360,13 +27360,13 @@
       <c r="P34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R34" s="267" t="s">
+      <c r="R34" s="263" t="s">
         <v>699</v>
       </c>
-      <c r="S34" s="268"/>
-      <c r="T34" s="269"/>
+      <c r="S34" s="264"/>
+      <c r="T34" s="265"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>98</v>
       </c>
@@ -27413,7 +27413,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>338</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>99</v>
       </c>
@@ -27493,7 +27493,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>101</v>
       </c>
@@ -27536,7 +27536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
         <v>106</v>
       </c>
@@ -27577,7 +27577,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>107</v>
       </c>
@@ -27620,7 +27620,7 @@
       </c>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
@@ -27669,7 +27669,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>108</v>
       </c>
@@ -27710,7 +27710,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>366</v>
       </c>
@@ -27737,7 +27737,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J44" s="9" t="s">
         <v>257</v>
       </c>
@@ -27769,12 +27769,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A45" s="252" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="268" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="252"/>
-      <c r="C45" s="252"/>
+      <c r="B45" s="268"/>
+      <c r="C45" s="268"/>
       <c r="D45" s="78"/>
       <c r="J45" s="9" t="s">
         <v>147</v>
@@ -27807,7 +27807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>110</v>
       </c>
@@ -27848,7 +27848,7 @@
       </c>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>111</v>
       </c>
@@ -27881,12 +27881,12 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A48" s="256" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="278" t="s">
         <v>305</v>
       </c>
-      <c r="B48" s="257"/>
-      <c r="C48" s="258"/>
+      <c r="B48" s="279"/>
+      <c r="C48" s="280"/>
       <c r="D48" s="78"/>
       <c r="J48" s="9"/>
       <c r="K48" s="34"/>
@@ -27901,7 +27901,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>140</v>
       </c>
@@ -27949,7 +27949,7 @@
         <v>7.1969751451651061E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>113</v>
       </c>
@@ -27991,7 +27991,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>119</v>
       </c>
@@ -28024,7 +28024,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="53" t="s">
         <v>118</v>
       </c>
@@ -28057,7 +28057,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>122</v>
       </c>
@@ -28090,7 +28090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="53" t="s">
         <v>133</v>
       </c>
@@ -28121,7 +28121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>123</v>
       </c>
@@ -28153,7 +28153,7 @@
       </c>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>125</v>
       </c>
@@ -28182,7 +28182,7 @@
       </c>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N57" s="9" t="s">
         <v>347</v>
       </c>
@@ -28192,12 +28192,12 @@
       </c>
       <c r="P57" s="5"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58" s="259" t="s">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="281" t="s">
         <v>317</v>
       </c>
-      <c r="B58" s="259"/>
-      <c r="C58" s="259"/>
+      <c r="B58" s="281"/>
+      <c r="C58" s="281"/>
       <c r="N58" s="9" t="s">
         <v>521</v>
       </c>
@@ -28207,7 +28207,7 @@
       </c>
       <c r="P58" s="5"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>124</v>
       </c>
@@ -28230,7 +28230,7 @@
       </c>
       <c r="P59" s="5"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N60" s="9" t="s">
         <v>524</v>
       </c>
@@ -28240,12 +28240,12 @@
       </c>
       <c r="P60" s="5"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A61" s="260" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="282" t="s">
         <v>319</v>
       </c>
-      <c r="B61" s="260"/>
-      <c r="C61" s="260"/>
+      <c r="B61" s="282"/>
+      <c r="C61" s="282"/>
       <c r="N61" s="9" t="s">
         <v>614</v>
       </c>
@@ -28255,12 +28255,12 @@
       </c>
       <c r="P61" s="5"/>
     </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="261" t="s">
+    <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="256" t="s">
         <v>299</v>
       </c>
-      <c r="B62" s="261"/>
-      <c r="C62" s="262"/>
+      <c r="B62" s="256"/>
+      <c r="C62" s="257"/>
       <c r="E62" t="s">
         <v>144</v>
       </c>
@@ -28277,7 +28277,7 @@
       </c>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="83" t="s">
         <v>320</v>
       </c>
@@ -28298,13 +28298,13 @@
         <f>B70*B79*B126</f>
         <v>0.7774823082743787</v>
       </c>
-      <c r="M63" s="270" t="s">
+      <c r="M63" s="266" t="s">
         <v>302</v>
       </c>
-      <c r="N63" s="270"/>
-      <c r="O63" s="270"/>
+      <c r="N63" s="266"/>
+      <c r="O63" s="266"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>127</v>
       </c>
@@ -28319,13 +28319,13 @@
         <f>B40*(B19/B41)^U2</f>
         <v>1022.3999406809887</v>
       </c>
-      <c r="M64" s="271" t="s">
+      <c r="M64" s="267" t="s">
         <v>780</v>
       </c>
-      <c r="N64" s="271"/>
-      <c r="O64" s="271"/>
+      <c r="N64" s="267"/>
+      <c r="O64" s="267"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>271</v>
       </c>
@@ -28344,7 +28344,7 @@
         <v>-75.518282816536043</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>126</v>
       </c>
@@ -28363,7 +28363,7 @@
         <v>1083.5297492705752</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>128</v>
       </c>
@@ -28389,7 +28389,7 @@
         <v>473.54173803341428</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>273</v>
       </c>
@@ -28408,7 +28408,7 @@
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>337</v>
       </c>
@@ -28424,7 +28424,7 @@
       <c r="N69" s="35"/>
       <c r="O69" s="35"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>129</v>
       </c>
@@ -28441,7 +28441,7 @@
         <v>-549.06002084995032</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>130</v>
       </c>
@@ -28453,13 +28453,13 @@
         <v>114</v>
       </c>
       <c r="D71" s="78"/>
-      <c r="M71" s="271" t="s">
+      <c r="M71" s="267" t="s">
         <v>303</v>
       </c>
-      <c r="N71" s="271"/>
-      <c r="O71" s="271"/>
+      <c r="N71" s="267"/>
+      <c r="O71" s="267"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
         <v>131</v>
       </c>
@@ -28477,7 +28477,7 @@
         <v>605.82070319092054</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>132</v>
       </c>
@@ -28497,7 +28497,7 @@
         <v>256.03089250907504</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>84</v>
       </c>
@@ -28517,7 +28517,7 @@
         <v>256.03089250907504</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>134</v>
       </c>
@@ -28535,7 +28535,7 @@
         <v>266.93600161565291</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>367</v>
       </c>
@@ -28546,7 +28546,7 @@
       <c r="C76" s="2"/>
       <c r="D76" s="32"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D77" s="32"/>
       <c r="M77" t="s">
         <v>163</v>
@@ -28556,12 +28556,12 @@
         <v>1054.7979634001913</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="252" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="268" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="252"/>
-      <c r="C78" s="252"/>
+      <c r="B78" s="268"/>
+      <c r="C78" s="268"/>
       <c r="D78" s="32"/>
       <c r="F78" t="s">
         <v>321</v>
@@ -28574,7 +28574,7 @@
         <v>1083.5297492705752</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>136</v>
       </c>
@@ -28617,7 +28617,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>137</v>
       </c>
@@ -28661,7 +28661,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D81" s="32"/>
       <c r="E81">
         <f>(-J8+B47*B49)/E80</f>
@@ -28689,12 +28689,12 @@
         <v>159829.0797939006</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A82" s="252" t="s">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="268" t="s">
         <v>332</v>
       </c>
-      <c r="B82" s="252"/>
-      <c r="C82" s="252"/>
+      <c r="B82" s="268"/>
+      <c r="C82" s="268"/>
       <c r="D82" s="32"/>
       <c r="E82" s="35">
         <f>E81-E80</f>
@@ -28718,7 +28718,7 @@
         <v>0.2501596958389028</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>139</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>626.40629178263464</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>138</v>
       </c>
@@ -28790,7 +28790,7 @@
         <v>0.42613876188248873</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="68" t="s">
         <v>301</v>
       </c>
@@ -28819,18 +28819,18 @@
         <v>0.96713700219528231</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D86" s="78"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A87" s="277" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="255" t="s">
         <v>300</v>
       </c>
-      <c r="B87" s="261"/>
-      <c r="C87" s="262"/>
+      <c r="B87" s="256"/>
+      <c r="C87" s="257"/>
       <c r="D87" s="32"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>142</v>
       </c>
@@ -28843,7 +28843,7 @@
       </c>
       <c r="D88" s="32"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>188</v>
       </c>
@@ -28858,7 +28858,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>162</v>
       </c>
@@ -28869,7 +28869,7 @@
       <c r="C90" s="3"/>
       <c r="D90"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>141</v>
       </c>
@@ -28882,16 +28882,16 @@
       </c>
       <c r="D91" s="32"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A92" s="277" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="255" t="s">
         <v>329</v>
       </c>
-      <c r="B92" s="261"/>
-      <c r="C92" s="261"/>
+      <c r="B92" s="256"/>
+      <c r="C92" s="256"/>
       <c r="D92" s="32"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>171</v>
       </c>
@@ -28902,7 +28902,7 @@
       <c r="C93" s="3"/>
       <c r="D93" s="32"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>10</v>
       </c>
@@ -28913,7 +28913,7 @@
       <c r="C94" s="3"/>
       <c r="D94" s="32"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
@@ -28926,7 +28926,7 @@
       </c>
       <c r="D95" s="32"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>161</v>
       </c>
@@ -28943,23 +28943,23 @@
         <v>392423.11090448679</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D97" s="32"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="261" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="256" t="s">
         <v>180</v>
       </c>
-      <c r="B98" s="261"/>
-      <c r="C98" s="261"/>
+      <c r="B98" s="256"/>
+      <c r="C98" s="256"/>
       <c r="D98" s="32"/>
-      <c r="E98" s="261" t="s">
+      <c r="E98" s="256" t="s">
         <v>470</v>
       </c>
-      <c r="F98" s="261"/>
-      <c r="G98" s="261"/>
+      <c r="F98" s="256"/>
+      <c r="G98" s="256"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>144</v>
       </c>
@@ -28982,7 +28982,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>145</v>
       </c>
@@ -29005,7 +29005,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>153</v>
       </c>
@@ -29028,7 +29028,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>157</v>
       </c>
@@ -29051,7 +29051,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>208</v>
       </c>
@@ -29074,7 +29074,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>146</v>
       </c>
@@ -29097,7 +29097,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>149</v>
       </c>
@@ -29120,7 +29120,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>147</v>
       </c>
@@ -29136,7 +29136,7 @@
       <c r="F106" s="36"/>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="34">
         <f>B106/(2*PI())</f>
@@ -29148,7 +29148,7 @@
       <c r="F107" s="36"/>
       <c r="G107" s="2"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>148</v>
       </c>
@@ -29164,29 +29164,29 @@
       <c r="F108" s="36"/>
       <c r="G108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D109" s="32"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
         <v>202</v>
       </c>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>217</v>
       </c>
       <c r="B111"/>
-      <c r="E111" s="278" t="s">
+      <c r="E111" s="258" t="s">
         <v>218</v>
       </c>
-      <c r="F111" s="278"/>
-      <c r="G111" s="278"/>
-      <c r="H111" s="278"/>
-      <c r="I111" s="278"/>
+      <c r="F111" s="258"/>
+      <c r="G111" s="258"/>
+      <c r="H111" s="258"/>
+      <c r="I111" s="258"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>203</v>
       </c>
@@ -29209,7 +29209,7 @@
         <v>8.4603615832992661E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -29224,7 +29224,7 @@
         <v>0.98316999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>205</v>
       </c>
@@ -29247,7 +29247,7 @@
         <v>8.4603615832992661E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>206</v>
       </c>
@@ -29266,7 +29266,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>210</v>
       </c>
@@ -29275,7 +29275,7 @@
         <v>1396.4780194149855</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>212</v>
       </c>
@@ -29287,7 +29287,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>278</v>
       </c>
@@ -29296,7 +29296,7 @@
         <v>720.75642433652627</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>240</v>
       </c>
@@ -29305,7 +29305,7 @@
         <v>0.12966739831454782</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>213</v>
       </c>
@@ -29314,7 +29314,7 @@
         <v>0.98316999999999988</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>207</v>
       </c>
@@ -29323,7 +29323,7 @@
         <v>8.4614068541261512E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>214</v>
       </c>
@@ -29332,18 +29332,18 @@
         <v>93.458610362213591</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A123" s="279" t="s">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="259" t="s">
         <v>181</v>
       </c>
-      <c r="B123" s="279"/>
-      <c r="H123" s="266" t="s">
+      <c r="B123" s="259"/>
+      <c r="H123" s="262" t="s">
         <v>488</v>
       </c>
-      <c r="I123" s="266"/>
-      <c r="J123" s="266"/>
+      <c r="I123" s="262"/>
+      <c r="J123" s="262"/>
     </row>
-    <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>151</v>
       </c>
@@ -29352,13 +29352,13 @@
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="32"/>
-      <c r="H124" s="274" t="s">
+      <c r="H124" s="252" t="s">
         <v>489</v>
       </c>
-      <c r="I124" s="274"/>
-      <c r="J124" s="274"/>
+      <c r="I124" s="252"/>
+      <c r="J124" s="252"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>152</v>
       </c>
@@ -29386,7 +29386,7 @@
       </c>
       <c r="J125" s="12"/>
     </row>
-    <row r="126" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>154</v>
       </c>
@@ -29411,7 +29411,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>155</v>
       </c>
@@ -29438,7 +29438,7 @@
         <v>6.9005889330965804</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>156</v>
       </c>
@@ -29465,7 +29465,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>146</v>
       </c>
@@ -29487,7 +29487,7 @@
         <v>6.9005889330965804</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>274</v>
       </c>
@@ -29498,7 +29498,7 @@
       <c r="C130" s="3"/>
       <c r="D130" s="32"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>147</v>
       </c>
@@ -29517,7 +29517,7 @@
         <v>473.54173803341422</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="34">
         <f>B131/(2*PI())</f>
@@ -29526,7 +29526,7 @@
       <c r="C132" s="3"/>
       <c r="D132" s="32"/>
     </row>
-    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>148</v>
       </c>
@@ -29539,7 +29539,7 @@
       </c>
       <c r="D133" s="32"/>
     </row>
-    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="36"/>
       <c r="C134" s="2"/>
@@ -29552,7 +29552,7 @@
         <v>0.29012299231964411</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="37" t="s">
         <v>167</v>
       </c>
@@ -29575,7 +29575,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="53" t="s">
         <v>168</v>
       </c>
@@ -29592,7 +29592,7 @@
         <v>0.29012299231964411</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="37" t="s">
         <v>169</v>
       </c>
@@ -29605,7 +29605,7 @@
       </c>
       <c r="D137" s="32"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="53" t="s">
         <v>170</v>
       </c>
@@ -29616,19 +29616,19 @@
       <c r="C138" s="53"/>
       <c r="D138" s="32"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A139" s="280" t="s">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="260" t="s">
         <v>186</v>
       </c>
-      <c r="B139" s="280"/>
+      <c r="B139" s="260"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A140" s="281" t="s">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="261" t="s">
         <v>304</v>
       </c>
-      <c r="B140" s="281"/>
+      <c r="B140" s="261"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>172</v>
       </c>
@@ -29637,7 +29637,7 @@
         <v>1310723.045237229</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>173</v>
       </c>
@@ -29646,7 +29646,7 @@
         <v>1267775.9264444259</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>176</v>
       </c>
@@ -29655,7 +29655,7 @@
         <v>601.22506864963464</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>179</v>
       </c>
@@ -29664,13 +29664,13 @@
         <v>0.23762376237623822</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="272" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="B145" s="273"/>
+      <c r="B145" s="251"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>174</v>
       </c>
@@ -29679,7 +29679,7 @@
         <v>1432838.6265602822</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>175</v>
       </c>
@@ -29688,7 +29688,7 @@
         <v>1394602.0569372547</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>177</v>
       </c>
@@ -29697,7 +29697,7 @@
         <v>778.66728894916071</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>178</v>
       </c>
@@ -29706,13 +29706,13 @@
         <v>0.12612612612612609</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="275" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="253" t="s">
         <v>259</v>
       </c>
-      <c r="B150" s="276"/>
+      <c r="B150" s="254"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>260</v>
       </c>
@@ -29721,7 +29721,7 @@
         <v>1736000</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>261</v>
       </c>
@@ -29730,7 +29730,7 @@
         <v>1345549.2185491363</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>262</v>
       </c>
@@ -29739,7 +29739,7 @@
         <v>995.11629143412597</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="32" t="s">
         <v>266</v>
       </c>
@@ -29748,7 +29748,7 @@
         <v>1233944.2013783162</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="32" t="s">
         <v>267</v>
       </c>
@@ -29757,7 +29757,7 @@
         <v>0.8356721412774113</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="32" t="s">
         <v>268</v>
       </c>
@@ -29766,7 +29766,7 @@
         <v>0.77770395745410292</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="32"/>
       <c r="B157" s="35" t="s">
         <v>408</v>
@@ -29778,7 +29778,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
         <v>361</v>
       </c>
@@ -29802,7 +29802,7 @@
         <v>0.12612612612612609</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
         <v>362</v>
       </c>
@@ -29826,7 +29826,7 @@
         <v>0.23762376237623822</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="32"/>
       <c r="C160" t="s">
         <v>333</v>
@@ -29835,7 +29835,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="32" t="s">
         <v>272</v>
       </c>
@@ -29859,7 +29859,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="32" t="s">
         <v>273</v>
       </c>
@@ -29883,12 +29883,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="32"/>
       <c r="C163" s="35"/>
       <c r="E163" s="73"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
         <v>363</v>
       </c>
@@ -29908,7 +29908,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
         <v>364</v>
       </c>
@@ -29925,7 +29925,7 @@
         <v>4.5579686448589E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>340</v>
       </c>
@@ -29936,13 +29936,13 @@
         <v>341</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A168" s="249" t="s">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="272" t="s">
         <v>339</v>
       </c>
-      <c r="B168" s="249"/>
+      <c r="B168" s="272"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>342</v>
       </c>
@@ -29964,7 +29964,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="62" t="s">
         <v>357</v>
       </c>
@@ -29987,7 +29987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>346</v>
       </c>
@@ -30014,7 +30014,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>348</v>
       </c>
@@ -30037,7 +30037,7 @@
         <v>54.754865234663527</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -30060,7 +30060,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="62" t="s">
         <v>354</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>6.5493137692234568E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="73" t="s">
         <v>402</v>
       </c>
@@ -30100,7 +30100,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="73" t="s">
         <v>590</v>
       </c>
@@ -30115,7 +30115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="73" t="s">
         <v>777</v>
       </c>
@@ -30132,7 +30132,7 @@
         <v>0.63700645701635905</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="73"/>
       <c r="B178" s="74">
         <f>0.8*COS(RADIANS(B176))/2/(COS((RADIANS(I171)))^2)/((TAN(RADIANS(I170)))+(TAN(RADIANS(I171))))</f>
@@ -30141,7 +30141,7 @@
       <c r="C178" s="73"/>
       <c r="E178" s="35"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="73" t="s">
         <v>350</v>
       </c>
@@ -30158,7 +30158,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="73" t="s">
         <v>512</v>
       </c>
@@ -30174,7 +30174,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>352</v>
       </c>
@@ -30190,7 +30190,7 @@
         <v>4.6429174727589699E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>372</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>351</v>
       </c>
@@ -30222,7 +30222,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="92" t="s">
         <v>272</v>
       </c>
@@ -30238,7 +30238,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>410</v>
       </c>
@@ -30260,7 +30260,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>374</v>
       </c>
@@ -30276,18 +30276,18 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="140">
         <f>1/(1+(B159*B67^2+B158*B34^2)/(2*N3*(F2-B94)))</f>
         <v>0.82786735575375403</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>398</v>
       </c>
@@ -30298,7 +30298,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="96">
         <v>100</v>
       </c>
@@ -30310,14 +30310,14 @@
         <f>E192*10^-5</f>
         <v>1.9230000000000001E-5</v>
       </c>
-      <c r="D192" s="310">
+      <c r="D192" s="226">
         <v>0.69</v>
       </c>
       <c r="E192" s="98">
         <v>1.923</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="99">
         <v>150</v>
       </c>
@@ -30336,7 +30336,7 @@
         <v>4.34</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="99">
         <v>200</v>
       </c>
@@ -30355,7 +30355,7 @@
         <v>7.49</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="99">
         <v>250</v>
       </c>
@@ -30374,7 +30374,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="99">
         <v>300</v>
       </c>
@@ -30393,7 +30393,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="99">
         <v>350</v>
       </c>
@@ -30412,7 +30412,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="99">
         <v>400</v>
       </c>
@@ -30431,7 +30431,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="99">
         <v>450</v>
       </c>
@@ -30450,7 +30450,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="99">
         <v>500</v>
       </c>
@@ -30469,7 +30469,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="99">
         <v>550</v>
       </c>
@@ -30488,7 +30488,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="99">
         <v>600</v>
       </c>
@@ -30507,7 +30507,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="99">
         <v>650</v>
       </c>
@@ -30526,7 +30526,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="99">
         <v>700</v>
       </c>
@@ -30545,7 +30545,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="99">
         <v>750</v>
       </c>
@@ -30564,7 +30564,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="99">
         <v>800</v>
       </c>
@@ -30583,7 +30583,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="99">
         <v>850</v>
       </c>
@@ -30602,7 +30602,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="99">
         <v>900</v>
       </c>
@@ -30621,7 +30621,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="99">
         <v>950</v>
       </c>
@@ -30640,7 +30640,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="99">
         <v>1000</v>
       </c>
@@ -30659,7 +30659,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="99">
         <v>1100</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="99">
         <v>1200</v>
       </c>
@@ -30697,7 +30697,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="99">
         <v>1300</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="99">
         <v>1400</v>
       </c>
@@ -30735,7 +30735,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="99">
         <v>1500</v>
       </c>
@@ -30754,7 +30754,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="101">
         <v>1600</v>
       </c>
@@ -30773,31 +30773,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="217" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="E111:I111"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:U1"/>
     <mergeCell ref="A168:B168"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F17:H17"/>
@@ -30814,6 +30792,28 @@
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A62:C62"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="E111:I111"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H123:J123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -30829,53 +30829,53 @@
       <selection activeCell="AA123" sqref="AA123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" customWidth="1"/>
-    <col min="19" max="19" width="13.26953125" customWidth="1"/>
-    <col min="20" max="20" width="10.81640625" customWidth="1"/>
-    <col min="22" max="22" width="7.26953125" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" customWidth="1"/>
-    <col min="24" max="24" width="24.1796875" customWidth="1"/>
-    <col min="25" max="26" width="13.26953125" customWidth="1"/>
-    <col min="27" max="27" width="18.7265625" customWidth="1"/>
-    <col min="29" max="30" width="23.453125" customWidth="1"/>
-    <col min="31" max="31" width="14.453125" customWidth="1"/>
-    <col min="32" max="32" width="27.7265625" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="24.140625" customWidth="1"/>
+    <col min="25" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" customWidth="1"/>
+    <col min="29" max="30" width="23.42578125" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" customWidth="1"/>
+    <col min="32" max="32" width="27.7109375" customWidth="1"/>
     <col min="33" max="33" width="23" customWidth="1"/>
-    <col min="34" max="34" width="24.453125" customWidth="1"/>
-    <col min="35" max="35" width="16.54296875" customWidth="1"/>
+    <col min="34" max="34" width="24.42578125" customWidth="1"/>
+    <col min="35" max="35" width="16.5703125" customWidth="1"/>
     <col min="42" max="42" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>504</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
-      <c r="F1" s="267" t="s">
+      <c r="F1" s="263" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="268"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="283" t="s">
+      <c r="G1" s="264"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="289" t="s">
         <v>423</v>
       </c>
-      <c r="J1" s="284"/>
-      <c r="K1" s="284"/>
-      <c r="L1" s="285"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="291"/>
       <c r="N1" s="108" t="s">
         <v>477</v>
       </c>
@@ -30884,7 +30884,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="str">
         <f t="shared" ref="A2:C3" si="0">AG4</f>
         <v>T01</v>
@@ -30928,7 +30928,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="str">
         <f t="shared" si="0"/>
         <v>P01</v>
@@ -30973,28 +30973,28 @@
         <f>'1D Analysis'!Q2</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AG3" s="292" t="s">
+      <c r="AG3" s="287" t="s">
         <v>413</v>
       </c>
-      <c r="AH3" s="292"/>
-      <c r="AI3" s="292"/>
-      <c r="AJ3" s="291" t="s">
+      <c r="AH3" s="287"/>
+      <c r="AI3" s="287"/>
+      <c r="AJ3" s="286" t="s">
         <v>414</v>
       </c>
-      <c r="AK3" s="291"/>
-      <c r="AL3" s="291"/>
-      <c r="AM3" s="290" t="s">
+      <c r="AK3" s="286"/>
+      <c r="AL3" s="286"/>
+      <c r="AM3" s="285" t="s">
         <v>415</v>
       </c>
-      <c r="AN3" s="290"/>
-      <c r="AO3" s="290"/>
-      <c r="AP3" s="282" t="s">
+      <c r="AN3" s="285"/>
+      <c r="AO3" s="285"/>
+      <c r="AP3" s="288" t="s">
         <v>416</v>
       </c>
-      <c r="AQ3" s="282"/>
-      <c r="AR3" s="282"/>
+      <c r="AQ3" s="288"/>
+      <c r="AR3" s="288"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
         <f t="shared" ref="A4:C8" si="1">AG7</f>
         <v>T1</v>
@@ -31088,7 +31088,7 @@
         <v>J/kg</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="str">
         <f t="shared" si="1"/>
         <v>P1</v>
@@ -31182,7 +31182,7 @@
         <v>J/kg</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>rho1</v>
@@ -31273,7 +31273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>A1</v>
@@ -31359,7 +31359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
         <f t="shared" si="1"/>
         <v>M1</v>
@@ -31445,7 +31445,7 @@
         <v>[º]</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>417</v>
       </c>
@@ -31529,7 +31529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="str">
         <f>AG6</f>
         <v>V1</v>
@@ -31615,7 +31615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>420</v>
       </c>
@@ -31697,7 +31697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>422</v>
       </c>
@@ -31768,7 +31768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="123" t="s">
         <v>255</v>
       </c>
@@ -31828,7 +31828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" s="123" t="s">
         <v>154</v>
       </c>
@@ -31888,12 +31888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="263" t="s">
+    <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="269" t="s">
         <v>443</v>
       </c>
-      <c r="B15" s="263"/>
-      <c r="C15" s="263"/>
+      <c r="B15" s="269"/>
+      <c r="C15" s="269"/>
       <c r="F15" s="123" t="s">
         <v>275</v>
       </c>
@@ -31953,12 +31953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="289" t="s">
+    <row r="16" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="284" t="s">
         <v>444</v>
       </c>
-      <c r="B16" s="289"/>
-      <c r="C16" s="289"/>
+      <c r="B16" s="284"/>
+      <c r="C16" s="284"/>
       <c r="D16" t="s">
         <v>445</v>
       </c>
@@ -32021,7 +32021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>446</v>
       </c>
@@ -32086,7 +32086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>450</v>
       </c>
@@ -32143,7 +32143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>451</v>
       </c>
@@ -32183,7 +32183,7 @@
         <v>[m/s]</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="133" t="s">
         <v>452</v>
       </c>
@@ -32232,7 +32232,7 @@
         <v>[K]</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>455</v>
       </c>
@@ -32278,7 +32278,7 @@
         <v>[Pa]</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>453</v>
       </c>
@@ -32321,7 +32321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>454</v>
       </c>
@@ -32361,7 +32361,7 @@
         <v>[º]</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="N24">
         <f>K4</f>
         <v>197.59301075916201</v>
@@ -32391,7 +32391,7 @@
         <v>[m/s]</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" ht="18" x14ac:dyDescent="0.35">
       <c r="C25" s="128" t="s">
         <v>100</v>
       </c>
@@ -32485,7 +32485,7 @@
         <v>[m/s]</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>468</v>
       </c>
@@ -32595,7 +32595,7 @@
         <v>[-]</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
@@ -32698,7 +32698,7 @@
         <v>[m/s]</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>3</v>
       </c>
@@ -32801,7 +32801,7 @@
         <v>[-]</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>4</v>
       </c>
@@ -32904,7 +32904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>5</v>
       </c>
@@ -33007,7 +33007,7 @@
         <v>[m2]</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>6</v>
       </c>
@@ -33110,7 +33110,7 @@
         <v>[m]</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>7</v>
       </c>
@@ -33213,7 +33213,7 @@
         <v>[m]</v>
       </c>
     </row>
-    <row r="33" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>8</v>
       </c>
@@ -33316,7 +33316,7 @@
         <v>[m]</v>
       </c>
     </row>
-    <row r="34" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>9</v>
       </c>
@@ -33419,7 +33419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:92" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>10</v>
       </c>
@@ -33522,7 +33522,7 @@
         <v>[m]</v>
       </c>
     </row>
-    <row r="36" spans="1:92" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:92" s="132" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="132">
         <v>11</v>
       </c>
@@ -33688,7 +33688,7 @@
       <c r="CM36" s="73"/>
       <c r="CN36" s="73"/>
     </row>
-    <row r="37" spans="1:92" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>12</v>
       </c>
@@ -33791,7 +33791,7 @@
         <v>[J/kg]</v>
       </c>
     </row>
-    <row r="38" spans="1:92" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>13</v>
       </c>
@@ -33894,7 +33894,7 @@
         <v>[J/kg]</v>
       </c>
     </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>14</v>
       </c>
@@ -33985,7 +33985,7 @@
         <v>[-]</v>
       </c>
     </row>
-    <row r="40" spans="1:92" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>15</v>
       </c>
@@ -34076,7 +34076,7 @@
         <v>[-]</v>
       </c>
     </row>
-    <row r="41" spans="1:92" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>16</v>
       </c>
@@ -34167,7 +34167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:92" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>17</v>
       </c>
@@ -34258,7 +34258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:92" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:92" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>18</v>
       </c>
@@ -34349,7 +34349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>19</v>
       </c>
@@ -34428,7 +34428,7 @@
       <c r="Y44" s="135"/>
       <c r="Z44" s="135"/>
     </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>20</v>
       </c>
@@ -34506,7 +34506,7 @@
       </c>
       <c r="Z45" s="73"/>
     </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>469</v>
       </c>
@@ -34586,7 +34586,7 @@
         <v>191652.85516198783</v>
       </c>
     </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:92" x14ac:dyDescent="0.25">
       <c r="F47" s="73"/>
       <c r="G47" s="73"/>
       <c r="O47" s="213"/>
@@ -34597,7 +34597,7 @@
       <c r="T47" s="213"/>
       <c r="U47" s="213"/>
     </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:92" x14ac:dyDescent="0.25">
       <c r="F48" s="73"/>
       <c r="G48" s="73"/>
       <c r="O48" s="213"/>
@@ -34614,7 +34614,7 @@
       <c r="T48" s="213"/>
       <c r="U48" s="213"/>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
       <c r="P49" s="213"/>
       <c r="Q49" s="213" t="str">
         <f>NISRE!AZ49</f>
@@ -34628,7 +34628,7 @@
       <c r="T49" s="213"/>
       <c r="U49" s="213"/>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
       <c r="Q50" s="213" t="str">
         <f>NISRE!AZ50</f>
         <v>Difference %</v>
@@ -34638,24 +34638,24 @@
         <v>4.7013842853749696E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.35">
-      <c r="N52" s="287" t="e">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="N52" s="292" t="e">
         <f>NISRE!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O52" s="287"/>
-      <c r="P52" s="287"/>
-      <c r="Q52" s="288" t="s">
+      <c r="O52" s="292"/>
+      <c r="P52" s="292"/>
+      <c r="Q52" s="293" t="s">
         <v>487</v>
       </c>
-      <c r="R52" s="288"/>
-      <c r="S52" s="288"/>
+      <c r="R52" s="293"/>
+      <c r="S52" s="293"/>
       <c r="T52">
         <f>L9</f>
         <v>254.08869342764129</v>
       </c>
     </row>
-    <row r="53" spans="1:96" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:96" ht="18" x14ac:dyDescent="0.35">
       <c r="B53">
         <f>(E64+B19/C64)/(C64^(B20))</f>
         <v>-209.25379735825157</v>
@@ -34768,7 +34768,7 @@
         <v>MW3</v>
       </c>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>472</v>
       </c>
@@ -34900,7 +34900,7 @@
         <v>0.96309003379990665</v>
       </c>
     </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>2</v>
       </c>
@@ -35025,7 +35025,7 @@
         <v>0.96504716533691837</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>3</v>
       </c>
@@ -35150,7 +35150,7 @@
         <v>0.96703757994012263</v>
       </c>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:96" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>4</v>
       </c>
@@ -35275,7 +35275,7 @@
         <v>0.96906065871371294</v>
       </c>
     </row>
-    <row r="58" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:96" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>5</v>
       </c>
@@ -35400,7 +35400,7 @@
         <v>0.97111580108087414</v>
       </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>6</v>
       </c>
@@ -35525,7 +35525,7 @@
         <v>0.97320242402672374</v>
       </c>
     </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:96" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>7</v>
       </c>
@@ -35650,7 +35650,7 @@
         <v>0.97531996137865862</v>
       </c>
     </row>
-    <row r="61" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:96" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>8</v>
       </c>
@@ -35775,7 +35775,7 @@
         <v>0.9774678631220588</v>
       </c>
     </row>
-    <row r="62" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:96" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>9</v>
       </c>
@@ -35900,7 +35900,7 @@
         <v>0.97964559474941981</v>
       </c>
     </row>
-    <row r="63" spans="1:96" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:96" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>10</v>
       </c>
@@ -36025,7 +36025,7 @@
         <v>0.98185263664111344</v>
       </c>
     </row>
-    <row r="64" spans="1:96" s="132" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:96" s="132" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="132">
         <v>11</v>
       </c>
@@ -36213,7 +36213,7 @@
       <c r="CQ64" s="73"/>
       <c r="CR64" s="73"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>12</v>
       </c>
@@ -36338,7 +36338,7 @@
         <v>0.9863526436707053</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>13</v>
       </c>
@@ -36463,7 +36463,7 @@
         <v>0.98864463884481679</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>14</v>
       </c>
@@ -36588,7 +36588,7 @@
         <v>0.99096400331262302</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>15</v>
       </c>
@@ -36713,7 +36713,7 @@
         <v>0.99331028359800366</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>16</v>
       </c>
@@ -36838,7 +36838,7 @@
         <v>0.99568303797243263</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>17</v>
       </c>
@@ -36963,7 +36963,7 @@
         <v>0.9980818360144913</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>18</v>
       </c>
@@ -37088,7 +37088,7 @@
         <v>1.0005062581898225</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>19</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>1.0029558954504616</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>20</v>
       </c>
@@ -37338,7 +37338,7 @@
         <v>1.005430348852542</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>469</v>
       </c>
@@ -37466,7 +37466,7 @@
         <v>1.0079292291914295</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="W75" t="str">
         <f>NISRE!AZ78</f>
         <v>Deviation stage 02</v>
@@ -37480,13 +37480,13 @@
         <v>1056.7071068008511</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="X76">
         <f>NISRE!BA79</f>
         <v>0.22497970080538662</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="W77" t="str">
         <f>NISRE!AZ80</f>
         <v>Massflow real</v>
@@ -37504,24 +37504,24 @@
         <v>-0.17754430589287926</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE78" s="73"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A83" s="286" t="s">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="283" t="s">
         <v>468</v>
       </c>
       <c r="B83" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A84" s="286"/>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="283"/>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A85" s="286"/>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="283"/>
       <c r="B85" s="40" t="s">
         <v>654</v>
       </c>
@@ -37559,8 +37559,8 @@
       </c>
       <c r="Q85" s="41"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A86" s="286"/>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="283"/>
       <c r="B86" s="3" t="s">
         <v>159</v>
       </c>
@@ -37618,8 +37618,8 @@
         <v>-230.87078363713292</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A87" s="286"/>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="283"/>
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -37669,8 +37669,8 @@
         <v>230.87078363713292</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A88" s="286"/>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="283"/>
       <c r="B88" s="63">
         <f>E26</f>
         <v>766.42539896919243</v>
@@ -37724,8 +37724,8 @@
         <v>-249.7823633124614</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="286"/>
+    <row r="89" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="283"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
@@ -37743,8 +37743,8 @@
       <c r="P89" s="32"/>
       <c r="Q89" s="32"/>
     </row>
-    <row r="90" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="286"/>
+    <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="283"/>
       <c r="B90" s="55" t="s">
         <v>225</v>
       </c>
@@ -37782,8 +37782,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A91" s="286"/>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="283"/>
       <c r="B91" s="60">
         <v>0</v>
       </c>
@@ -37832,7 +37832,7 @@
         <v>-65.609514800144183</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="105"/>
       <c r="B92" s="136"/>
       <c r="C92" s="136"/>
@@ -37847,7 +37847,7 @@
       <c r="L92" s="137"/>
       <c r="M92" s="137"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="105"/>
       <c r="B93" s="136"/>
       <c r="C93" s="136"/>
@@ -37862,7 +37862,7 @@
       <c r="L93" s="137"/>
       <c r="M93" s="137"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="105"/>
       <c r="B94" s="136"/>
       <c r="C94" s="136"/>
@@ -37877,7 +37877,7 @@
       <c r="L94" s="137"/>
       <c r="M94" s="137"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="105"/>
       <c r="B95" s="136"/>
       <c r="C95" s="136"/>
@@ -37892,7 +37892,7 @@
       <c r="L95" s="137"/>
       <c r="M95" s="137"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="105"/>
       <c r="B96" s="136"/>
       <c r="C96" s="136"/>
@@ -37907,7 +37907,7 @@
       <c r="L96" s="137"/>
       <c r="M96" s="137"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="105"/>
       <c r="B97" s="136"/>
       <c r="C97" s="136"/>
@@ -37922,7 +37922,7 @@
       <c r="L97" s="137"/>
       <c r="M97" s="137"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="105"/>
       <c r="B98" s="136"/>
       <c r="C98" s="136"/>
@@ -37937,21 +37937,21 @@
       <c r="L98" s="137"/>
       <c r="M98" s="137"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A100" s="286" t="s">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="283" t="s">
         <v>508</v>
       </c>
       <c r="B100" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A101" s="286"/>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="283"/>
       <c r="H101" s="35"/>
       <c r="I101" s="35"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A102" s="286"/>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" s="283"/>
       <c r="B102" s="40" t="s">
         <v>648</v>
       </c>
@@ -37989,8 +37989,8 @@
       </c>
       <c r="Q102" s="41"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A103" s="286"/>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="283"/>
       <c r="B103" s="3" t="s">
         <v>159</v>
       </c>
@@ -38048,8 +38048,8 @@
         <v>-193.2</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A104" s="286"/>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" s="283"/>
       <c r="B104" s="3">
         <v>0</v>
       </c>
@@ -38099,8 +38099,8 @@
         <v>193.2</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A105" s="286"/>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" s="283"/>
       <c r="B105" s="63">
         <f>E36</f>
         <v>736.43459771106996</v>
@@ -38154,8 +38154,8 @@
         <v>-254.8</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="286"/>
+    <row r="106" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="283"/>
       <c r="B106" s="32"/>
       <c r="C106" s="32"/>
       <c r="D106" s="32"/>
@@ -38173,8 +38173,8 @@
       <c r="P106" s="32"/>
       <c r="Q106" s="32"/>
     </row>
-    <row r="107" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="286"/>
+    <row r="107" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="283"/>
       <c r="B107" s="55" t="s">
         <v>225</v>
       </c>
@@ -38212,8 +38212,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A108" s="286"/>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" s="283"/>
       <c r="B108" s="60">
         <v>0</v>
       </c>
@@ -38262,7 +38262,7 @@
         <v>-65.597568372395116</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="105"/>
       <c r="B109" s="136"/>
       <c r="C109" s="136"/>
@@ -38277,7 +38277,7 @@
       <c r="L109" s="137"/>
       <c r="M109" s="137"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="105"/>
       <c r="B110" s="136"/>
       <c r="C110" s="136"/>
@@ -38292,7 +38292,7 @@
       <c r="L110" s="137"/>
       <c r="M110" s="137"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="105"/>
       <c r="B111" s="136"/>
       <c r="C111" s="136"/>
@@ -38307,7 +38307,7 @@
       <c r="L111" s="137"/>
       <c r="M111" s="137"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="105"/>
       <c r="B112" s="136"/>
       <c r="C112" s="136"/>
@@ -38322,7 +38322,7 @@
       <c r="L112" s="137"/>
       <c r="M112" s="137"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="105"/>
       <c r="B113" s="136"/>
       <c r="C113" s="136"/>
@@ -38337,7 +38337,7 @@
       <c r="L113" s="137"/>
       <c r="M113" s="137"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="105"/>
       <c r="B114" s="136"/>
       <c r="C114" s="136"/>
@@ -38352,7 +38352,7 @@
       <c r="L114" s="137"/>
       <c r="M114" s="137"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="105"/>
       <c r="B115" s="136"/>
       <c r="C115" s="136"/>
@@ -38367,21 +38367,21 @@
       <c r="L115" s="137"/>
       <c r="M115" s="137"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A117" s="286" t="s">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A117" s="283" t="s">
         <v>509</v>
       </c>
       <c r="B117" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A118" s="286"/>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A118" s="283"/>
       <c r="H118" s="35"/>
       <c r="I118" s="35"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A119" s="286"/>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A119" s="283"/>
       <c r="B119" s="40" t="s">
         <v>660</v>
       </c>
@@ -38419,8 +38419,8 @@
       </c>
       <c r="Q119" s="41"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A120" s="286"/>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A120" s="283"/>
       <c r="B120" s="3" t="s">
         <v>159</v>
       </c>
@@ -38474,8 +38474,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A121" s="286"/>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A121" s="283"/>
       <c r="B121" s="3">
         <v>0</v>
       </c>
@@ -38527,8 +38527,8 @@
         <v>-151.82672378164924</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A122" s="286"/>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A122" s="283"/>
       <c r="B122" s="63">
         <f>E46</f>
         <v>709.23797980811491</v>
@@ -38586,8 +38586,8 @@
         <v>151.82672378164924</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="286"/>
+    <row r="123" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="283"/>
       <c r="B123" s="32"/>
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
@@ -38605,8 +38605,8 @@
       <c r="P123" s="32"/>
       <c r="Q123" s="32"/>
     </row>
-    <row r="124" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="286"/>
+    <row r="124" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="283"/>
       <c r="B124" s="55" t="s">
         <v>225</v>
       </c>
@@ -38644,8 +38644,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A125" s="286"/>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" s="283"/>
       <c r="B125" s="60">
         <v>0</v>
       </c>
@@ -38696,12 +38696,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A117:A125"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="F1:H1"/>
@@ -38709,6 +38703,12 @@
     <mergeCell ref="A100:A108"/>
     <mergeCell ref="N52:P52"/>
     <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="A117:A125"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38724,76 +38724,76 @@
       <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="10" width="22.7265625" customWidth="1"/>
-    <col min="12" max="24" width="12.26953125" customWidth="1"/>
-    <col min="27" max="27" width="24.7265625" customWidth="1"/>
-    <col min="28" max="28" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.26953125" customWidth="1"/>
-    <col min="36" max="36" width="20.54296875" customWidth="1"/>
-    <col min="38" max="38" width="20.1796875" customWidth="1"/>
-    <col min="39" max="42" width="13.54296875" customWidth="1"/>
-    <col min="43" max="43" width="14.54296875" customWidth="1"/>
-    <col min="44" max="44" width="17.54296875" customWidth="1"/>
-    <col min="45" max="45" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.81640625" customWidth="1"/>
-    <col min="53" max="53" width="15.7265625" customWidth="1"/>
-    <col min="59" max="59" width="13.54296875" customWidth="1"/>
-    <col min="60" max="60" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7265625" customWidth="1"/>
-    <col min="62" max="62" width="19.81640625" customWidth="1"/>
-    <col min="63" max="63" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="15.7265625" customWidth="1"/>
-    <col min="65" max="65" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="22.7109375" customWidth="1"/>
+    <col min="12" max="24" width="12.28515625" customWidth="1"/>
+    <col min="27" max="27" width="24.7109375" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.28515625" customWidth="1"/>
+    <col min="36" max="36" width="20.5703125" customWidth="1"/>
+    <col min="38" max="38" width="20.140625" customWidth="1"/>
+    <col min="39" max="42" width="13.5703125" customWidth="1"/>
+    <col min="43" max="43" width="14.5703125" customWidth="1"/>
+    <col min="44" max="44" width="17.5703125" customWidth="1"/>
+    <col min="45" max="45" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.85546875" customWidth="1"/>
+    <col min="53" max="53" width="15.7109375" customWidth="1"/>
+    <col min="59" max="59" width="13.5703125" customWidth="1"/>
+    <col min="60" max="60" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.7109375" customWidth="1"/>
+    <col min="62" max="62" width="19.85546875" customWidth="1"/>
+    <col min="63" max="63" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.7109375" customWidth="1"/>
+    <col min="65" max="65" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="66" max="68" width="13" customWidth="1"/>
-    <col min="69" max="70" width="13.7265625" customWidth="1"/>
+    <col min="69" max="70" width="13.7109375" customWidth="1"/>
     <col min="71" max="71" width="18" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="13.7265625" customWidth="1"/>
-    <col min="74" max="74" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="17.453125" customWidth="1"/>
-    <col min="76" max="76" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.81640625" customWidth="1"/>
-    <col min="79" max="79" width="18.7265625" customWidth="1"/>
-    <col min="80" max="80" width="18.54296875" customWidth="1"/>
-    <col min="81" max="81" width="23.453125" customWidth="1"/>
-    <col min="82" max="82" width="14.453125" customWidth="1"/>
-    <col min="83" max="83" width="27.7265625" customWidth="1"/>
+    <col min="72" max="72" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="13.7109375" customWidth="1"/>
+    <col min="74" max="74" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.42578125" customWidth="1"/>
+    <col min="76" max="76" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.85546875" customWidth="1"/>
+    <col min="79" max="79" width="18.7109375" customWidth="1"/>
+    <col min="80" max="80" width="18.5703125" customWidth="1"/>
+    <col min="81" max="81" width="23.42578125" customWidth="1"/>
+    <col min="82" max="82" width="14.42578125" customWidth="1"/>
+    <col min="83" max="83" width="27.7109375" customWidth="1"/>
     <col min="84" max="84" width="23" customWidth="1"/>
-    <col min="85" max="85" width="24.453125" customWidth="1"/>
-    <col min="86" max="86" width="16.54296875" customWidth="1"/>
-    <col min="87" max="87" width="16.7265625" customWidth="1"/>
+    <col min="85" max="85" width="24.42578125" customWidth="1"/>
+    <col min="86" max="86" width="16.5703125" customWidth="1"/>
+    <col min="87" max="87" width="16.7109375" customWidth="1"/>
     <col min="93" max="93" width="20" customWidth="1"/>
-    <col min="96" max="96" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="13.1796875" customWidth="1"/>
-    <col min="110" max="110" width="20.54296875" customWidth="1"/>
-    <col min="111" max="111" width="17.54296875" customWidth="1"/>
+    <col min="96" max="96" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.140625" customWidth="1"/>
+    <col min="110" max="110" width="20.5703125" customWidth="1"/>
+    <col min="111" max="111" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="36:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="36:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ1" s="10" t="s">
         <v>504</v>
       </c>
       <c r="AK1" s="11"/>
       <c r="AL1" s="12"/>
-      <c r="AS1" s="267" t="s">
+      <c r="AS1" s="263" t="s">
         <v>433</v>
       </c>
-      <c r="AT1" s="268"/>
-      <c r="AU1" s="269"/>
-      <c r="AV1" s="283" t="s">
+      <c r="AT1" s="264"/>
+      <c r="AU1" s="265"/>
+      <c r="AV1" s="289" t="s">
         <v>423</v>
       </c>
-      <c r="AW1" s="284"/>
-      <c r="AX1" s="284"/>
-      <c r="AY1" s="285"/>
+      <c r="AW1" s="290"/>
+      <c r="AX1" s="290"/>
+      <c r="AY1" s="291"/>
       <c r="BA1" s="108" t="s">
         <v>477</v>
       </c>
@@ -38804,7 +38804,7 @@
       <c r="BC1" s="2"/>
       <c r="BD1" s="2"/>
     </row>
-    <row r="2" spans="36:95" x14ac:dyDescent="0.35">
+    <row r="2" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ2" s="9" t="str">
         <f t="shared" ref="AJ2:AL3" si="0">CF4</f>
         <v>T01</v>
@@ -38850,7 +38850,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="36:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="36:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ3" s="9" t="str">
         <f t="shared" si="0"/>
         <v>P01</v>
@@ -38902,23 +38902,23 @@
       </c>
       <c r="CG3" s="304"/>
       <c r="CH3" s="304"/>
-      <c r="CI3" s="291" t="s">
+      <c r="CI3" s="286" t="s">
         <v>414</v>
       </c>
-      <c r="CJ3" s="291"/>
-      <c r="CK3" s="291"/>
-      <c r="CL3" s="290" t="s">
+      <c r="CJ3" s="286"/>
+      <c r="CK3" s="286"/>
+      <c r="CL3" s="285" t="s">
         <v>415</v>
       </c>
-      <c r="CM3" s="290"/>
-      <c r="CN3" s="290"/>
+      <c r="CM3" s="285"/>
+      <c r="CN3" s="285"/>
       <c r="CO3" s="303" t="s">
         <v>416</v>
       </c>
       <c r="CP3" s="303"/>
       <c r="CQ3" s="303"/>
     </row>
-    <row r="4" spans="36:95" x14ac:dyDescent="0.35">
+    <row r="4" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ4" s="9" t="str">
         <f t="shared" ref="AJ4:AL8" si="1">CF7</f>
         <v>T1</v>
@@ -39014,7 +39014,7 @@
         <v>J/kg</v>
       </c>
     </row>
-    <row r="5" spans="36:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="36:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ5" s="9" t="str">
         <f t="shared" si="1"/>
         <v>P1</v>
@@ -39110,7 +39110,7 @@
         <v>J/kg</v>
       </c>
     </row>
-    <row r="6" spans="36:95" x14ac:dyDescent="0.35">
+    <row r="6" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>rho1</v>
@@ -39199,7 +39199,7 @@
       </c>
       <c r="CQ6" s="112"/>
     </row>
-    <row r="7" spans="36:95" x14ac:dyDescent="0.35">
+    <row r="7" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>A1</v>
@@ -39282,7 +39282,7 @@
       </c>
       <c r="CQ7" s="112"/>
     </row>
-    <row r="8" spans="36:95" x14ac:dyDescent="0.35">
+    <row r="8" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ8" s="9" t="str">
         <f t="shared" si="1"/>
         <v>M1</v>
@@ -39368,7 +39368,7 @@
         <v>[º]</v>
       </c>
     </row>
-    <row r="9" spans="36:95" x14ac:dyDescent="0.35">
+    <row r="9" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ9" s="9" t="s">
         <v>417</v>
       </c>
@@ -39449,7 +39449,7 @@
       </c>
       <c r="CQ9" s="112"/>
     </row>
-    <row r="10" spans="36:95" x14ac:dyDescent="0.35">
+    <row r="10" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ10" s="9" t="str">
         <f>CF6</f>
         <v>V1</v>
@@ -39532,7 +39532,7 @@
       </c>
       <c r="CQ10" s="112"/>
     </row>
-    <row r="11" spans="36:95" x14ac:dyDescent="0.35">
+    <row r="11" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ11" s="9" t="s">
         <v>420</v>
       </c>
@@ -39612,7 +39612,7 @@
       </c>
       <c r="CQ11" s="112"/>
     </row>
-    <row r="12" spans="36:95" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="36:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ12" s="13" t="s">
         <v>422</v>
       </c>
@@ -39680,7 +39680,7 @@
       </c>
       <c r="CQ12" s="112"/>
     </row>
-    <row r="13" spans="36:95" x14ac:dyDescent="0.35">
+    <row r="13" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AP13" s="3" t="s">
         <v>210</v>
       </c>
@@ -39744,7 +39744,7 @@
       </c>
       <c r="CQ13" s="112"/>
     </row>
-    <row r="14" spans="36:95" x14ac:dyDescent="0.35">
+    <row r="14" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AP14" s="3" t="s">
         <v>7</v>
       </c>
@@ -39808,12 +39808,12 @@
       </c>
       <c r="CQ14" s="112"/>
     </row>
-    <row r="15" spans="36:95" x14ac:dyDescent="0.35">
-      <c r="AJ15" s="263" t="s">
+    <row r="15" spans="36:95" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="269" t="s">
         <v>443</v>
       </c>
-      <c r="AK15" s="263"/>
-      <c r="AL15" s="263"/>
+      <c r="AK15" s="269"/>
+      <c r="AL15" s="269"/>
       <c r="AP15" s="3" t="s">
         <v>35</v>
       </c>
@@ -39877,12 +39877,12 @@
       </c>
       <c r="CQ15" s="112"/>
     </row>
-    <row r="16" spans="36:95" x14ac:dyDescent="0.35">
-      <c r="AJ16" s="289" t="s">
+    <row r="16" spans="36:95" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="284" t="s">
         <v>444</v>
       </c>
-      <c r="AK16" s="289"/>
-      <c r="AL16" s="289"/>
+      <c r="AK16" s="284"/>
+      <c r="AL16" s="284"/>
       <c r="AM16" t="s">
         <v>445</v>
       </c>
@@ -39950,7 +39950,7 @@
       </c>
       <c r="CQ16" s="112"/>
     </row>
-    <row r="17" spans="1:133" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AM17" t="s">
         <v>446</v>
       </c>
@@ -40016,7 +40016,7 @@
       </c>
       <c r="CQ17" s="112"/>
     </row>
-    <row r="18" spans="1:133" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ18" s="108" t="s">
         <v>450</v>
       </c>
@@ -40062,7 +40062,7 @@
       <c r="CP18" s="2"/>
       <c r="CQ18" s="112"/>
     </row>
-    <row r="19" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.25">
       <c r="AJ19" s="111" t="s">
         <v>451</v>
       </c>
@@ -40108,7 +40108,7 @@
       <c r="CP19" s="2"/>
       <c r="CQ19" s="112"/>
     </row>
-    <row r="20" spans="1:133" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ20" s="206" t="s">
         <v>452</v>
       </c>
@@ -40159,7 +40159,7 @@
       <c r="CP20" s="2"/>
       <c r="CQ20" s="112"/>
     </row>
-    <row r="21" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.25">
       <c r="AJ21" s="108" t="s">
         <v>455</v>
       </c>
@@ -40203,7 +40203,7 @@
         <v>[m]</v>
       </c>
     </row>
-    <row r="22" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:133" x14ac:dyDescent="0.25">
       <c r="AJ22" s="111" t="s">
         <v>453</v>
       </c>
@@ -40251,7 +40251,7 @@
         <v>[m]</v>
       </c>
     </row>
-    <row r="23" spans="1:133" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
         <v>588</v>
       </c>
@@ -40315,7 +40315,7 @@
         <v>[m]</v>
       </c>
     </row>
-    <row r="24" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:133" x14ac:dyDescent="0.25">
       <c r="G24" t="s">
         <v>100</v>
       </c>
@@ -40412,21 +40412,21 @@
       <c r="DB24" s="73"/>
       <c r="DC24" s="73"/>
     </row>
-    <row r="25" spans="1:133" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:133" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F25" t="s">
         <v>589</v>
       </c>
-      <c r="G25" s="305" t="s">
+      <c r="G25" s="299" t="s">
         <v>586</v>
       </c>
-      <c r="H25" s="306"/>
-      <c r="I25" s="306"/>
-      <c r="J25" s="306"/>
-      <c r="K25" s="306"/>
-      <c r="Y25" s="289" t="s">
+      <c r="H25" s="300"/>
+      <c r="I25" s="300"/>
+      <c r="J25" s="300"/>
+      <c r="K25" s="300"/>
+      <c r="Y25" s="284" t="s">
         <v>629</v>
       </c>
-      <c r="Z25" s="289"/>
+      <c r="Z25" s="284"/>
       <c r="AA25" s="1" t="s">
         <v>72</v>
       </c>
@@ -40632,11 +40632,11 @@
       <c r="DB25" s="219"/>
       <c r="DC25" s="73"/>
     </row>
-    <row r="26" spans="1:133" x14ac:dyDescent="0.35">
-      <c r="A26" s="297" t="s">
+    <row r="26" spans="1:133" x14ac:dyDescent="0.25">
+      <c r="A26" s="307" t="s">
         <v>533</v>
       </c>
-      <c r="B26" s="298"/>
+      <c r="B26" s="308"/>
       <c r="C26" s="186"/>
       <c r="D26" s="186"/>
       <c r="E26" s="146"/>
@@ -40664,18 +40664,18 @@
         <f>(J26+J27)/2*(G27-G26)</f>
         <v>3.7968749999997302E-3</v>
       </c>
-      <c r="AA26" s="300" t="s">
+      <c r="AA26" s="309" t="s">
         <v>758</v>
       </c>
-      <c r="AB26" s="301"/>
-      <c r="AC26" s="300" t="s">
+      <c r="AB26" s="310"/>
+      <c r="AC26" s="309" t="s">
         <v>759</v>
       </c>
-      <c r="AD26" s="301"/>
-      <c r="AE26" s="300" t="s">
+      <c r="AD26" s="310"/>
+      <c r="AE26" s="309" t="s">
         <v>760</v>
       </c>
-      <c r="AF26" s="301"/>
+      <c r="AF26" s="310"/>
       <c r="AG26" s="146"/>
       <c r="AH26" s="146"/>
       <c r="AJ26" s="201" t="s">
@@ -40909,7 +40909,7 @@
       <c r="DB26" s="32"/>
       <c r="DC26" s="73"/>
     </row>
-    <row r="27" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>526</v>
       </c>
@@ -41180,7 +41180,7 @@
       <c r="DB27" s="73"/>
       <c r="DC27" s="73"/>
     </row>
-    <row r="28" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f>CL37</f>
         <v>chord</v>
@@ -41456,7 +41456,7 @@
       <c r="DB28" s="73"/>
       <c r="DC28" s="73"/>
     </row>
-    <row r="29" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>520</v>
       </c>
@@ -41712,7 +41712,7 @@
       <c r="DB29" s="73"/>
       <c r="DC29" s="73"/>
     </row>
-    <row r="30" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f t="shared" ref="A30:B32" si="51">CL39</f>
         <v>Re dh</v>
@@ -41964,7 +41964,7 @@
       <c r="DB30" s="73"/>
       <c r="DC30" s="73"/>
     </row>
-    <row r="31" spans="1:133" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" si="51"/>
         <v>dh</v>
@@ -41995,10 +41995,10 @@
         <f t="shared" si="31"/>
         <v>1.2656249999998205E-3</v>
       </c>
-      <c r="Y31" s="289" t="s">
+      <c r="Y31" s="284" t="s">
         <v>570</v>
       </c>
-      <c r="Z31" s="302"/>
+      <c r="Z31" s="296"/>
       <c r="AA31" s="165" t="s">
         <v>527</v>
       </c>
@@ -42241,7 +42241,7 @@
       <c r="DB31" s="73"/>
       <c r="DC31" s="73"/>
     </row>
-    <row r="32" spans="1:133" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="str">
         <f t="shared" si="51"/>
         <v>Re c</v>
@@ -42542,7 +42542,7 @@
       <c r="EB32" s="73"/>
       <c r="EC32" s="73"/>
     </row>
-    <row r="33" spans="1:143" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>525</v>
       </c>
@@ -42818,7 +42818,7 @@
       <c r="EB33" s="73"/>
       <c r="EC33" s="73"/>
     </row>
-    <row r="34" spans="1:143" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>404</v>
       </c>
@@ -42852,10 +42852,10 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="289" t="s">
+      <c r="Y34" s="284" t="s">
         <v>570</v>
       </c>
-      <c r="Z34" s="289"/>
+      <c r="Z34" s="284"/>
       <c r="AA34" s="166" t="s">
         <v>591</v>
       </c>
@@ -43102,7 +43102,7 @@
       <c r="EB34" s="73"/>
       <c r="EC34" s="73"/>
     </row>
-    <row r="35" spans="1:143" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>72</v>
       </c>
@@ -43401,7 +43401,7 @@
       <c r="EB35" s="73"/>
       <c r="EC35" s="73"/>
     </row>
-    <row r="36" spans="1:143" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:143" s="132" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="73"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73" t="s">
@@ -43440,10 +43440,10 @@
       <c r="V36" s="73"/>
       <c r="W36" s="73"/>
       <c r="X36" s="73"/>
-      <c r="Y36" s="289" t="s">
+      <c r="Y36" s="284" t="s">
         <v>563</v>
       </c>
-      <c r="Z36" s="302"/>
+      <c r="Z36" s="296"/>
       <c r="AA36" s="165" t="s">
         <v>557</v>
       </c>
@@ -43713,7 +43713,7 @@
       <c r="EL36" s="73"/>
       <c r="EM36" s="73"/>
     </row>
-    <row r="37" spans="1:143" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <f>12.4/1.08</f>
         <v>11.481481481481481</v>
@@ -43741,10 +43741,10 @@
         <f t="shared" ref="K37" si="54">(J37+J36)/2*(G37-G36)*SUM($I$36:$I$46)</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="289" t="s">
+      <c r="Y37" s="284" t="s">
         <v>569</v>
       </c>
-      <c r="Z37" s="302"/>
+      <c r="Z37" s="296"/>
       <c r="AA37" s="166" t="s">
         <v>558</v>
       </c>
@@ -44006,11 +44006,11 @@
       <c r="EB37" s="73"/>
       <c r="EC37" s="73"/>
     </row>
-    <row r="38" spans="1:143" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="297" t="s">
+    <row r="38" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="307" t="s">
         <v>534</v>
       </c>
-      <c r="B38" s="298"/>
+      <c r="B38" s="308"/>
       <c r="C38" s="186"/>
       <c r="D38" s="186"/>
       <c r="E38" s="146"/>
@@ -44038,10 +44038,10 @@
         <f t="shared" ref="K38:K45" si="62">(J38+J37)/2*(G38-G37)</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="289" t="s">
+      <c r="Y38" s="284" t="s">
         <v>564</v>
       </c>
-      <c r="Z38" s="302"/>
+      <c r="Z38" s="296"/>
       <c r="AA38" s="168" t="s">
         <v>562</v>
       </c>
@@ -44277,7 +44277,7 @@
       <c r="DB38" s="73"/>
       <c r="DC38" s="73"/>
     </row>
-    <row r="39" spans="1:143" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>527</v>
       </c>
@@ -44307,10 +44307,10 @@
         <f t="shared" si="62"/>
         <v>2.5312499999996171E-4</v>
       </c>
-      <c r="Y39" s="289" t="s">
+      <c r="Y39" s="284" t="s">
         <v>566</v>
       </c>
-      <c r="Z39" s="302"/>
+      <c r="Z39" s="296"/>
       <c r="AA39" s="165" t="s">
         <v>568</v>
       </c>
@@ -44333,10 +44333,10 @@
         <v>8.5565759378543174E-2</v>
       </c>
       <c r="AG39" s="202"/>
-      <c r="AH39" s="299" t="s">
+      <c r="AH39" s="294" t="s">
         <v>761</v>
       </c>
-      <c r="AI39" s="299"/>
+      <c r="AI39" s="294"/>
       <c r="AJ39" s="73"/>
       <c r="AK39">
         <v>14</v>
@@ -44553,7 +44553,7 @@
       <c r="DB39" s="73"/>
       <c r="DC39" s="73"/>
     </row>
-    <row r="40" spans="1:143" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>528</v>
       </c>
@@ -44602,8 +44602,8 @@
         <v>1.8</v>
       </c>
       <c r="AG40" s="2"/>
-      <c r="AH40" s="299"/>
-      <c r="AI40" s="299"/>
+      <c r="AH40" s="294"/>
+      <c r="AI40" s="294"/>
       <c r="AK40">
         <v>15</v>
       </c>
@@ -44819,7 +44819,7 @@
       <c r="DB40" s="73"/>
       <c r="DC40" s="73"/>
     </row>
-    <row r="41" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>556</v>
       </c>
@@ -45093,7 +45093,7 @@
       <c r="DB41" s="73"/>
       <c r="DC41" s="73"/>
     </row>
-    <row r="42" spans="1:143" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>556</v>
       </c>
@@ -45363,7 +45363,7 @@
       <c r="DB42" s="73"/>
       <c r="DC42" s="73"/>
     </row>
-    <row r="43" spans="1:143" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>529</v>
       </c>
@@ -45392,10 +45392,10 @@
         <f t="shared" si="62"/>
         <v>2.2781249999997261E-3</v>
       </c>
-      <c r="Y43" s="289" t="s">
+      <c r="Y43" s="284" t="s">
         <v>565</v>
       </c>
-      <c r="Z43" s="302"/>
+      <c r="Z43" s="296"/>
       <c r="AA43" s="165" t="s">
         <v>561</v>
       </c>
@@ -45616,7 +45616,7 @@
       </c>
       <c r="CQ43" s="112"/>
     </row>
-    <row r="44" spans="1:143" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>530</v>
       </c>
@@ -45858,7 +45858,7 @@
       </c>
       <c r="CQ44" s="112"/>
     </row>
-    <row r="45" spans="1:143" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="157" t="s">
         <v>535</v>
       </c>
@@ -46082,7 +46082,7 @@
       </c>
       <c r="CQ45" s="112"/>
     </row>
-    <row r="46" spans="1:143" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="140" t="s">
         <v>535</v>
       </c>
@@ -46289,7 +46289,7 @@
       </c>
       <c r="CQ46" s="112"/>
     </row>
-    <row r="47" spans="1:143" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="155" t="s">
         <v>549</v>
       </c>
@@ -46315,7 +46315,7 @@
       </c>
       <c r="CQ47" s="115"/>
     </row>
-    <row r="48" spans="1:143" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>551</v>
       </c>
@@ -46351,7 +46351,7 @@
       <c r="CP48" s="2"/>
       <c r="CQ48" s="2"/>
     </row>
-    <row r="49" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:105" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>552</v>
       </c>
@@ -46393,7 +46393,7 @@
       <c r="CP49" s="2"/>
       <c r="CQ49" s="2"/>
     </row>
-    <row r="50" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>571</v>
       </c>
@@ -46421,7 +46421,7 @@
       <c r="CP50" s="2"/>
       <c r="CQ50" s="2"/>
     </row>
-    <row r="51" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:105" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>555</v>
       </c>
@@ -46449,7 +46449,7 @@
       <c r="CB51" s="179"/>
       <c r="CC51" s="73"/>
     </row>
-    <row r="52" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>553</v>
       </c>
@@ -46494,7 +46494,7 @@
       <c r="CI52" s="73"/>
       <c r="CJ52" s="73"/>
     </row>
-    <row r="53" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>572</v>
       </c>
@@ -46533,7 +46533,7 @@
       <c r="CF53" s="73"/>
       <c r="CG53" s="73"/>
     </row>
-    <row r="54" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>574</v>
       </c>
@@ -46563,13 +46563,13 @@
       <c r="BY54" s="73"/>
       <c r="BZ54" s="73"/>
       <c r="CA54" s="73"/>
-      <c r="CW54" s="289"/>
-      <c r="CX54" s="289"/>
-      <c r="CY54" s="289"/>
-      <c r="CZ54" s="289"/>
-      <c r="DA54" s="289"/>
+      <c r="CW54" s="284"/>
+      <c r="CX54" s="284"/>
+      <c r="CY54" s="284"/>
+      <c r="CZ54" s="284"/>
+      <c r="DA54" s="284"/>
     </row>
-    <row r="55" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>575</v>
       </c>
@@ -46589,10 +46589,10 @@
       <c r="V55" t="s">
         <v>762</v>
       </c>
-      <c r="Y55" s="286" t="s">
+      <c r="Y55" s="283" t="s">
         <v>628</v>
       </c>
-      <c r="Z55" s="286"/>
+      <c r="Z55" s="283"/>
       <c r="AA55" s="1" t="s">
         <v>118</v>
       </c>
@@ -46618,10 +46618,10 @@
         <f>AY9</f>
         <v>254.08869342764129</v>
       </c>
-      <c r="BE55" s="251" t="s">
+      <c r="BE55" s="274" t="s">
         <v>623</v>
       </c>
-      <c r="BF55" s="251"/>
+      <c r="BF55" s="274"/>
       <c r="BG55" s="209"/>
       <c r="BH55" s="210" t="s">
         <v>638</v>
@@ -46651,7 +46651,7 @@
       </c>
       <c r="CY55" s="200"/>
     </row>
-    <row r="56" spans="1:105" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:105" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>582</v>
       </c>
@@ -46664,22 +46664,22 @@
       <c r="F56" t="s">
         <v>589</v>
       </c>
-      <c r="G56" s="307" t="s">
+      <c r="G56" s="301" t="s">
         <v>585</v>
       </c>
-      <c r="H56" s="308"/>
-      <c r="I56" s="308"/>
-      <c r="J56" s="308"/>
-      <c r="K56" s="308"/>
-      <c r="R56" s="307" t="s">
+      <c r="H56" s="302"/>
+      <c r="I56" s="302"/>
+      <c r="J56" s="302"/>
+      <c r="K56" s="302"/>
+      <c r="R56" s="301" t="s">
         <v>584</v>
       </c>
-      <c r="S56" s="308"/>
-      <c r="T56" s="308"/>
-      <c r="U56" s="308"/>
-      <c r="V56" s="308"/>
-      <c r="Y56" s="286"/>
-      <c r="Z56" s="286"/>
+      <c r="S56" s="302"/>
+      <c r="T56" s="302"/>
+      <c r="U56" s="302"/>
+      <c r="V56" s="302"/>
+      <c r="Y56" s="283"/>
+      <c r="Z56" s="283"/>
       <c r="AA56" s="1" t="s">
         <v>73</v>
       </c>
@@ -46893,7 +46893,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="57" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:105" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E57" s="146"/>
       <c r="F57" s="146">
         <f>ATAN(J57/H57)</f>
@@ -46919,10 +46919,10 @@
         <f>(J57+J58)/2*(G58-G57)</f>
         <v>9.5809999999988179E-3</v>
       </c>
-      <c r="N57" s="293" t="s">
+      <c r="N57" s="305" t="s">
         <v>765</v>
       </c>
-      <c r="O57" s="294"/>
+      <c r="O57" s="306"/>
       <c r="R57" s="171">
         <f>AL57</f>
         <v>0.10590399514291465</v>
@@ -46937,18 +46937,18 @@
         <f>V58</f>
         <v>0</v>
       </c>
-      <c r="AA57" s="295" t="s">
+      <c r="AA57" s="297" t="s">
         <v>758</v>
       </c>
-      <c r="AB57" s="296"/>
-      <c r="AC57" s="295" t="s">
+      <c r="AB57" s="298"/>
+      <c r="AC57" s="297" t="s">
         <v>759</v>
       </c>
-      <c r="AD57" s="296"/>
-      <c r="AE57" s="295" t="s">
+      <c r="AD57" s="298"/>
+      <c r="AE57" s="297" t="s">
         <v>760</v>
       </c>
-      <c r="AF57" s="296"/>
+      <c r="AF57" s="298"/>
       <c r="AG57" s="204"/>
       <c r="AH57" s="204"/>
       <c r="AJ57" s="201" t="s">
@@ -47200,7 +47200,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="58" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A58" s="159" t="s">
         <v>533</v>
       </c>
@@ -47514,7 +47514,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="59" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>526</v>
       </c>
@@ -47844,7 +47844,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="60" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:105" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>519</v>
       </c>
@@ -48174,7 +48174,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="61" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>520</v>
       </c>
@@ -48499,7 +48499,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="62" spans="1:105" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:105" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>521</v>
       </c>
@@ -48554,10 +48554,10 @@
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="Y62" s="289" t="s">
+      <c r="Y62" s="284" t="s">
         <v>570</v>
       </c>
-      <c r="Z62" s="309"/>
+      <c r="Z62" s="295"/>
       <c r="AA62" s="165" t="s">
         <v>527</v>
       </c>
@@ -48822,7 +48822,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="63" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>522</v>
       </c>
@@ -49140,7 +49140,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="64" spans="1:105" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>523</v>
       </c>
@@ -49449,7 +49449,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="65" spans="1:147" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>525</v>
       </c>
@@ -49506,11 +49506,11 @@
         <f t="shared" si="132"/>
         <v>0</v>
       </c>
-      <c r="X65" s="289" t="s">
+      <c r="X65" s="284" t="s">
         <v>570</v>
       </c>
-      <c r="Y65" s="289"/>
-      <c r="Z65" s="309"/>
+      <c r="Y65" s="284"/>
+      <c r="Z65" s="295"/>
       <c r="AA65" s="166" t="s">
         <v>591</v>
       </c>
@@ -49775,7 +49775,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="66" spans="1:147" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>531</v>
       </c>
@@ -50109,7 +50109,7 @@
       <c r="DL66" s="73"/>
       <c r="DM66" s="73"/>
     </row>
-    <row r="67" spans="1:147" s="132" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:147" s="132" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>118</v>
       </c>
@@ -50163,10 +50163,10 @@
       </c>
       <c r="W67" s="73"/>
       <c r="X67"/>
-      <c r="Y67" s="289" t="s">
+      <c r="Y67" s="284" t="s">
         <v>563</v>
       </c>
-      <c r="Z67" s="309"/>
+      <c r="Z67" s="295"/>
       <c r="AA67" s="165" t="s">
         <v>557</v>
       </c>
@@ -50480,7 +50480,7 @@
       <c r="EP67" s="73"/>
       <c r="EQ67" s="73"/>
     </row>
-    <row r="68" spans="1:147" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A68" s="73"/>
       <c r="B68" s="73"/>
       <c r="C68" s="73"/>
@@ -50529,10 +50529,10 @@
         <v>0</v>
       </c>
       <c r="X68" s="73"/>
-      <c r="Y68" s="289" t="s">
+      <c r="Y68" s="284" t="s">
         <v>569</v>
       </c>
-      <c r="Z68" s="309"/>
+      <c r="Z68" s="295"/>
       <c r="AA68" s="166" t="s">
         <v>558</v>
       </c>
@@ -50813,7 +50813,7 @@
       <c r="DL68" s="73"/>
       <c r="DM68" s="73"/>
     </row>
-    <row r="69" spans="1:147" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69">
         <f>14/1.31</f>
         <v>10.687022900763358</v>
@@ -50867,11 +50867,11 @@
         <f t="shared" si="132"/>
         <v>0</v>
       </c>
-      <c r="X69" s="289" t="s">
+      <c r="X69" s="284" t="s">
         <v>564</v>
       </c>
-      <c r="Y69" s="289"/>
-      <c r="Z69" s="309"/>
+      <c r="Y69" s="284"/>
+      <c r="Z69" s="295"/>
       <c r="AA69" s="165" t="s">
         <v>562</v>
       </c>
@@ -51136,7 +51136,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="70" spans="1:147" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="159" t="s">
         <v>534</v>
       </c>
@@ -51194,11 +51194,11 @@
         <f t="shared" si="132"/>
         <v>3.1832167890308237E-3</v>
       </c>
-      <c r="X70" s="289" t="s">
+      <c r="X70" s="284" t="s">
         <v>566</v>
       </c>
-      <c r="Y70" s="289"/>
-      <c r="Z70" s="309"/>
+      <c r="Y70" s="284"/>
+      <c r="Z70" s="295"/>
       <c r="AA70" s="165" t="s">
         <v>568</v>
       </c>
@@ -51221,10 +51221,10 @@
         <v>9.1612651514654961E-2</v>
       </c>
       <c r="AG70" s="202"/>
-      <c r="AH70" s="299" t="s">
+      <c r="AH70" s="294" t="s">
         <v>761</v>
       </c>
-      <c r="AI70" s="299"/>
+      <c r="AI70" s="294"/>
       <c r="AK70">
         <v>14</v>
       </c>
@@ -51469,7 +51469,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="71" spans="1:147" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>527</v>
       </c>
@@ -51555,8 +51555,8 @@
         <v>118.56742054402559</v>
       </c>
       <c r="AG71" s="2"/>
-      <c r="AH71" s="299"/>
-      <c r="AI71" s="299"/>
+      <c r="AH71" s="294"/>
+      <c r="AI71" s="294"/>
       <c r="AJ71" s="73"/>
       <c r="AK71">
         <v>15</v>
@@ -51802,7 +51802,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="72" spans="1:147" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>528</v>
       </c>
@@ -51865,11 +51865,11 @@
         <f t="shared" si="132"/>
         <v>1.5916083945154608E-2</v>
       </c>
-      <c r="X72" s="289" t="s">
+      <c r="X72" s="284" t="s">
         <v>567</v>
       </c>
-      <c r="Y72" s="289"/>
-      <c r="Z72" s="309"/>
+      <c r="Y72" s="284"/>
+      <c r="Z72" s="295"/>
       <c r="AA72" s="165" t="s">
         <v>559</v>
       </c>
@@ -52141,7 +52141,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="73" spans="1:147" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>556</v>
       </c>
@@ -52198,11 +52198,11 @@
         <v>2.2282517523216014E-2</v>
       </c>
       <c r="W73" s="136"/>
-      <c r="X73" s="289" t="s">
+      <c r="X73" s="284" t="s">
         <v>565</v>
       </c>
-      <c r="Y73" s="289"/>
-      <c r="Z73" s="309"/>
+      <c r="Y73" s="284"/>
+      <c r="Z73" s="295"/>
       <c r="AA73" s="165" t="s">
         <v>560</v>
       </c>
@@ -52477,7 +52477,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="74" spans="1:147" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>556</v>
       </c>
@@ -52801,7 +52801,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="75" spans="1:147" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>529</v>
       </c>
@@ -53118,7 +53118,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="76" spans="1:147" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>530</v>
       </c>
@@ -53426,7 +53426,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="77" spans="1:147" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="161" t="s">
         <v>532</v>
       </c>
@@ -53712,7 +53712,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="78" spans="1:147" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="140" t="s">
         <v>532</v>
       </c>
@@ -53757,7 +53757,7 @@
       <c r="BK78" s="2"/>
       <c r="BL78" s="2"/>
     </row>
-    <row r="79" spans="1:147" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="159" t="s">
         <v>550</v>
       </c>
@@ -53788,7 +53788,7 @@
         <v>0.22497970080538662</v>
       </c>
     </row>
-    <row r="80" spans="1:147" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>551</v>
       </c>
@@ -53844,7 +53844,7 @@
       <c r="CN80" s="109"/>
       <c r="CO80" s="110"/>
     </row>
-    <row r="81" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>552</v>
       </c>
@@ -53879,7 +53879,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="82" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>571</v>
       </c>
@@ -53901,7 +53901,7 @@
       <c r="T82" s="153"/>
       <c r="U82" s="224"/>
     </row>
-    <row r="83" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>555</v>
       </c>
@@ -53919,7 +53919,7 @@
       </c>
       <c r="U83" s="224"/>
     </row>
-    <row r="84" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>554</v>
       </c>
@@ -53934,7 +53934,7 @@
       </c>
       <c r="U84" s="224"/>
     </row>
-    <row r="85" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>573</v>
       </c>
@@ -53954,7 +53954,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="86" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>574</v>
       </c>
@@ -53965,14 +53965,14 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="U86" s="224"/>
-      <c r="AJ86" s="286" t="s">
+      <c r="AJ86" s="283" t="s">
         <v>468</v>
       </c>
       <c r="AK86" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>575</v>
       </c>
@@ -53983,14 +53983,14 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="U87" s="224"/>
-      <c r="AJ87" s="286"/>
+      <c r="AJ87" s="283"/>
       <c r="AU87" s="35"/>
       <c r="AV87" s="35"/>
       <c r="BH87" s="32"/>
       <c r="BI87" s="32"/>
       <c r="BJ87" s="32"/>
     </row>
-    <row r="88" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>581</v>
       </c>
@@ -53998,7 +53998,7 @@
         <f>B85/AK23</f>
         <v>6.9999999999999938</v>
       </c>
-      <c r="AJ88" s="286"/>
+      <c r="AJ88" s="283"/>
       <c r="AK88" s="40" t="s">
         <v>667</v>
       </c>
@@ -54054,8 +54054,8 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="89" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="AJ89" s="286"/>
+    <row r="89" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="283"/>
       <c r="AK89" s="3" t="s">
         <v>159</v>
       </c>
@@ -54131,8 +54131,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="AJ90" s="286"/>
+    <row r="90" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="283"/>
       <c r="AK90" s="3">
         <v>0</v>
       </c>
@@ -54192,8 +54192,8 @@
       <c r="BT90" s="32"/>
       <c r="BU90" s="32"/>
     </row>
-    <row r="91" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="AJ91" s="286"/>
+    <row r="91" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="283"/>
       <c r="AK91" s="63">
         <f>AN26</f>
         <v>768.22125433469159</v>
@@ -54264,8 +54264,8 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="92" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AJ92" s="286"/>
+    <row r="92" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ92" s="283"/>
       <c r="AK92" s="32"/>
       <c r="AL92" s="32"/>
       <c r="AM92" s="32"/>
@@ -54300,8 +54300,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:93" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AJ93" s="286"/>
+    <row r="93" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ93" s="283"/>
       <c r="AK93" s="55" t="s">
         <v>225</v>
       </c>
@@ -54347,8 +54347,8 @@
       <c r="BT93" s="78"/>
       <c r="BU93" s="78"/>
     </row>
-    <row r="94" spans="1:93" x14ac:dyDescent="0.35">
-      <c r="AJ94" s="286"/>
+    <row r="94" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="283"/>
       <c r="AK94" s="60">
         <v>0</v>
       </c>
@@ -54405,7 +54405,7 @@
       <c r="BT94" s="192"/>
       <c r="BU94" s="192"/>
     </row>
-    <row r="95" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:93" x14ac:dyDescent="0.25">
       <c r="AJ95" s="138"/>
       <c r="AK95" s="136"/>
       <c r="AL95" s="136"/>
@@ -54428,7 +54428,7 @@
       <c r="BT95" s="192"/>
       <c r="BU95" s="192"/>
     </row>
-    <row r="96" spans="1:93" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:93" x14ac:dyDescent="0.25">
       <c r="AJ96" s="138"/>
       <c r="AK96" s="136"/>
       <c r="AL96" s="136"/>
@@ -54452,7 +54452,7 @@
       <c r="BT96" s="192"/>
       <c r="BU96" s="192"/>
     </row>
-    <row r="97" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="97" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ97" s="138"/>
       <c r="AK97" s="136"/>
       <c r="AL97" s="136"/>
@@ -54476,7 +54476,7 @@
       <c r="BT97" s="192"/>
       <c r="BU97" s="192"/>
     </row>
-    <row r="98" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="98" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ98" s="138"/>
       <c r="AK98" s="136"/>
       <c r="AL98" s="136"/>
@@ -54500,7 +54500,7 @@
       <c r="BT98" s="192"/>
       <c r="BU98" s="192"/>
     </row>
-    <row r="99" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="99" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ99" s="138"/>
       <c r="AK99" s="136"/>
       <c r="AL99" s="136"/>
@@ -54524,7 +54524,7 @@
       <c r="BT99" s="192"/>
       <c r="BU99" s="192"/>
     </row>
-    <row r="100" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="100" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ100" s="138"/>
       <c r="AK100" s="136"/>
       <c r="AL100" s="136"/>
@@ -54548,7 +54548,7 @@
       <c r="BT100" s="192"/>
       <c r="BU100" s="192"/>
     </row>
-    <row r="101" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="101" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ101" s="138"/>
       <c r="AK101" s="136"/>
       <c r="AL101" s="136"/>
@@ -54572,7 +54572,7 @@
       <c r="BT101" s="192"/>
       <c r="BU101" s="192"/>
     </row>
-    <row r="102" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="102" spans="36:73" x14ac:dyDescent="0.25">
       <c r="BH102" s="32"/>
       <c r="BI102" s="32"/>
       <c r="BJ102" s="32"/>
@@ -54582,8 +54582,8 @@
       <c r="BT102" s="73"/>
       <c r="BU102" s="73"/>
     </row>
-    <row r="103" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ103" s="286" t="s">
+    <row r="103" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ103" s="283" t="s">
         <v>508</v>
       </c>
       <c r="AK103" t="s">
@@ -54598,8 +54598,8 @@
       <c r="BT103" s="73"/>
       <c r="BU103" s="73"/>
     </row>
-    <row r="104" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ104" s="286"/>
+    <row r="104" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ104" s="283"/>
       <c r="AR104" s="35"/>
       <c r="AS104" s="35"/>
       <c r="BH104" s="32"/>
@@ -54611,8 +54611,8 @@
       <c r="BT104" s="73"/>
       <c r="BU104" s="73"/>
     </row>
-    <row r="105" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ105" s="286"/>
+    <row r="105" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ105" s="283"/>
       <c r="AK105" s="40" t="s">
         <v>672</v>
       </c>
@@ -54658,8 +54658,8 @@
       <c r="BT105" s="32"/>
       <c r="BU105" s="32"/>
     </row>
-    <row r="106" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ106" s="286"/>
+    <row r="106" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ106" s="283"/>
       <c r="AK106" s="3" t="s">
         <v>159</v>
       </c>
@@ -54725,8 +54725,8 @@
       <c r="BT106" s="32"/>
       <c r="BU106" s="32"/>
     </row>
-    <row r="107" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ107" s="286"/>
+    <row r="107" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ107" s="283"/>
       <c r="AK107" s="3">
         <v>0</v>
       </c>
@@ -54786,8 +54786,8 @@
       <c r="BT107" s="32"/>
       <c r="BU107" s="32"/>
     </row>
-    <row r="108" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ108" s="286"/>
+    <row r="108" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ108" s="283"/>
       <c r="AK108" s="63">
         <f>AN36</f>
         <v>736.43459771106996</v>
@@ -54849,8 +54849,8 @@
       <c r="BT108" s="71"/>
       <c r="BU108" s="71"/>
     </row>
-    <row r="109" spans="36:73" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AJ109" s="286"/>
+    <row r="109" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ109" s="283"/>
       <c r="AK109" s="32"/>
       <c r="AL109" s="32"/>
       <c r="AM109" s="32"/>
@@ -54876,8 +54876,8 @@
       <c r="BT109" s="32"/>
       <c r="BU109" s="32"/>
     </row>
-    <row r="110" spans="36:73" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AJ110" s="286"/>
+    <row r="110" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ110" s="283"/>
       <c r="AK110" s="55" t="s">
         <v>225</v>
       </c>
@@ -54923,8 +54923,8 @@
       <c r="BT110" s="78"/>
       <c r="BU110" s="78"/>
     </row>
-    <row r="111" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ111" s="286"/>
+    <row r="111" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ111" s="283"/>
       <c r="AK111" s="60">
         <v>0</v>
       </c>
@@ -54981,7 +54981,7 @@
       <c r="BT111" s="192"/>
       <c r="BU111" s="192"/>
     </row>
-    <row r="112" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="112" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ112" s="138"/>
       <c r="AK112" s="136"/>
       <c r="AL112" s="136"/>
@@ -55004,7 +55004,7 @@
       <c r="BT112" s="192"/>
       <c r="BU112" s="192"/>
     </row>
-    <row r="113" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="113" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ113" s="138"/>
       <c r="AK113" s="136"/>
       <c r="AL113" s="136"/>
@@ -55028,7 +55028,7 @@
       <c r="BT113" s="192"/>
       <c r="BU113" s="192"/>
     </row>
-    <row r="114" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="114" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ114" s="138"/>
       <c r="AK114" s="136"/>
       <c r="AL114" s="136"/>
@@ -55052,7 +55052,7 @@
       <c r="BT114" s="192"/>
       <c r="BU114" s="192"/>
     </row>
-    <row r="115" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="115" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ115" s="138"/>
       <c r="AK115" s="136"/>
       <c r="AL115" s="136"/>
@@ -55076,7 +55076,7 @@
       <c r="BT115" s="192"/>
       <c r="BU115" s="192"/>
     </row>
-    <row r="116" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="116" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ116" s="138"/>
       <c r="AK116" s="136"/>
       <c r="AL116" s="136"/>
@@ -55100,7 +55100,7 @@
       <c r="BT116" s="192"/>
       <c r="BU116" s="192"/>
     </row>
-    <row r="117" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="117" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ117" s="138"/>
       <c r="AK117" s="136"/>
       <c r="AL117" s="136"/>
@@ -55124,7 +55124,7 @@
       <c r="BT117" s="192"/>
       <c r="BU117" s="192"/>
     </row>
-    <row r="118" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="118" spans="36:73" x14ac:dyDescent="0.25">
       <c r="AJ118" s="138"/>
       <c r="AK118" s="136"/>
       <c r="AL118" s="136"/>
@@ -55148,7 +55148,7 @@
       <c r="BT118" s="192"/>
       <c r="BU118" s="192"/>
     </row>
-    <row r="119" spans="36:73" x14ac:dyDescent="0.35">
+    <row r="119" spans="36:73" x14ac:dyDescent="0.25">
       <c r="BH119" s="32"/>
       <c r="BI119" s="32"/>
       <c r="BJ119" s="32"/>
@@ -55158,8 +55158,8 @@
       <c r="BT119" s="73"/>
       <c r="BU119" s="73"/>
     </row>
-    <row r="120" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ120" s="286" t="s">
+    <row r="120" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ120" s="283" t="s">
         <v>509</v>
       </c>
       <c r="AK120" t="s">
@@ -55174,8 +55174,8 @@
       <c r="BT120" s="73"/>
       <c r="BU120" s="73"/>
     </row>
-    <row r="121" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ121" s="286"/>
+    <row r="121" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ121" s="283"/>
       <c r="AR121" s="35"/>
       <c r="AS121" s="35"/>
       <c r="BH121" s="32"/>
@@ -55187,8 +55187,8 @@
       <c r="BT121" s="73"/>
       <c r="BU121" s="73"/>
     </row>
-    <row r="122" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ122" s="286"/>
+    <row r="122" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ122" s="283"/>
       <c r="AK122" s="40" t="s">
         <v>678</v>
       </c>
@@ -55234,8 +55234,8 @@
       <c r="BT122" s="32"/>
       <c r="BU122" s="32"/>
     </row>
-    <row r="123" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ123" s="286"/>
+    <row r="123" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ123" s="283"/>
       <c r="AK123" s="3" t="s">
         <v>159</v>
       </c>
@@ -55297,8 +55297,8 @@
       <c r="BT123" s="32"/>
       <c r="BU123" s="32"/>
     </row>
-    <row r="124" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ124" s="286"/>
+    <row r="124" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ124" s="283"/>
       <c r="AK124" s="3">
         <v>0</v>
       </c>
@@ -55358,8 +55358,8 @@
       <c r="BT124" s="32"/>
       <c r="BU124" s="32"/>
     </row>
-    <row r="125" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ125" s="286"/>
+    <row r="125" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ125" s="283"/>
       <c r="AK125" s="63">
         <f>AN46</f>
         <v>707.61315337357701</v>
@@ -55425,8 +55425,8 @@
       <c r="BT125" s="71"/>
       <c r="BU125" s="71"/>
     </row>
-    <row r="126" spans="36:73" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AJ126" s="286"/>
+    <row r="126" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ126" s="283"/>
       <c r="AK126" s="32"/>
       <c r="AL126" s="32"/>
       <c r="AM126" s="32"/>
@@ -55452,8 +55452,8 @@
       <c r="BT126" s="32"/>
       <c r="BU126" s="32"/>
     </row>
-    <row r="127" spans="36:73" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="AJ127" s="286"/>
+    <row r="127" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ127" s="283"/>
       <c r="AK127" s="55" t="s">
         <v>225</v>
       </c>
@@ -55499,8 +55499,8 @@
       <c r="BT127" s="78"/>
       <c r="BU127" s="78"/>
     </row>
-    <row r="128" spans="36:73" x14ac:dyDescent="0.35">
-      <c r="AJ128" s="286"/>
+    <row r="128" spans="36:73" x14ac:dyDescent="0.25">
+      <c r="AJ128" s="283"/>
       <c r="AK128" s="60">
         <v>0</v>
       </c>
@@ -55557,13 +55557,41 @@
       <c r="BT128" s="192"/>
       <c r="BU128" s="192"/>
     </row>
-    <row r="129" spans="60:62" x14ac:dyDescent="0.35">
+    <row r="129" spans="60:62" x14ac:dyDescent="0.25">
       <c r="BH129" s="32"/>
       <c r="BI129" s="32"/>
       <c r="BJ129" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="CW54:DA54"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="BE55:BF55"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="AH39:AI40"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="AJ120:AJ128"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AJ86:AJ94"/>
+    <mergeCell ref="AJ103:AJ111"/>
     <mergeCell ref="AH70:AI71"/>
     <mergeCell ref="X72:Z72"/>
     <mergeCell ref="X73:Z73"/>
@@ -55580,34 +55608,6 @@
     <mergeCell ref="X69:Z69"/>
     <mergeCell ref="X70:Z70"/>
     <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AJ120:AJ128"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AJ86:AJ94"/>
-    <mergeCell ref="AJ103:AJ111"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CW54:DA54"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="BE55:BF55"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="AH39:AI40"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y43:Z43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -55619,21 +55619,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>451</v>
       </c>
@@ -55641,7 +55641,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>450</v>
       </c>
@@ -55649,7 +55649,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>720</v>
       </c>
@@ -55660,7 +55660,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>713</v>
       </c>
@@ -55671,7 +55671,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>604</v>
       </c>
@@ -55682,7 +55682,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>537</v>
       </c>
@@ -55693,7 +55693,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>722</v>
       </c>
@@ -55704,7 +55704,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>452</v>
       </c>
@@ -55712,7 +55712,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="216" t="s">
         <v>703</v>
       </c>
@@ -55723,7 +55723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>704</v>
       </c>
@@ -55734,7 +55734,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>718</v>
       </c>
@@ -55745,7 +55745,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="216" t="s">
         <v>714</v>
       </c>
@@ -55753,7 +55753,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="216" t="s">
         <v>721</v>
       </c>
@@ -55761,7 +55761,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>719</v>
       </c>
@@ -55769,7 +55769,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>715</v>
       </c>
@@ -55777,7 +55777,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>717</v>
       </c>
@@ -55785,7 +55785,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>716</v>
       </c>
@@ -55793,7 +55793,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>728</v>
       </c>
@@ -55801,7 +55801,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="216" t="s">
         <v>735</v>
       </c>
@@ -55809,7 +55809,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>730</v>
       </c>
@@ -55817,7 +55817,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>731</v>
       </c>
@@ -55825,7 +55825,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -55833,7 +55833,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -55841,7 +55841,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -55849,7 +55849,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>722</v>
       </c>
@@ -55857,7 +55857,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>745</v>
       </c>
@@ -55865,7 +55865,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>748</v>
       </c>
@@ -55873,7 +55873,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>183</v>
       </c>

--- a/refs_jorge_june/Saavedra_Garcia_automobile_gas_generator_v2.xlsx
+++ b/refs_jorge_june/Saavedra_Garcia_automobile_gas_generator_v2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26288851-DB77-4830-B14D-8726B08DF3A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA6375D-D1F7-457F-A8CA-B9BE6FEE25AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="1350" windowWidth="13275" windowHeight="6150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Given parameter &amp; assumptions" sheetId="1" r:id="rId1"/>
@@ -3757,7 +3757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4367,6 +4367,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24402,7 +24403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -25483,8 +25484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28993,7 +28994,7 @@
       <c r="C100" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D100" s="32"/>
+      <c r="D100" s="311"/>
       <c r="E100" s="3" t="s">
         <v>418</v>
       </c>

--- a/refs_jorge_june/Saavedra_Garcia_automobile_gas_generator_v2.xlsx
+++ b/refs_jorge_june/Saavedra_Garcia_automobile_gas_generator_v2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA6375D-D1F7-457F-A8CA-B9BE6FEE25AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A489ACE-FE61-48A9-87AC-5329E9E9070B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1076,9 +1076,6 @@
   </si>
   <si>
     <t>Soderberg correlation 2</t>
-  </si>
-  <si>
-    <t>Assumed alpaha1</t>
   </si>
   <si>
     <t>Asssume axial</t>
@@ -2780,6 +2777,9 @@
   </si>
   <si>
     <t>Going via euler</t>
+  </si>
+  <si>
+    <t>Assumed alpha1</t>
   </si>
 </sst>
 </file>
@@ -4115,6 +4115,7 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4184,72 +4185,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4257,6 +4192,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4283,19 +4221,67 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4310,25 +4296,61 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4343,31 +4365,9 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24171,21 +24171,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="222" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="227" t="s">
+      <c r="A3" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="228"/>
-      <c r="C3" s="229"/>
-      <c r="F3" s="233" t="s">
+      <c r="B3" s="229"/>
+      <c r="C3" s="230"/>
+      <c r="F3" s="234" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -24319,11 +24319,11 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="230" t="s">
+      <c r="A10" s="231" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="231"/>
-      <c r="C10" s="232"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="233"/>
       <c r="F10" s="15" t="s">
         <v>37</v>
       </c>
@@ -24417,18 +24417,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="str">
+      <c r="A1" s="245" t="str">
         <f>'Given parameter &amp; assumptions'!A3:C3</f>
         <v>Given parameters</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="246"/>
-      <c r="F1" s="241" t="str">
+      <c r="B1" s="246"/>
+      <c r="C1" s="247"/>
+      <c r="F1" s="242" t="str">
         <f>'Given parameter &amp; assumptions'!F3:G3</f>
         <v>Assumptions</v>
       </c>
-      <c r="G1" s="242"/>
-      <c r="H1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="str">
@@ -24636,19 +24636,19 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="237" t="str">
+      <c r="A11" s="238" t="str">
         <f>'Given parameter &amp; assumptions'!A10:C10</f>
         <v>Fluid properties</v>
       </c>
-      <c r="B11" s="238"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="238"/>
-      <c r="F11" s="238"/>
-      <c r="G11" s="238"/>
-      <c r="H11" s="238"/>
-      <c r="I11" s="238"/>
-      <c r="J11" s="239"/>
+      <c r="B11" s="239"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="239"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="239"/>
+      <c r="J11" s="240"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="str">
@@ -24834,16 +24834,16 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="247" t="s">
+      <c r="A21" s="248" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="248"/>
-      <c r="C21" s="249"/>
-      <c r="H21" s="240" t="s">
+      <c r="B21" s="249"/>
+      <c r="C21" s="250"/>
+      <c r="H21" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="I21" s="240"/>
-      <c r="J21" s="240"/>
+      <c r="I21" s="241"/>
+      <c r="J21" s="241"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
@@ -24892,11 +24892,11 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="248" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="248"/>
-      <c r="C24" s="249"/>
+      <c r="B24" s="249"/>
+      <c r="C24" s="250"/>
       <c r="H24" s="3" t="str">
         <f>A4</f>
         <v>πc</v>
@@ -25005,11 +25005,11 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="247" t="s">
+      <c r="A29" s="248" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="248"/>
-      <c r="C29" s="249"/>
+      <c r="B29" s="249"/>
+      <c r="C29" s="250"/>
       <c r="H29" s="3" t="s">
         <v>191</v>
       </c>
@@ -25134,11 +25134,11 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="234" t="s">
+      <c r="A35" s="235" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="235"/>
-      <c r="C35" s="236"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="237"/>
       <c r="M35" s="16" t="s">
         <v>296</v>
       </c>
@@ -25226,11 +25226,11 @@
       <c r="I39" s="45"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="234" t="s">
+      <c r="A40" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="235"/>
-      <c r="C40" s="236"/>
+      <c r="B40" s="236"/>
+      <c r="C40" s="237"/>
       <c r="D40" t="s">
         <v>58</v>
       </c>
@@ -25484,8 +25484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25519,34 +25519,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="str">
+      <c r="A1" s="245" t="str">
         <f>'Given parameter &amp; assumptions'!A3:C3</f>
         <v>Given parameters</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="246"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="247"/>
       <c r="D1" s="78"/>
-      <c r="E1" s="271" t="s">
+      <c r="E1" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="271"/>
-      <c r="G1" s="271"/>
-      <c r="I1" s="271" t="s">
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="I1" s="267" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="271"/>
-      <c r="K1" s="271"/>
-      <c r="M1" s="262" t="s">
+      <c r="J1" s="267"/>
+      <c r="K1" s="267"/>
+      <c r="M1" s="268" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="262"/>
-      <c r="O1" s="262"/>
-      <c r="P1" s="262"/>
-      <c r="Q1" s="262"/>
-      <c r="R1" s="262"/>
-      <c r="S1" s="262"/>
-      <c r="T1" s="262"/>
-      <c r="U1" s="262"/>
+      <c r="N1" s="268"/>
+      <c r="O1" s="268"/>
+      <c r="P1" s="268"/>
+      <c r="Q1" s="268"/>
+      <c r="R1" s="268"/>
+      <c r="S1" s="268"/>
+      <c r="T1" s="268"/>
+      <c r="U1" s="268"/>
       <c r="V1" s="79"/>
       <c r="W1" s="79"/>
     </row>
@@ -25927,14 +25927,14 @@
       <c r="AQ7" s="35"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="275" t="s">
+      <c r="A8" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="275"/>
-      <c r="C8" s="275"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="255"/>
       <c r="D8" s="78"/>
       <c r="F8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I8" s="3" t="str">
         <f>'Cycle analysis'!H28</f>
@@ -26220,7 +26220,7 @@
         <v>J/Kg</v>
       </c>
       <c r="R13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="S13" s="35">
         <f>(S16-S18)/S18</f>
@@ -26254,7 +26254,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S14" s="35">
         <f>S16-S18</f>
@@ -26353,31 +26353,31 @@
       <c r="B17" s="36"/>
       <c r="C17" s="2"/>
       <c r="D17" s="32"/>
-      <c r="F17" s="272" t="s">
+      <c r="F17" s="251" t="s">
         <v>237</v>
       </c>
-      <c r="G17" s="272"/>
-      <c r="H17" s="272"/>
-      <c r="J17" s="273" t="s">
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="J17" s="252" t="s">
         <v>239</v>
       </c>
-      <c r="K17" s="273"/>
-      <c r="L17" s="273"/>
-      <c r="N17" s="274" t="s">
+      <c r="K17" s="252"/>
+      <c r="L17" s="252"/>
+      <c r="N17" s="253" t="s">
         <v>253</v>
       </c>
-      <c r="O17" s="274"/>
-      <c r="P17" s="274"/>
-      <c r="R17" s="269" t="s">
+      <c r="O17" s="253"/>
+      <c r="P17" s="253"/>
+      <c r="R17" s="265" t="s">
         <v>242</v>
       </c>
-      <c r="S17" s="269"/>
-      <c r="T17" s="269"/>
-      <c r="V17" s="270" t="s">
+      <c r="S17" s="265"/>
+      <c r="T17" s="265"/>
+      <c r="V17" s="266" t="s">
         <v>243</v>
       </c>
-      <c r="W17" s="270"/>
-      <c r="X17" s="270"/>
+      <c r="W17" s="266"/>
+      <c r="X17" s="266"/>
       <c r="AA17" s="32"/>
       <c r="AB17" s="32"/>
       <c r="AC17" s="32"/>
@@ -26396,11 +26396,11 @@
       <c r="AP17" s="32"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" s="276" t="s">
+      <c r="A18" s="256" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="276"/>
-      <c r="C18" s="276"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="256"/>
       <c r="D18" s="78"/>
       <c r="F18" s="10" t="s">
         <v>7</v>
@@ -26654,11 +26654,11 @@
       <c r="X21" s="5"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="277" t="s">
+      <c r="A22" s="257" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="277"/>
-      <c r="C22" s="277"/>
+      <c r="B22" s="257"/>
+      <c r="C22" s="257"/>
       <c r="D22" s="78"/>
       <c r="F22" s="9" t="s">
         <v>212</v>
@@ -26820,7 +26820,7 @@
         <v>168</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="X24" s="5" t="s">
         <v>293</v>
@@ -26887,7 +26887,7 @@
     <row r="26" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="35"/>
       <c r="F26" s="81" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G26" s="34">
         <f>B167</f>
@@ -26928,16 +26928,16 @@
         <v>170</v>
       </c>
       <c r="W26" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="X26" s="8"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="277" t="s">
+      <c r="A27" s="257" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="277"/>
-      <c r="C27" s="277"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="257"/>
       <c r="D27" s="78"/>
       <c r="F27" s="9" t="str">
         <f t="shared" ref="F27:H30" si="0">E99</f>
@@ -27080,7 +27080,7 @@
         <v>92</v>
       </c>
       <c r="R29" s="81" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S29" s="3">
         <f>O33/K29</f>
@@ -27133,7 +27133,7 @@
         <v>121</v>
       </c>
       <c r="R30" s="81" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S30" s="34">
         <f>B13</f>
@@ -27180,7 +27180,7 @@
     <row r="31" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="72"/>
       <c r="F31" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G31" s="7">
         <f>J9</f>
@@ -27208,7 +27208,7 @@
         <v>114</v>
       </c>
       <c r="R31" s="82" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S31" s="7">
         <f>O31/K37</f>
@@ -27264,11 +27264,11 @@
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="268" t="s">
+      <c r="A32" s="254" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="268"/>
-      <c r="C32" s="268"/>
+      <c r="B32" s="254"/>
+      <c r="C32" s="254"/>
       <c r="D32" s="78"/>
       <c r="E32" s="71"/>
       <c r="J32" s="9" t="s">
@@ -27338,7 +27338,7 @@
         <v>114</v>
       </c>
       <c r="D34" s="107" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E34" s="71"/>
       <c r="J34" s="9" t="s">
@@ -27361,11 +27361,11 @@
       <c r="P34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R34" s="263" t="s">
-        <v>699</v>
-      </c>
-      <c r="S34" s="264"/>
-      <c r="T34" s="265"/>
+      <c r="R34" s="269" t="s">
+        <v>698</v>
+      </c>
+      <c r="S34" s="270"/>
+      <c r="T34" s="271"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -27381,7 +27381,7 @@
         <v>0.12612612612612609</v>
       </c>
       <c r="E35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>133</v>
@@ -27404,7 +27404,7 @@
         <v>92</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S35" s="217">
         <f>K51</f>
@@ -27429,7 +27429,7 @@
       </c>
       <c r="E36" s="71"/>
       <c r="J36" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K36" s="34">
         <f>B30</f>
@@ -27440,7 +27440,7 @@
       <c r="O36" s="34"/>
       <c r="P36" s="5"/>
       <c r="R36" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="S36" s="46">
         <f>K44</f>
@@ -27484,7 +27484,7 @@
         <v>121</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="S37" s="46">
         <f>K50*K51</f>
@@ -27527,7 +27527,7 @@
         <v>114</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="S38" s="46">
         <f>G26</f>
@@ -27568,7 +27568,7 @@
         <v>114</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="S39" s="22">
         <f>K26</f>
@@ -27613,7 +27613,7 @@
         <v>14</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S40" s="22">
         <f>ROUND(K56,0)</f>
@@ -27660,7 +27660,7 @@
         <v>114</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="S41" s="46">
         <f>O56</f>
@@ -27701,7 +27701,7 @@
         <v>14</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="S42" s="46">
         <f>O49</f>
@@ -27713,7 +27713,7 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B43" s="36">
         <f>(F3-B41)/(B41-B25)</f>
@@ -27728,7 +27728,7 @@
       <c r="O43" s="34"/>
       <c r="P43" s="5"/>
       <c r="R43" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S43" s="46">
         <f>O55*O56</f>
@@ -27760,7 +27760,7 @@
         <v>280</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S44" s="46">
         <f>K32</f>
@@ -27771,11 +27771,11 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="268" t="s">
+      <c r="A45" s="254" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="268"/>
-      <c r="C45" s="268"/>
+      <c r="B45" s="254"/>
+      <c r="C45" s="254"/>
       <c r="D45" s="78"/>
       <c r="J45" s="9" t="s">
         <v>147</v>
@@ -27798,7 +27798,7 @@
         <v>279</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S45" s="22">
         <f>O37</f>
@@ -27841,7 +27841,7 @@
         <v>279</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S46" s="218">
         <f>ROUND(O62,0)</f>
@@ -27883,11 +27883,11 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="278" t="s">
+      <c r="A48" s="258" t="s">
         <v>305</v>
       </c>
-      <c r="B48" s="279"/>
-      <c r="C48" s="280"/>
+      <c r="B48" s="259"/>
+      <c r="C48" s="260"/>
       <c r="D48" s="78"/>
       <c r="J48" s="9"/>
       <c r="K48" s="34"/>
@@ -27896,10 +27896,10 @@
       <c r="O48" s="34"/>
       <c r="P48" s="5"/>
       <c r="Q48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R48" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -28007,7 +28007,7 @@
         <v>308</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K51" s="34">
         <f>B170</f>
@@ -28040,7 +28040,7 @@
         <v>309</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K52" s="3">
         <f>C171</f>
@@ -28073,7 +28073,7 @@
         <v>310</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K53" s="34" t="e">
         <f ca="1">B183</f>
@@ -28104,7 +28104,7 @@
       </c>
       <c r="D54" s="32"/>
       <c r="J54" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K54" s="34">
         <f>B181</f>
@@ -28137,7 +28137,7 @@
         <v>311</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K55" s="3" t="e">
         <f ca="1">K53/K54*K51</f>
@@ -28167,7 +28167,7 @@
       </c>
       <c r="D56" s="32"/>
       <c r="J56" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K56" s="7">
         <f>2*PI()*K42/(K50*K51)</f>
@@ -28175,7 +28175,7 @@
       </c>
       <c r="L56" s="8"/>
       <c r="N56" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O56" s="34">
         <f>E170</f>
@@ -28185,7 +28185,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N57" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O57" s="3">
         <f>F171</f>
@@ -28194,13 +28194,13 @@
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="281" t="s">
+      <c r="A58" s="261" t="s">
         <v>317</v>
       </c>
-      <c r="B58" s="281"/>
-      <c r="C58" s="281"/>
+      <c r="B58" s="261"/>
+      <c r="C58" s="261"/>
       <c r="N58" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O58" s="34" t="e">
         <f ca="1">E183</f>
@@ -28223,7 +28223,7 @@
         <v>318</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O59" s="34">
         <f>E181</f>
@@ -28233,7 +28233,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N60" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O60" s="3" t="e">
         <f ca="1">O58/O59*O56</f>
@@ -28242,13 +28242,13 @@
       <c r="P60" s="5"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="282" t="s">
+      <c r="A61" s="262" t="s">
         <v>319</v>
       </c>
-      <c r="B61" s="282"/>
-      <c r="C61" s="282"/>
+      <c r="B61" s="262"/>
+      <c r="C61" s="262"/>
       <c r="N61" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O61" s="34">
         <f>B72</f>
@@ -28257,11 +28257,11 @@
       <c r="P61" s="5"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="256" t="s">
+      <c r="A62" s="263" t="s">
         <v>299</v>
       </c>
-      <c r="B62" s="256"/>
-      <c r="C62" s="257"/>
+      <c r="B62" s="263"/>
+      <c r="C62" s="264"/>
       <c r="E62" t="s">
         <v>144</v>
       </c>
@@ -28270,7 +28270,7 @@
         <v>0.77748230827437859</v>
       </c>
       <c r="N62" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O62" s="7">
         <f>2*PI()*O47/(O55*O56)</f>
@@ -28290,20 +28290,20 @@
         <v>92</v>
       </c>
       <c r="D63" s="73" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F63">
         <f>B70*B79*B126</f>
         <v>0.7774823082743787</v>
       </c>
-      <c r="M63" s="266" t="s">
+      <c r="M63" s="272" t="s">
         <v>302</v>
       </c>
-      <c r="N63" s="266"/>
-      <c r="O63" s="266"/>
+      <c r="N63" s="272"/>
+      <c r="O63" s="272"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -28320,11 +28320,11 @@
         <f>B40*(B19/B41)^U2</f>
         <v>1022.3999406809887</v>
       </c>
-      <c r="M64" s="267" t="s">
-        <v>780</v>
-      </c>
-      <c r="N64" s="267"/>
-      <c r="O64" s="267"/>
+      <c r="M64" s="273" t="s">
+        <v>779</v>
+      </c>
+      <c r="N64" s="273"/>
+      <c r="O64" s="273"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -28376,7 +28376,7 @@
         <v>114</v>
       </c>
       <c r="D67" s="107" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M67" t="s">
         <v>139</v>
@@ -28404,7 +28404,7 @@
         <v>0.23762376237623822</v>
       </c>
       <c r="E68" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
@@ -28454,11 +28454,11 @@
         <v>114</v>
       </c>
       <c r="D71" s="78"/>
-      <c r="M71" s="267" t="s">
+      <c r="M71" s="273" t="s">
         <v>303</v>
       </c>
-      <c r="N71" s="267"/>
-      <c r="O71" s="267"/>
+      <c r="N71" s="273"/>
+      <c r="O71" s="273"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
@@ -28508,7 +28508,7 @@
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M74" t="s">
         <v>142</v>
@@ -28538,7 +28538,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B76" s="36">
         <f>(B56-B73)/(B73-B19)</f>
@@ -28558,11 +28558,11 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="268" t="s">
+      <c r="A78" s="254" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="268"/>
-      <c r="C78" s="268"/>
+      <c r="B78" s="254"/>
+      <c r="C78" s="254"/>
       <c r="D78" s="32"/>
       <c r="F78" t="s">
         <v>321</v>
@@ -28588,7 +28588,7 @@
       </c>
       <c r="D79" s="32"/>
       <c r="E79" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F79" t="s">
         <v>139</v>
@@ -28691,11 +28691,11 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="268" t="s">
+      <c r="A82" s="254" t="s">
         <v>332</v>
       </c>
-      <c r="B82" s="268"/>
-      <c r="C82" s="268"/>
+      <c r="B82" s="254"/>
+      <c r="C82" s="254"/>
       <c r="D82" s="32"/>
       <c r="E82" s="35">
         <f>E81-E80</f>
@@ -28731,7 +28731,7 @@
         <v>114</v>
       </c>
       <c r="D83" s="77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E83">
         <f>DEGREES(ASIN(E82/B67))</f>
@@ -28824,11 +28824,11 @@
       <c r="D86" s="78"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="255" t="s">
+      <c r="A87" s="279" t="s">
         <v>300</v>
       </c>
-      <c r="B87" s="256"/>
-      <c r="C87" s="257"/>
+      <c r="B87" s="263"/>
+      <c r="C87" s="264"/>
       <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -28884,11 +28884,11 @@
       <c r="D91" s="32"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="255" t="s">
+      <c r="A92" s="279" t="s">
         <v>329</v>
       </c>
-      <c r="B92" s="256"/>
-      <c r="C92" s="256"/>
+      <c r="B92" s="263"/>
+      <c r="C92" s="263"/>
       <c r="D92" s="32"/>
       <c r="E92" s="2"/>
     </row>
@@ -28948,17 +28948,17 @@
       <c r="D97" s="32"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="256" t="s">
+      <c r="A98" s="263" t="s">
         <v>180</v>
       </c>
-      <c r="B98" s="256"/>
-      <c r="C98" s="256"/>
+      <c r="B98" s="263"/>
+      <c r="C98" s="263"/>
       <c r="D98" s="32"/>
-      <c r="E98" s="256" t="s">
-        <v>470</v>
-      </c>
-      <c r="F98" s="256"/>
-      <c r="G98" s="256"/>
+      <c r="E98" s="263" t="s">
+        <v>469</v>
+      </c>
+      <c r="F98" s="263"/>
+      <c r="G98" s="263"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
@@ -28994,9 +28994,9 @@
       <c r="C100" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D100" s="311"/>
+      <c r="D100" s="227"/>
       <c r="E100" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F100" s="34">
         <f>SQRT(F99/(PI()*B113*B115*(1-B16^2)))</f>
@@ -29019,7 +29019,7 @@
       </c>
       <c r="D101" s="32"/>
       <c r="E101" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F101" s="34">
         <f>F100*B16</f>
@@ -29042,7 +29042,7 @@
       </c>
       <c r="D102" s="32"/>
       <c r="E102" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F102" s="48">
         <f>F100-F101</f>
@@ -29179,13 +29179,13 @@
         <v>217</v>
       </c>
       <c r="B111"/>
-      <c r="E111" s="258" t="s">
+      <c r="E111" s="280" t="s">
         <v>218</v>
       </c>
-      <c r="F111" s="258"/>
-      <c r="G111" s="258"/>
-      <c r="H111" s="258"/>
-      <c r="I111" s="258"/>
+      <c r="F111" s="280"/>
+      <c r="G111" s="280"/>
+      <c r="H111" s="280"/>
+      <c r="I111" s="280"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -29334,15 +29334,15 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="259" t="s">
+      <c r="A123" s="281" t="s">
         <v>181</v>
       </c>
-      <c r="B123" s="259"/>
-      <c r="H123" s="262" t="s">
-        <v>488</v>
-      </c>
-      <c r="I123" s="262"/>
-      <c r="J123" s="262"/>
+      <c r="B123" s="281"/>
+      <c r="H123" s="268" t="s">
+        <v>487</v>
+      </c>
+      <c r="I123" s="268"/>
+      <c r="J123" s="268"/>
     </row>
     <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
@@ -29353,11 +29353,11 @@
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="32"/>
-      <c r="H124" s="252" t="s">
-        <v>489</v>
-      </c>
-      <c r="I124" s="252"/>
-      <c r="J124" s="252"/>
+      <c r="H124" s="276" t="s">
+        <v>488</v>
+      </c>
+      <c r="I124" s="276"/>
+      <c r="J124" s="276"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
@@ -29379,7 +29379,7 @@
         <v>0.10590399514291465</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I125" s="64">
         <f>E170</f>
@@ -29399,17 +29399,17 @@
         <v>209</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I126" s="34">
         <f>B101</f>
         <v>0.10714828764133873</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -29428,7 +29428,7 @@
         <v>1.439395029033021E-2</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I127" s="34">
         <f>B100</f>
@@ -29456,14 +29456,14 @@
         <v>0.12029794543324487</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I128" s="34">
         <f>B125</f>
         <v>0.10590399514291465</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29477,7 +29477,7 @@
       <c r="C129" s="3"/>
       <c r="D129" s="32"/>
       <c r="H129" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I129" s="65">
         <f>B128</f>
@@ -29546,7 +29546,7 @@
       <c r="C134" s="2"/>
       <c r="D134" s="32"/>
       <c r="E134" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F134">
         <f>(B33-B66)/(B116-B66)</f>
@@ -29618,16 +29618,16 @@
       <c r="D138" s="32"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="260" t="s">
+      <c r="A139" s="282" t="s">
         <v>186</v>
       </c>
-      <c r="B139" s="260"/>
+      <c r="B139" s="282"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="261" t="s">
+      <c r="A140" s="283" t="s">
         <v>304</v>
       </c>
-      <c r="B140" s="261"/>
+      <c r="B140" s="283"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
@@ -29666,10 +29666,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="250" t="s">
+      <c r="A145" s="274" t="s">
         <v>187</v>
       </c>
-      <c r="B145" s="251"/>
+      <c r="B145" s="275"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
@@ -29708,10 +29708,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="253" t="s">
+      <c r="A150" s="277" t="s">
         <v>259</v>
       </c>
-      <c r="B150" s="254"/>
+      <c r="B150" s="278"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
@@ -29770,18 +29770,18 @@
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="32"/>
       <c r="B157" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C157" t="s">
         <v>334</v>
       </c>
       <c r="F157" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B158" s="35">
         <f>(B30^2-B34^2)/(B34^2)</f>
@@ -29805,7 +29805,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B159" s="35">
         <f>(B65^2-B67^2)/(B67^2)</f>
@@ -29833,7 +29833,7 @@
         <v>333</v>
       </c>
       <c r="D160" s="73" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -29891,7 +29891,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B164" s="35">
         <f>(F3-B41)/(0.5*B37*B34^2)</f>
@@ -29906,12 +29906,12 @@
         <v>8.9108558671178617E-2</v>
       </c>
       <c r="F164" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B165" s="35">
         <f>(B56-B73)/(0.5*B67^2*B70)</f>
@@ -29928,24 +29928,24 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>780</v>
       </c>
       <c r="B167" s="35">
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="272" t="s">
+      <c r="A168" s="251" t="s">
         <v>339</v>
       </c>
-      <c r="B168" s="272"/>
+      <c r="B168" s="251"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B169" s="35">
         <f>0.04+0.06*((B12+B167)/100)^2</f>
@@ -29955,7 +29955,7 @@
         <v>335</v>
       </c>
       <c r="D169" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E169" s="35">
         <f>0.04+0.06*((-I173+I172)/100)^2</f>
@@ -29967,21 +29967,21 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B170" s="35">
         <f>B102/C171</f>
         <v>1.700766470497439E-2</v>
       </c>
       <c r="D170" s="62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E170" s="35">
         <f>B127/F171</f>
         <v>1.0281393064521579E-2</v>
       </c>
       <c r="H170" s="104" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I170" s="39">
         <f>B167</f>
@@ -29990,19 +29990,19 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>345</v>
+      </c>
+      <c r="B171" s="73" t="s">
         <v>346</v>
-      </c>
-      <c r="B171" s="73" t="s">
-        <v>347</v>
       </c>
       <c r="C171">
         <v>0.7</v>
       </c>
       <c r="D171" t="s">
+        <v>345</v>
+      </c>
+      <c r="E171" s="73" t="s">
         <v>346</v>
-      </c>
-      <c r="E171" s="73" t="s">
-        <v>347</v>
       </c>
       <c r="F171">
         <v>1.4</v>
@@ -30017,21 +30017,21 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B172" s="35">
         <f>1/C171</f>
         <v>1.4285714285714286</v>
       </c>
       <c r="D172" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E172" s="35">
         <f>1/F171</f>
         <v>0.7142857142857143</v>
       </c>
       <c r="H172" s="104" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I172" s="39">
         <f>B52</f>
@@ -30040,14 +30040,14 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B173" s="35">
         <f>-1 +(1+B169)*(0.993+0.021*B172)</f>
         <v>9.8723012420000034E-2</v>
       </c>
       <c r="D173" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E173" s="35">
         <f>-1+(1+E169)*(0.975+0.075*E172)</f>
@@ -30063,14 +30063,14 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B174" s="35">
         <f>B177*B170</f>
         <v>1.1686917842638396E-2</v>
       </c>
       <c r="D174" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E174" s="35">
         <f>E177*E170</f>
@@ -30079,7 +30079,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B175" s="74">
         <f>0.8/2/(TAN(RADIANS(B167))+TAN(RADIANS(B12)))/(COS(RADIANS(B12))^2)</f>
@@ -30090,7 +30090,7 @@
         <v>0.81967213114754101</v>
       </c>
       <c r="D175" s="73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E175" s="35">
         <f>0.8/2/(TAN(RADIANS(I172))+TAN(ABS(RADIANS(I173))))/(COS(RADIANS(I173))^2)</f>
@@ -30103,14 +30103,14 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B176" s="74">
         <v>60</v>
       </c>
       <c r="C176" s="73"/>
       <c r="D176" s="73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E176" s="35">
         <v>15</v>
@@ -30118,7 +30118,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="73" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B177" s="74">
         <f>0.6*COS(RADIANS(B176))/2/(COS((RADIANS(I171)))^2)/(B115/B46*(TAN(RADIANS(I170)))+(TAN(RADIANS(I171))))*F102/B102*F3/B41</f>
@@ -30126,7 +30126,7 @@
       </c>
       <c r="C177" s="73"/>
       <c r="D177" s="73" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E177" s="35">
         <f>0.8*COS(RADIANS(E176))/2/(COS((RADIANS(ABS(I173))))^2)/(B51/B79*(TAN(RADIANS(I172)))+(TAN(RADIANS(ABS(I173)))))*B102/B127*B56/B73</f>
@@ -30144,31 +30144,31 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="73" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B179">
         <v>1.22</v>
       </c>
       <c r="D179" s="73" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E179">
         <v>1.4</v>
       </c>
       <c r="F179" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="73" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B180">
         <f>1/B179</f>
         <v>0.81967213114754101</v>
       </c>
       <c r="D180" s="73" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E180">
         <f>1/E179</f>
@@ -30177,14 +30177,14 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B181" s="35">
         <f>2*B174*B102*COS(RADIANS(I171))/(B174*COS(RADIANS(I171))+B102)</f>
         <v>4.748449142037663E-3</v>
       </c>
       <c r="D181" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E181" s="35">
         <f>2*E174*B127*COS(RADIANS(I173))/(E174*COS(RADIANS(I173))+B127)</f>
@@ -30193,14 +30193,14 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B182" s="91" t="e">
         <f ca="1">[1]!cercha(B33,A192:B216)</f>
         <v>#NAME?</v>
       </c>
       <c r="D182" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E182" s="91" t="e">
         <f ca="1">[1]!cercha(B66,A192:B216)</f>
@@ -30209,14 +30209,14 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B183" s="35" t="e">
         <f ca="1">B37*B34*B181/(B182)</f>
         <v>#NAME?</v>
       </c>
       <c r="D183" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E183" s="35" t="e">
         <f ca="1">B70*B67*E181/E182</f>
@@ -30241,36 +30241,36 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B185" s="87">
         <f>B158</f>
         <v>0.12612612612612609</v>
       </c>
       <c r="C185" s="73" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D185" s="73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E185" s="35">
         <f>B159</f>
         <v>0.23762376237623822</v>
       </c>
       <c r="F185" s="73" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B186" s="35" t="e">
         <f ca="1">(B184-B185)/B184*100</f>
         <v>#NAME?</v>
       </c>
       <c r="D186" s="73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E186" t="e">
         <f ca="1">(E185-E184)/E184*100</f>
@@ -30279,7 +30279,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -30290,13 +30290,13 @@
     </row>
     <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>397</v>
+      </c>
+      <c r="B191" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="B191" s="35" t="s">
+      <c r="C191" t="s">
         <v>399</v>
-      </c>
-      <c r="C191" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30372,7 +30372,7 @@
         <v>1.48</v>
       </c>
       <c r="E195" s="100" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30391,7 +30391,7 @@
         <v>1.98</v>
       </c>
       <c r="E196" s="100" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30410,7 +30410,7 @@
         <v>2.0750000000000002</v>
       </c>
       <c r="E197" s="100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30429,7 +30429,7 @@
         <v>2.286</v>
       </c>
       <c r="E198" s="100" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30448,7 +30448,7 @@
         <v>2.48</v>
       </c>
       <c r="E199" s="100" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30467,7 +30467,7 @@
         <v>2.67</v>
       </c>
       <c r="E200" s="100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30486,7 +30486,7 @@
         <v>2.84</v>
       </c>
       <c r="E201" s="100" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30505,7 +30505,7 @@
         <v>3.0179999999999998</v>
       </c>
       <c r="E202" s="100" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30524,7 +30524,7 @@
         <v>3.177</v>
       </c>
       <c r="E203" s="100" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30543,7 +30543,7 @@
         <v>3.3319999999999999</v>
       </c>
       <c r="E204" s="100" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30562,7 +30562,7 @@
         <v>3.4809999999999999</v>
       </c>
       <c r="E205" s="100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30581,7 +30581,7 @@
         <v>3.625</v>
       </c>
       <c r="E206" s="100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30600,7 +30600,7 @@
         <v>3.7650000000000001</v>
       </c>
       <c r="E207" s="100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30619,7 +30619,7 @@
         <v>3.899</v>
       </c>
       <c r="E208" s="100" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30638,7 +30638,7 @@
         <v>4.0229999999999997</v>
       </c>
       <c r="E209" s="100" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30657,7 +30657,7 @@
         <v>4.1520000000000001</v>
       </c>
       <c r="E210" s="100" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30676,7 +30676,7 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="E211" s="100" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30695,7 +30695,7 @@
         <v>4.6900000000000004</v>
       </c>
       <c r="E212" s="100" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30714,7 +30714,7 @@
         <v>4.93</v>
       </c>
       <c r="E213" s="100" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30733,7 +30733,7 @@
         <v>5.17</v>
       </c>
       <c r="E214" s="100" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30752,7 +30752,7 @@
         <v>5.4</v>
       </c>
       <c r="E215" s="100" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -30771,12 +30771,34 @@
         <v>5.63</v>
       </c>
       <c r="E216" s="103" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="E111:I111"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:U1"/>
     <mergeCell ref="A168:B168"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F17:H17"/>
@@ -30793,28 +30815,6 @@
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A62:C62"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:U1"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="E111:I111"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H123:J123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -30862,23 +30862,23 @@
   <sheetData>
     <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
-      <c r="F1" s="263" t="s">
-        <v>433</v>
-      </c>
-      <c r="G1" s="264"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="289" t="s">
-        <v>423</v>
-      </c>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="291"/>
+      <c r="F1" s="269" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" s="270"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="285" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="287"/>
       <c r="N1" s="108" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O1" s="110">
         <f>'1D Analysis'!N3</f>
@@ -30899,7 +30899,7 @@
         <v>[K]</v>
       </c>
       <c r="F2" s="120" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G2" s="121">
         <f>AH14</f>
@@ -30919,14 +30919,14 @@
         <v>3</v>
       </c>
       <c r="N2" s="111" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O2" s="112">
         <f>'1D Analysis'!N2</f>
         <v>1.3</v>
       </c>
       <c r="AG2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30943,7 +30943,7 @@
         <v>Pa</v>
       </c>
       <c r="F3" s="123" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G3" s="42">
         <f>AH15</f>
@@ -30953,7 +30953,7 @@
         <v>183</v>
       </c>
       <c r="I3" s="119" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J3" s="3">
         <f>AH6</f>
@@ -30968,32 +30968,32 @@
         <v>263.91731020115793</v>
       </c>
       <c r="N3" s="111" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O3" s="112">
         <f>'1D Analysis'!Q2</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AG3" s="287" t="s">
+      <c r="AG3" s="294" t="s">
+        <v>412</v>
+      </c>
+      <c r="AH3" s="294"/>
+      <c r="AI3" s="294"/>
+      <c r="AJ3" s="293" t="s">
         <v>413</v>
       </c>
-      <c r="AH3" s="287"/>
-      <c r="AI3" s="287"/>
-      <c r="AJ3" s="286" t="s">
+      <c r="AK3" s="293"/>
+      <c r="AL3" s="293"/>
+      <c r="AM3" s="292" t="s">
         <v>414</v>
       </c>
-      <c r="AK3" s="286"/>
-      <c r="AL3" s="286"/>
-      <c r="AM3" s="285" t="s">
+      <c r="AN3" s="292"/>
+      <c r="AO3" s="292"/>
+      <c r="AP3" s="284" t="s">
         <v>415</v>
       </c>
-      <c r="AN3" s="285"/>
-      <c r="AO3" s="285"/>
-      <c r="AP3" s="288" t="s">
-        <v>416</v>
-      </c>
-      <c r="AQ3" s="288"/>
-      <c r="AR3" s="288"/>
+      <c r="AQ3" s="284"/>
+      <c r="AR3" s="284"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
@@ -31019,7 +31019,7 @@
         <v>144</v>
       </c>
       <c r="I4" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J4" s="3">
         <f>AH6*COS(RADIANS(AH12))</f>
@@ -31034,7 +31034,7 @@
         <v>254.08869342764129</v>
       </c>
       <c r="N4" s="111" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O4" s="112">
         <f>'1D Analysis'!U2</f>
@@ -31103,7 +31103,7 @@
         <v>[Pa]</v>
       </c>
       <c r="F5" s="123" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G5" s="42">
         <f>0.5*(G3+G2)</f>
@@ -31113,7 +31113,7 @@
         <v>183</v>
       </c>
       <c r="I5" s="119" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J5" s="3">
         <f>J3*SIN(RADIANS(AH12))</f>
@@ -31128,7 +31128,7 @@
         <v>-71.353223445394065</v>
       </c>
       <c r="N5" s="113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O5" s="115">
         <f>'1D Analysis'!S2</f>
@@ -31204,7 +31204,7 @@
         <v>1.1906100719891108E-2</v>
       </c>
       <c r="I6" s="119" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J6" s="3">
         <f>AH12</f>
@@ -31219,7 +31219,7 @@
         <v>-15.685811710589164</v>
       </c>
       <c r="N6" s="141" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O6">
         <f>O1-O1/O2</f>
@@ -31298,7 +31298,7 @@
         <v>183</v>
       </c>
       <c r="I7" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -31384,7 +31384,7 @@
         <v>183</v>
       </c>
       <c r="I8" s="119" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -31448,7 +31448,7 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B9" s="3">
         <f>AH12</f>
@@ -31468,7 +31468,7 @@
         <v>144</v>
       </c>
       <c r="I9" s="119" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -31554,7 +31554,7 @@
         <v>183</v>
       </c>
       <c r="I10" s="119" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -31618,7 +31618,7 @@
     </row>
     <row r="11" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B11" s="3">
         <f>AH14</f>
@@ -31636,7 +31636,7 @@
         <v>1.1905365293482073E-2</v>
       </c>
       <c r="I11" s="119" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -31700,7 +31700,7 @@
     </row>
     <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B12" s="7">
         <f>AH15</f>
@@ -31890,11 +31890,11 @@
       </c>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="269" t="s">
-        <v>443</v>
-      </c>
-      <c r="B15" s="269"/>
-      <c r="C15" s="269"/>
+      <c r="A15" s="265" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="265"/>
+      <c r="C15" s="265"/>
       <c r="F15" s="123" t="s">
         <v>275</v>
       </c>
@@ -31955,16 +31955,16 @@
       </c>
     </row>
     <row r="16" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="284" t="s">
+      <c r="A16" s="291" t="s">
+        <v>443</v>
+      </c>
+      <c r="B16" s="291"/>
+      <c r="C16" s="291"/>
+      <c r="D16" t="s">
         <v>444</v>
       </c>
-      <c r="B16" s="284"/>
-      <c r="C16" s="284"/>
-      <c r="D16" t="s">
-        <v>445</v>
-      </c>
       <c r="E16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F16" s="106" t="s">
         <v>155</v>
@@ -32024,13 +32024,13 @@
     </row>
     <row r="17" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E17" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="125" t="s">
         <v>448</v>
-      </c>
-      <c r="F17" s="125" t="s">
-        <v>449</v>
       </c>
       <c r="G17" s="126">
         <f>AN36</f>
@@ -32089,7 +32089,7 @@
     </row>
     <row r="18" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B18">
         <f>(E36+B19/C36)/(C36^(B20))</f>
@@ -32146,7 +32146,7 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B19">
         <f>-AQ4/(2*AN36)</f>
@@ -32186,13 +32186,13 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="133" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B20" s="133">
         <v>-0.4</v>
       </c>
       <c r="C20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -32235,7 +32235,7 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -32281,7 +32281,7 @@
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B22">
         <f>G11/20</f>
@@ -32324,7 +32324,7 @@
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B23">
         <f>G16/20</f>
@@ -32334,7 +32334,7 @@
         <v>183</v>
       </c>
       <c r="N23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q23" s="73"/>
       <c r="AJ23" s="111" t="str">
@@ -32400,10 +32400,10 @@
         <v>140</v>
       </c>
       <c r="E25" s="128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F25" s="128" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G25" s="128" t="s">
         <v>97</v>
@@ -32412,22 +32412,22 @@
         <v>91</v>
       </c>
       <c r="I25" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="J25" s="130" t="s">
         <v>457</v>
       </c>
-      <c r="J25" s="130" t="s">
+      <c r="K25" s="128" t="s">
+        <v>439</v>
+      </c>
+      <c r="L25" s="128" t="s">
         <v>458</v>
       </c>
-      <c r="K25" s="128" t="s">
-        <v>440</v>
-      </c>
-      <c r="L25" s="128" t="s">
-        <v>459</v>
-      </c>
       <c r="M25" s="134" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N25" s="128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O25" s="212" t="str">
         <f>NISRE!AX25</f>
@@ -32488,7 +32488,7 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -34509,7 +34509,7 @@
     </row>
     <row r="46" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B46">
         <v>21</v>
@@ -34640,17 +34640,17 @@
       </c>
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="N52" s="292" t="e">
+      <c r="N52" s="289" t="e">
         <f>NISRE!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O52" s="292"/>
-      <c r="P52" s="292"/>
-      <c r="Q52" s="293" t="s">
-        <v>487</v>
-      </c>
-      <c r="R52" s="293"/>
-      <c r="S52" s="293"/>
+      <c r="O52" s="289"/>
+      <c r="P52" s="289"/>
+      <c r="Q52" s="290" t="s">
+        <v>486</v>
+      </c>
+      <c r="R52" s="290"/>
+      <c r="S52" s="290"/>
       <c r="T52">
         <f>L9</f>
         <v>254.08869342764129</v>
@@ -34665,56 +34665,56 @@
         <v>100</v>
       </c>
       <c r="D53" s="128" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E53" s="128" t="s">
+        <v>459</v>
+      </c>
+      <c r="F53" s="128" t="s">
         <v>460</v>
       </c>
-      <c r="F53" s="128" t="s">
+      <c r="G53" s="128" t="s">
         <v>461</v>
       </c>
-      <c r="G53" s="128" t="s">
+      <c r="H53" s="128" t="s">
         <v>462</v>
       </c>
-      <c r="H53" s="128" t="s">
+      <c r="I53" s="128" t="s">
         <v>463</v>
       </c>
-      <c r="I53" s="128" t="s">
+      <c r="J53" s="130" t="s">
+        <v>440</v>
+      </c>
+      <c r="K53" s="128" t="s">
+        <v>441</v>
+      </c>
+      <c r="L53" s="128" t="s">
         <v>464</v>
       </c>
-      <c r="J53" s="130" t="s">
-        <v>441</v>
-      </c>
-      <c r="K53" s="128" t="s">
-        <v>442</v>
-      </c>
-      <c r="L53" s="128" t="s">
+      <c r="M53" s="128" t="s">
         <v>465</v>
-      </c>
-      <c r="M53" s="128" t="s">
-        <v>466</v>
       </c>
       <c r="N53" s="134" t="e">
         <f>NISRE!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="O53" s="134" t="s">
+        <v>483</v>
+      </c>
+      <c r="P53" s="134" t="s">
         <v>484</v>
       </c>
-      <c r="P53" s="134" t="s">
+      <c r="Q53" s="134" t="s">
+        <v>482</v>
+      </c>
+      <c r="R53" s="134" t="s">
         <v>485</v>
-      </c>
-      <c r="Q53" s="134" t="s">
-        <v>483</v>
-      </c>
-      <c r="R53" s="134" t="s">
-        <v>486</v>
       </c>
       <c r="S53" s="134" t="s">
         <v>124</v>
       </c>
       <c r="T53" s="214" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U53" s="215" t="str">
         <f>NISRE!AX56</f>
@@ -34771,7 +34771,7 @@
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -37341,7 +37341,7 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B74">
         <v>21</v>
@@ -37509,59 +37509,59 @@
       <c r="AE78" s="73"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="283" t="s">
-        <v>468</v>
+      <c r="A83" s="288" t="s">
+        <v>467</v>
       </c>
       <c r="B83" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="283"/>
+      <c r="A84" s="288"/>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="283"/>
+      <c r="A85" s="288"/>
       <c r="B85" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C85" s="40"/>
       <c r="D85" s="40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37" t="s">
         <v>118</v>
       </c>
       <c r="H85" s="42" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I85" s="42"/>
       <c r="J85" s="43" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K85" s="43"/>
       <c r="L85" s="43" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M85" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N85" s="37"/>
       <c r="O85" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="P85" s="41" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q85" s="41"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="283"/>
+      <c r="A86" s="288"/>
       <c r="B86" s="3" t="s">
         <v>159</v>
       </c>
@@ -37620,7 +37620,7 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="283"/>
+      <c r="A87" s="288"/>
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -37671,7 +37671,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="283"/>
+      <c r="A88" s="288"/>
       <c r="B88" s="63">
         <f>E26</f>
         <v>766.42539896919243</v>
@@ -37726,7 +37726,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="283"/>
+      <c r="A89" s="288"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
@@ -37745,7 +37745,7 @@
       <c r="Q89" s="32"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="283"/>
+      <c r="A90" s="288"/>
       <c r="B90" s="55" t="s">
         <v>225</v>
       </c>
@@ -37784,7 +37784,7 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="283"/>
+      <c r="A91" s="288"/>
       <c r="B91" s="60">
         <v>0</v>
       </c>
@@ -37939,59 +37939,59 @@
       <c r="M98" s="137"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="283" t="s">
-        <v>508</v>
+      <c r="A100" s="288" t="s">
+        <v>507</v>
       </c>
       <c r="B100" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="283"/>
+      <c r="A101" s="288"/>
       <c r="H101" s="35"/>
       <c r="I101" s="35"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="283"/>
+      <c r="A102" s="288"/>
       <c r="B102" s="40" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C102" s="40"/>
       <c r="D102" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37" t="s">
         <v>118</v>
       </c>
       <c r="H102" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I102" s="42"/>
       <c r="J102" s="43" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="K102" s="43"/>
       <c r="L102" s="43" t="s">
         <v>188</v>
       </c>
       <c r="M102" s="37" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N102" s="37"/>
       <c r="O102" s="37" t="s">
         <v>73</v>
       </c>
       <c r="P102" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="Q102" s="41"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="283"/>
+      <c r="A103" s="288"/>
       <c r="B103" s="3" t="s">
         <v>159</v>
       </c>
@@ -38050,7 +38050,7 @@
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="283"/>
+      <c r="A104" s="288"/>
       <c r="B104" s="3">
         <v>0</v>
       </c>
@@ -38101,7 +38101,7 @@
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="283"/>
+      <c r="A105" s="288"/>
       <c r="B105" s="63">
         <f>E36</f>
         <v>736.43459771106996</v>
@@ -38156,7 +38156,7 @@
       </c>
     </row>
     <row r="106" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="283"/>
+      <c r="A106" s="288"/>
       <c r="B106" s="32"/>
       <c r="C106" s="32"/>
       <c r="D106" s="32"/>
@@ -38175,7 +38175,7 @@
       <c r="Q106" s="32"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="283"/>
+      <c r="A107" s="288"/>
       <c r="B107" s="55" t="s">
         <v>225</v>
       </c>
@@ -38214,7 +38214,7 @@
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="283"/>
+      <c r="A108" s="288"/>
       <c r="B108" s="60">
         <v>0</v>
       </c>
@@ -38369,59 +38369,59 @@
       <c r="M115" s="137"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="283" t="s">
-        <v>509</v>
+      <c r="A117" s="288" t="s">
+        <v>508</v>
       </c>
       <c r="B117" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="283"/>
+      <c r="A118" s="288"/>
       <c r="H118" s="35"/>
       <c r="I118" s="35"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="283"/>
+      <c r="A119" s="288"/>
       <c r="B119" s="40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C119" s="40"/>
       <c r="D119" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E119" s="37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37" t="s">
         <v>118</v>
       </c>
       <c r="H119" s="42" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I119" s="42"/>
       <c r="J119" s="43" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K119" s="43"/>
       <c r="L119" s="43" t="s">
         <v>188</v>
       </c>
       <c r="M119" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N119" s="37"/>
       <c r="O119" s="37" t="s">
         <v>73</v>
       </c>
       <c r="P119" s="41" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Q119" s="41"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="283"/>
+      <c r="A120" s="288"/>
       <c r="B120" s="3" t="s">
         <v>159</v>
       </c>
@@ -38476,7 +38476,7 @@
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="283"/>
+      <c r="A121" s="288"/>
       <c r="B121" s="3">
         <v>0</v>
       </c>
@@ -38529,7 +38529,7 @@
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="283"/>
+      <c r="A122" s="288"/>
       <c r="B122" s="63">
         <f>E46</f>
         <v>709.23797980811491</v>
@@ -38588,7 +38588,7 @@
       </c>
     </row>
     <row r="123" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="283"/>
+      <c r="A123" s="288"/>
       <c r="B123" s="32"/>
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
@@ -38607,7 +38607,7 @@
       <c r="Q123" s="32"/>
     </row>
     <row r="124" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="283"/>
+      <c r="A124" s="288"/>
       <c r="B124" s="55" t="s">
         <v>225</v>
       </c>
@@ -38646,7 +38646,7 @@
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="283"/>
+      <c r="A125" s="288"/>
       <c r="B125" s="60">
         <v>0</v>
       </c>
@@ -38697,6 +38697,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A117:A125"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="F1:H1"/>
@@ -38704,12 +38710,6 @@
     <mergeCell ref="A100:A108"/>
     <mergeCell ref="N52:P52"/>
     <mergeCell ref="Q52:S52"/>
-    <mergeCell ref="A117:A125"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38780,23 +38780,23 @@
   <sheetData>
     <row r="1" spans="36:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ1" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AK1" s="11"/>
       <c r="AL1" s="12"/>
-      <c r="AS1" s="263" t="s">
-        <v>433</v>
-      </c>
-      <c r="AT1" s="264"/>
-      <c r="AU1" s="265"/>
-      <c r="AV1" s="289" t="s">
-        <v>423</v>
-      </c>
-      <c r="AW1" s="290"/>
-      <c r="AX1" s="290"/>
-      <c r="AY1" s="291"/>
+      <c r="AS1" s="269" t="s">
+        <v>432</v>
+      </c>
+      <c r="AT1" s="270"/>
+      <c r="AU1" s="271"/>
+      <c r="AV1" s="285" t="s">
+        <v>422</v>
+      </c>
+      <c r="AW1" s="286"/>
+      <c r="AX1" s="286"/>
+      <c r="AY1" s="287"/>
       <c r="BA1" s="108" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="BB1" s="110">
         <f>'1D Analysis'!N3</f>
@@ -38819,7 +38819,7 @@
         <v>[K]</v>
       </c>
       <c r="AS2" s="120" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AT2" s="121">
         <f>CG14</f>
@@ -38839,7 +38839,7 @@
         <v>3</v>
       </c>
       <c r="BA2" s="111" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="BB2" s="112">
         <f>'1D Analysis'!N2</f>
@@ -38848,7 +38848,7 @@
       <c r="BC2" s="2"/>
       <c r="BD2" s="2"/>
       <c r="CF2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="36:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38865,7 +38865,7 @@
         <v>Pa</v>
       </c>
       <c r="AS3" s="123" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AT3" s="42">
         <f>CG15</f>
@@ -38875,7 +38875,7 @@
         <v>183</v>
       </c>
       <c r="AV3" s="119" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AW3" s="3">
         <f>CG6</f>
@@ -38890,7 +38890,7 @@
         <v>263.91731020115793</v>
       </c>
       <c r="BA3" s="111" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BB3" s="112">
         <f>'1D Analysis'!Q2</f>
@@ -38898,26 +38898,26 @@
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
-      <c r="CF3" s="304" t="s">
+      <c r="CF3" s="306" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG3" s="306"/>
+      <c r="CH3" s="306"/>
+      <c r="CI3" s="293" t="s">
         <v>413</v>
       </c>
-      <c r="CG3" s="304"/>
-      <c r="CH3" s="304"/>
-      <c r="CI3" s="286" t="s">
+      <c r="CJ3" s="293"/>
+      <c r="CK3" s="293"/>
+      <c r="CL3" s="292" t="s">
         <v>414</v>
       </c>
-      <c r="CJ3" s="286"/>
-      <c r="CK3" s="286"/>
-      <c r="CL3" s="285" t="s">
+      <c r="CM3" s="292"/>
+      <c r="CN3" s="292"/>
+      <c r="CO3" s="305" t="s">
         <v>415</v>
       </c>
-      <c r="CM3" s="285"/>
-      <c r="CN3" s="285"/>
-      <c r="CO3" s="303" t="s">
-        <v>416</v>
-      </c>
-      <c r="CP3" s="303"/>
-      <c r="CQ3" s="303"/>
+      <c r="CP3" s="305"/>
+      <c r="CQ3" s="305"/>
     </row>
     <row r="4" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ4" s="9" t="str">
@@ -38943,7 +38943,7 @@
         <v>144</v>
       </c>
       <c r="AV4" s="119" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AW4" s="3">
         <f>CG6*COS(RADIANS(CG12))</f>
@@ -38958,7 +38958,7 @@
         <v>254.08869342764129</v>
       </c>
       <c r="BA4" s="111" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BB4" s="112">
         <f>'1D Analysis'!U2</f>
@@ -39029,7 +39029,7 @@
         <v>[Pa]</v>
       </c>
       <c r="AS5" s="123" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AT5" s="42">
         <f>0.5*(AT3+AT2)</f>
@@ -39039,7 +39039,7 @@
         <v>183</v>
       </c>
       <c r="AV5" s="119" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AW5" s="3">
         <f>AW3*SIN(RADIANS(CG12))</f>
@@ -39054,7 +39054,7 @@
         <v>-71.353223445394065</v>
       </c>
       <c r="BA5" s="113" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BB5" s="115">
         <f>'1D Analysis'!S2</f>
@@ -39133,7 +39133,7 @@
       </c>
       <c r="AU6" s="112"/>
       <c r="AV6" s="119" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AW6" s="3">
         <f>CG12</f>
@@ -39224,7 +39224,7 @@
         <v>183</v>
       </c>
       <c r="AV7" s="119" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AW7" s="3">
         <v>0</v>
@@ -39307,7 +39307,7 @@
         <v>183</v>
       </c>
       <c r="AV8" s="119" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AW8" s="3">
         <v>0</v>
@@ -39371,7 +39371,7 @@
     </row>
     <row r="9" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ9" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AK9" s="3">
         <f>CG12</f>
@@ -39391,7 +39391,7 @@
         <v>144</v>
       </c>
       <c r="AV9" s="119" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AW9" s="3">
         <v>0</v>
@@ -39474,7 +39474,7 @@
         <v>183</v>
       </c>
       <c r="AV10" s="119" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AW10" s="3">
         <v>0</v>
@@ -39535,7 +39535,7 @@
     </row>
     <row r="11" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ11" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AK11" s="3">
         <f>CG14</f>
@@ -39554,7 +39554,7 @@
       </c>
       <c r="AU11" s="112"/>
       <c r="AV11" s="119" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AW11" s="3">
         <v>0</v>
@@ -39615,7 +39615,7 @@
     </row>
     <row r="12" spans="36:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ12" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AK12" s="7">
         <f>CG15</f>
@@ -39810,11 +39810,11 @@
       <c r="CQ14" s="112"/>
     </row>
     <row r="15" spans="36:95" x14ac:dyDescent="0.25">
-      <c r="AJ15" s="269" t="s">
-        <v>443</v>
-      </c>
-      <c r="AK15" s="269"/>
-      <c r="AL15" s="269"/>
+      <c r="AJ15" s="265" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK15" s="265"/>
+      <c r="AL15" s="265"/>
       <c r="AP15" s="3" t="s">
         <v>35</v>
       </c>
@@ -39879,16 +39879,16 @@
       <c r="CQ15" s="112"/>
     </row>
     <row r="16" spans="36:95" x14ac:dyDescent="0.25">
-      <c r="AJ16" s="284" t="s">
+      <c r="AJ16" s="291" t="s">
+        <v>443</v>
+      </c>
+      <c r="AK16" s="291"/>
+      <c r="AL16" s="291"/>
+      <c r="AM16" t="s">
         <v>444</v>
       </c>
-      <c r="AK16" s="284"/>
-      <c r="AL16" s="284"/>
-      <c r="AM16" t="s">
-        <v>445</v>
-      </c>
       <c r="AN16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AP16" s="3" t="s">
         <v>10</v>
@@ -39953,10 +39953,10 @@
     </row>
     <row r="17" spans="1:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AM17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AP17" s="3" t="s">
         <v>123</v>
@@ -39966,7 +39966,7 @@
         <v>1202.7893845351678</v>
       </c>
       <c r="AS17" s="125" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AT17" s="126">
         <f>CP36</f>
@@ -40019,7 +40019,7 @@
     </row>
     <row r="18" spans="1:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ18" s="108" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AK18" s="110">
         <f>(AN36+AK19/AL36)/(AL36^(AK20))</f>
@@ -40065,7 +40065,7 @@
     </row>
     <row r="19" spans="1:133" x14ac:dyDescent="0.25">
       <c r="AJ19" s="111" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AK19" s="112">
         <f>-CP4/(2*CP36)</f>
@@ -40111,13 +40111,13 @@
     </row>
     <row r="20" spans="1:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ20" s="206" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AK20" s="207">
         <v>-0.5</v>
       </c>
       <c r="AL20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BY20" t="s">
         <v>274</v>
@@ -40162,7 +40162,7 @@
     </row>
     <row r="21" spans="1:133" x14ac:dyDescent="0.25">
       <c r="AJ21" s="108" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AK21" s="110">
         <v>21</v>
@@ -40206,7 +40206,7 @@
     </row>
     <row r="22" spans="1:133" x14ac:dyDescent="0.25">
       <c r="AJ22" s="111" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AK22" s="112">
         <f>AT11/20</f>
@@ -40254,10 +40254,10 @@
     </row>
     <row r="23" spans="1:133" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AJ23" s="113" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AK23" s="115">
         <f>AT16/20</f>
@@ -40268,7 +40268,7 @@
       </c>
       <c r="AS23" s="73"/>
       <c r="AW23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BY23" t="s">
         <v>274</v>
@@ -40321,10 +40321,10 @@
         <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J24" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K24">
         <f>SUM(K26:K35)</f>
@@ -40335,7 +40335,7 @@
         <v>197.59301075916201</v>
       </c>
       <c r="BB24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="BC24">
         <f>$CJ$8</f>
@@ -40346,10 +40346,10 @@
         <v>182964.07424652783</v>
       </c>
       <c r="BK24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="BS24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="BT24" s="183">
         <f>CJ7</f>
@@ -40357,14 +40357,14 @@
       </c>
       <c r="BU24" s="208"/>
       <c r="CC24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="CD24">
         <f>CJ8</f>
         <v>153781.89040757008</v>
       </c>
       <c r="CE24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="CI24" s="111" t="str">
         <f>'1D Analysis'!J38</f>
@@ -40415,19 +40415,19 @@
     </row>
     <row r="25" spans="1:133" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F25" t="s">
-        <v>589</v>
-      </c>
-      <c r="G25" s="299" t="s">
-        <v>586</v>
-      </c>
-      <c r="H25" s="300"/>
-      <c r="I25" s="300"/>
-      <c r="J25" s="300"/>
-      <c r="K25" s="300"/>
-      <c r="Y25" s="284" t="s">
-        <v>629</v>
-      </c>
-      <c r="Z25" s="284"/>
+        <v>588</v>
+      </c>
+      <c r="G25" s="307" t="s">
+        <v>585</v>
+      </c>
+      <c r="H25" s="308"/>
+      <c r="I25" s="308"/>
+      <c r="J25" s="308"/>
+      <c r="K25" s="308"/>
+      <c r="Y25" s="291" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z25" s="291"/>
       <c r="AA25" s="1" t="s">
         <v>72</v>
       </c>
@@ -40450,7 +40450,7 @@
         <v>-12.710664081500056</v>
       </c>
       <c r="AK25" s="43" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AL25" s="128" t="s">
         <v>100</v>
@@ -40459,10 +40459,10 @@
         <v>140</v>
       </c>
       <c r="AN25" s="128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO25" s="128" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AP25" s="128" t="s">
         <v>97</v>
@@ -40471,88 +40471,88 @@
         <v>91</v>
       </c>
       <c r="AR25" s="128" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AS25" s="130" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AT25" s="128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AU25" s="128" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AV25" s="128" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AW25" s="128" t="s">
+        <v>434</v>
+      </c>
+      <c r="AX25" s="128" t="s">
         <v>435</v>
       </c>
-      <c r="AX25" s="128" t="s">
+      <c r="AY25" s="128" t="s">
         <v>436</v>
       </c>
-      <c r="AY25" s="128" t="s">
-        <v>437</v>
-      </c>
       <c r="AZ25" s="128" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BA25" s="129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="BB25" s="128" t="s">
         <v>106</v>
       </c>
       <c r="BC25" s="128" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="BD25" s="128" t="s">
         <v>125</v>
       </c>
       <c r="BE25" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="BF25" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="BG25" s="42" t="s">
         <v>754</v>
       </c>
-      <c r="BF25" s="42" t="s">
-        <v>587</v>
-      </c>
-      <c r="BG25" s="42" t="s">
+      <c r="BH25" s="42" t="s">
         <v>755</v>
-      </c>
-      <c r="BH25" s="42" t="s">
-        <v>756</v>
       </c>
       <c r="BI25" s="42" t="s">
         <v>33</v>
       </c>
       <c r="BJ25" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BK25" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="BL25" s="42" t="s">
+        <v>618</v>
+      </c>
+      <c r="BM25" s="42" t="s">
+        <v>631</v>
+      </c>
+      <c r="BN25" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="BO25" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="BP25" s="42" t="s">
         <v>611</v>
       </c>
-      <c r="BL25" s="42" t="s">
-        <v>619</v>
-      </c>
-      <c r="BM25" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="BN25" s="42" t="s">
-        <v>613</v>
-      </c>
-      <c r="BO25" s="42" t="s">
-        <v>631</v>
-      </c>
-      <c r="BP25" s="42" t="s">
-        <v>612</v>
-      </c>
       <c r="BQ25" s="195" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="BR25" s="195" t="s">
         <v>97</v>
       </c>
       <c r="BS25" s="195" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="BT25" s="195" t="s">
         <v>91</v>
@@ -40561,38 +40561,38 @@
         <v>122</v>
       </c>
       <c r="BV25" s="196" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="BW25" s="196" t="s">
         <v>123</v>
       </c>
       <c r="BX25" s="195" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="BY25" s="195" t="s">
+        <v>435</v>
+      </c>
+      <c r="BZ25" s="195" t="s">
         <v>436</v>
       </c>
-      <c r="BZ25" s="195" t="s">
-        <v>437</v>
-      </c>
       <c r="CA25" s="195" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="CB25" s="197" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="CC25" s="128" t="s">
         <v>106</v>
       </c>
       <c r="CD25" s="128" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="CE25" s="128" t="s">
         <v>125</v>
       </c>
       <c r="CF25" s="220"/>
       <c r="CG25" s="225" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="CH25" t="e">
         <f ca="1">SUM(CG26:CG46)</f>
@@ -40634,10 +40634,10 @@
       <c r="DC25" s="73"/>
     </row>
     <row r="26" spans="1:133" x14ac:dyDescent="0.25">
-      <c r="A26" s="307" t="s">
-        <v>533</v>
-      </c>
-      <c r="B26" s="308"/>
+      <c r="A26" s="299" t="s">
+        <v>532</v>
+      </c>
+      <c r="B26" s="300"/>
       <c r="C26" s="186"/>
       <c r="D26" s="186"/>
       <c r="E26" s="146"/>
@@ -40665,22 +40665,22 @@
         <f>(J26+J27)/2*(G27-G26)</f>
         <v>3.7968749999997302E-3</v>
       </c>
-      <c r="AA26" s="309" t="s">
+      <c r="AA26" s="302" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB26" s="303"/>
+      <c r="AC26" s="302" t="s">
         <v>758</v>
       </c>
-      <c r="AB26" s="310"/>
-      <c r="AC26" s="309" t="s">
+      <c r="AD26" s="303"/>
+      <c r="AE26" s="302" t="s">
         <v>759</v>
       </c>
-      <c r="AD26" s="310"/>
-      <c r="AE26" s="309" t="s">
-        <v>760</v>
-      </c>
-      <c r="AF26" s="310"/>
+      <c r="AF26" s="303"/>
       <c r="AG26" s="146"/>
       <c r="AH26" s="146"/>
       <c r="AJ26" s="201" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AK26">
         <v>1</v>
@@ -40912,7 +40912,7 @@
     </row>
     <row r="27" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B27" s="3">
         <f>CM36</f>
@@ -41191,10 +41191,10 @@
         <v>1.700766470497439E-2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G28" s="171">
         <f t="shared" si="2"/>
@@ -41217,21 +41217,21 @@
         <v>2.7843749999996023E-3</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AB28" s="2">
         <f>1-SIN(RADIANS(90-AB27))/SIN(RADIANS(90-AW6))</f>
         <v>0.71875418424156878</v>
       </c>
       <c r="AC28" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AD28" s="2">
         <f>1-SIN(RADIANS(90-AD27))/SIN(RADIANS(90-AW6))</f>
         <v>0.74624205541519428</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF28" s="2">
         <f>1-SIN(RADIANS(90-AF27))/SIN(RADIANS(90-AW6))</f>
@@ -41459,7 +41459,7 @@
     </row>
     <row r="29" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B29" s="3">
         <f>1/CM38</f>
@@ -41494,19 +41494,19 @@
         <v>2.2781249999997261E-3</v>
       </c>
       <c r="AA29" s="203" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB29" s="2">
         <v>2.58</v>
       </c>
       <c r="AC29" s="203" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AD29" s="2">
         <v>2.62</v>
       </c>
       <c r="AE29" s="203" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF29" s="2">
         <v>2.85</v>
@@ -41996,30 +41996,30 @@
         <f t="shared" si="31"/>
         <v>1.2656249999998205E-3</v>
       </c>
-      <c r="Y31" s="284" t="s">
-        <v>570</v>
-      </c>
-      <c r="Z31" s="296"/>
+      <c r="Y31" s="291" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z31" s="304"/>
       <c r="AA31" s="165" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB31" s="3">
         <v>12.25</v>
       </c>
       <c r="AC31" s="165" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AD31" s="3">
         <v>12.25</v>
       </c>
       <c r="AE31" s="165" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF31" s="3">
         <v>12.25</v>
       </c>
       <c r="AG31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AH31">
         <v>0.19</v>
@@ -42277,21 +42277,21 @@
         <v>7.5937499999990867E-4</v>
       </c>
       <c r="AA32" s="165" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB32" s="3">
         <f>AB31*$B$27</f>
         <v>8.41766027586654</v>
       </c>
       <c r="AC32" s="165" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AD32" s="3">
         <f>AD31*$B$27</f>
         <v>8.41766027586654</v>
       </c>
       <c r="AE32" s="165" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF32" s="3">
         <f>AF31*$B$27</f>
@@ -42545,7 +42545,7 @@
     </row>
     <row r="33" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B33" s="3">
         <f>(AW3/AX3)^2</f>
@@ -42554,7 +42554,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="F33" s="108" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G33" s="171">
         <f t="shared" si="2"/>
@@ -42821,7 +42821,7 @@
     </row>
     <row r="34" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B34" s="3">
         <f>AW6</f>
@@ -42853,24 +42853,24 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="284" t="s">
-        <v>570</v>
-      </c>
-      <c r="Z34" s="284"/>
+      <c r="Y34" s="291" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z34" s="291"/>
       <c r="AA34" s="166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB34" s="163">
         <v>0.73</v>
       </c>
       <c r="AC34" s="166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AD34" s="163">
         <v>0.7</v>
       </c>
       <c r="AE34" s="166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF34" s="163">
         <v>0.67700000000000005</v>
@@ -43137,21 +43137,21 @@
         <v>0</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AB35">
         <f>AB34/B27/SIN(RADIANS(90-AB27))/100</f>
         <v>3.7773000516399771E-2</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AD35">
         <f>AD34/B27/SIN(RADIANS(90-AD27))/100</f>
         <v>4.0144225777148046E-2</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF35">
         <f>AF34/B27/SIN(RADIANS(90-AF27))/100</f>
@@ -43406,7 +43406,7 @@
       <c r="A36" s="73"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D36" s="73"/>
       <c r="E36" s="73"/>
@@ -43441,26 +43441,26 @@
       <c r="V36" s="73"/>
       <c r="W36" s="73"/>
       <c r="X36" s="73"/>
-      <c r="Y36" s="284" t="s">
-        <v>563</v>
-      </c>
-      <c r="Z36" s="296"/>
+      <c r="Y36" s="291" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z36" s="304"/>
       <c r="AA36" s="165" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AB36" s="3">
         <f>B44</f>
         <v>0.9</v>
       </c>
       <c r="AC36" s="165" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AD36" s="3">
         <f>B44</f>
         <v>0.9</v>
       </c>
       <c r="AE36" s="165" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF36" s="3">
         <f>B44</f>
@@ -43470,7 +43470,7 @@
       <c r="AH36" s="2"/>
       <c r="AI36"/>
       <c r="AJ36" s="201" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AK36" s="132">
         <v>11</v>
@@ -43720,7 +43720,7 @@
         <v>11.481481481481481</v>
       </c>
       <c r="F37" s="178" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G37" s="171">
         <f t="shared" si="2"/>
@@ -43742,24 +43742,24 @@
         <f t="shared" ref="K37" si="54">(J37+J36)/2*(G37-G36)*SUM($I$36:$I$46)</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="284" t="s">
-        <v>569</v>
-      </c>
-      <c r="Z37" s="296"/>
+      <c r="Y37" s="291" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z37" s="304"/>
       <c r="AA37" s="166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AB37" s="163">
         <v>1</v>
       </c>
       <c r="AC37" s="166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AD37" s="163">
         <v>1</v>
       </c>
       <c r="AE37" s="166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF37" s="163">
         <v>1</v>
@@ -44008,10 +44008,10 @@
       <c r="EC37" s="73"/>
     </row>
     <row r="38" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="307" t="s">
-        <v>534</v>
-      </c>
-      <c r="B38" s="308"/>
+      <c r="A38" s="299" t="s">
+        <v>533</v>
+      </c>
+      <c r="B38" s="300"/>
       <c r="C38" s="186"/>
       <c r="D38" s="186"/>
       <c r="E38" s="146"/>
@@ -44039,24 +44039,24 @@
         <f t="shared" ref="K38:K45" si="62">(J38+J37)/2*(G38-G37)</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="284" t="s">
-        <v>564</v>
-      </c>
-      <c r="Z38" s="296"/>
+      <c r="Y38" s="291" t="s">
+        <v>563</v>
+      </c>
+      <c r="Z38" s="304"/>
       <c r="AA38" s="168" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AB38" s="167">
         <v>1E-3</v>
       </c>
       <c r="AC38" s="168" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AD38" s="167">
         <v>1E-3</v>
       </c>
       <c r="AE38" s="168" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF38" s="167">
         <v>1E-3</v>
@@ -44280,13 +44280,13 @@
     </row>
     <row r="39" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B39" s="3">
         <v>12.25</v>
       </c>
       <c r="C39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G39" s="171">
         <f t="shared" si="2"/>
@@ -44308,36 +44308,36 @@
         <f t="shared" si="62"/>
         <v>2.5312499999996171E-4</v>
       </c>
-      <c r="Y39" s="284" t="s">
-        <v>566</v>
-      </c>
-      <c r="Z39" s="296"/>
+      <c r="Y39" s="291" t="s">
+        <v>565</v>
+      </c>
+      <c r="Z39" s="304"/>
       <c r="AA39" s="165" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AB39" s="164">
         <f>AB38/$B$27/$B$28</f>
         <v>8.5565759378543174E-2</v>
       </c>
       <c r="AC39" s="165" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AD39" s="3">
         <f>AD38/$B$27/$B$28</f>
         <v>8.5565759378543174E-2</v>
       </c>
       <c r="AE39" s="165" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF39" s="164">
         <f>AF38/$B$27/$B$28</f>
         <v>8.5565759378543174E-2</v>
       </c>
       <c r="AG39" s="202"/>
-      <c r="AH39" s="294" t="s">
-        <v>761</v>
-      </c>
-      <c r="AI39" s="294"/>
+      <c r="AH39" s="301" t="s">
+        <v>760</v>
+      </c>
+      <c r="AI39" s="301"/>
       <c r="AJ39" s="73"/>
       <c r="AK39">
         <v>14</v>
@@ -44556,7 +44556,7 @@
     </row>
     <row r="40" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B40" s="3">
         <f>B39*B27</f>
@@ -44585,26 +44585,26 @@
       <c r="Y40" s="181"/>
       <c r="Z40" s="181"/>
       <c r="AA40" s="165" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AB40" s="3">
         <v>1.5</v>
       </c>
       <c r="AC40" s="165" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AD40" s="3">
         <v>1.6</v>
       </c>
       <c r="AE40" s="165" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF40" s="3">
         <v>1.8</v>
       </c>
       <c r="AG40" s="2"/>
-      <c r="AH40" s="294"/>
-      <c r="AI40" s="294"/>
+      <c r="AH40" s="301"/>
+      <c r="AI40" s="301"/>
       <c r="AK40">
         <v>15</v>
       </c>
@@ -44822,13 +44822,13 @@
     </row>
     <row r="41" spans="1:143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B41" s="3">
         <v>0.03</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D41" s="2"/>
       <c r="G41" s="171">
@@ -44852,23 +44852,23 @@
         <v>1.2656249999998205E-3</v>
       </c>
       <c r="Y41" s="180" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Z41" s="188"/>
       <c r="AA41" s="165" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AB41" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AC41" s="165" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AD41" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="AE41" s="165" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF41" s="3">
         <v>8.0000000000000002E-3</v>
@@ -45096,7 +45096,7 @@
     </row>
     <row r="42" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B42">
         <f>B41</f>
@@ -45123,21 +45123,21 @@
         <v>1.7718749999997435E-3</v>
       </c>
       <c r="AA42" s="165" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AB42" s="3">
         <f>AB27</f>
         <v>73.665427042784145</v>
       </c>
       <c r="AC42" s="165" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AD42" s="3">
         <f>AD27</f>
         <v>75.3</v>
       </c>
       <c r="AE42" s="165" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF42" s="3">
         <f>AF27</f>
@@ -45366,7 +45366,7 @@
     </row>
     <row r="43" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B43" s="3">
         <v>1.2</v>
@@ -45393,24 +45393,24 @@
         <f t="shared" si="62"/>
         <v>2.2781249999997261E-3</v>
       </c>
-      <c r="Y43" s="284" t="s">
-        <v>565</v>
-      </c>
-      <c r="Z43" s="296"/>
+      <c r="Y43" s="291" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z43" s="304"/>
       <c r="AA43" s="165" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AB43" s="3">
         <v>0.76500000000000001</v>
       </c>
       <c r="AC43" s="165" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AD43" s="3">
         <v>0.75</v>
       </c>
       <c r="AE43" s="165" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AF43" s="3">
         <v>0.74</v>
@@ -45619,7 +45619,7 @@
     </row>
     <row r="44" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B44" s="3">
         <v>0.9</v>
@@ -45861,13 +45861,13 @@
     </row>
     <row r="45" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="157" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B45" s="158"/>
       <c r="C45" s="186"/>
       <c r="D45" s="186"/>
       <c r="F45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G45" s="171">
         <f t="shared" si="2"/>
@@ -46085,7 +46085,7 @@
     </row>
     <row r="46" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="140" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B46" s="140">
         <f>B44*B43*B41</f>
@@ -46119,7 +46119,7 @@
         <v>3.7968749999997302E-3</v>
       </c>
       <c r="AJ46" s="201" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AK46">
         <v>21</v>
@@ -46292,7 +46292,7 @@
     </row>
     <row r="47" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="155" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B47" s="156"/>
       <c r="C47" s="186"/>
@@ -46318,7 +46318,7 @@
     </row>
     <row r="48" spans="1:143" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B48" s="3">
         <f>RADIANS(AX6)</f>
@@ -46327,20 +46327,20 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="G48" s="149" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H48" s="153"/>
       <c r="I48" s="153"/>
       <c r="J48" s="153"/>
       <c r="AZ48" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BA48" s="135">
         <f>SUM(BA26:BA45)</f>
         <v>0.7778480045128614</v>
       </c>
       <c r="BZ48" s="108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="CA48" s="194" t="e">
         <f ca="1">SUM(CB26:CB45)</f>
@@ -46354,7 +46354,7 @@
     </row>
     <row r="49" spans="1:105" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B49" s="3">
         <f>AD29</f>
@@ -46370,21 +46370,21 @@
       <c r="I49" s="153"/>
       <c r="J49" s="153"/>
       <c r="AZ49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BA49">
         <f>CG17</f>
         <v>0.7774823082743787</v>
       </c>
       <c r="BZ49" s="113" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="CA49" s="114">
         <f>CG13</f>
         <v>0.7774823082743787</v>
       </c>
       <c r="CB49" s="114" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="CC49" s="193" t="e">
         <f ca="1">(CA48-CA49)/CA49*100</f>
@@ -46396,7 +46396,7 @@
     </row>
     <row r="50" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B50" s="3">
         <f>B48/SQRT(B49)</f>
@@ -46405,14 +46405,14 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="G50" s="152" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H50" s="154"/>
       <c r="I50" s="154"/>
       <c r="J50" s="154"/>
       <c r="AL50" s="185"/>
       <c r="AZ50" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="BA50">
         <f>(BA48-BA49)/BA48*100</f>
@@ -46424,7 +46424,7 @@
     </row>
     <row r="51" spans="1:105" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B51" s="3">
         <v>0.05</v>
@@ -46452,13 +46452,13 @@
     </row>
     <row r="52" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B52" s="3">
         <v>0.3</v>
       </c>
       <c r="C52" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D52">
         <f>B53*B29/B28</f>
@@ -46497,14 +46497,14 @@
     </row>
     <row r="53" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B53" s="3">
         <f>D53/B29*B28</f>
         <v>4.7621461173928299E-3</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D53" s="2">
         <v>0.4</v>
@@ -46536,7 +46536,7 @@
     </row>
     <row r="54" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B54" s="3">
         <f>AL26+B53</f>
@@ -46555,7 +46555,7 @@
       <c r="BR54" s="179"/>
       <c r="BS54" s="179"/>
       <c r="BT54" s="73" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="BU54" s="73"/>
       <c r="BV54" s="73"/>
@@ -46564,15 +46564,15 @@
       <c r="BY54" s="73"/>
       <c r="BZ54" s="73"/>
       <c r="CA54" s="73"/>
-      <c r="CW54" s="284"/>
-      <c r="CX54" s="284"/>
-      <c r="CY54" s="284"/>
-      <c r="CZ54" s="284"/>
-      <c r="DA54" s="284"/>
+      <c r="CW54" s="291"/>
+      <c r="CX54" s="291"/>
+      <c r="CY54" s="291"/>
+      <c r="CZ54" s="291"/>
+      <c r="DA54" s="291"/>
     </row>
     <row r="55" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B55" s="3">
         <f>AL46-B53</f>
@@ -46585,15 +46585,15 @@
         <v>3.6112999999992262E-2</v>
       </c>
       <c r="U55" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="V55" t="s">
-        <v>762</v>
-      </c>
-      <c r="Y55" s="283" t="s">
-        <v>628</v>
-      </c>
-      <c r="Z55" s="283"/>
+        <v>761</v>
+      </c>
+      <c r="Y55" s="288" t="s">
+        <v>627</v>
+      </c>
+      <c r="Z55" s="288"/>
       <c r="AA55" s="1" t="s">
         <v>118</v>
       </c>
@@ -46619,13 +46619,13 @@
         <f>AY9</f>
         <v>254.08869342764129</v>
       </c>
-      <c r="BE55" s="274" t="s">
-        <v>623</v>
-      </c>
-      <c r="BF55" s="274"/>
+      <c r="BE55" s="253" t="s">
+        <v>622</v>
+      </c>
+      <c r="BF55" s="253"/>
       <c r="BG55" s="209"/>
       <c r="BH55" s="210" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="BM55" s="73"/>
       <c r="BN55" s="73"/>
@@ -46635,7 +46635,7 @@
       <c r="BR55" s="73"/>
       <c r="BS55" s="73"/>
       <c r="BT55" s="73" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="BZ55" s="73"/>
       <c r="CA55" s="73"/>
@@ -46644,7 +46644,7 @@
         <v>254.8</v>
       </c>
       <c r="CQ55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="CR55">
         <f>CM10</f>
@@ -46654,7 +46654,7 @@
     </row>
     <row r="56" spans="1:105" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B56" s="3">
         <f>B53/AK22</f>
@@ -46663,24 +46663,24 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="F56" t="s">
-        <v>589</v>
-      </c>
-      <c r="G56" s="301" t="s">
-        <v>585</v>
-      </c>
-      <c r="H56" s="302"/>
-      <c r="I56" s="302"/>
-      <c r="J56" s="302"/>
-      <c r="K56" s="302"/>
-      <c r="R56" s="301" t="s">
+        <v>588</v>
+      </c>
+      <c r="G56" s="309" t="s">
         <v>584</v>
       </c>
-      <c r="S56" s="302"/>
-      <c r="T56" s="302"/>
-      <c r="U56" s="302"/>
-      <c r="V56" s="302"/>
-      <c r="Y56" s="283"/>
-      <c r="Z56" s="283"/>
+      <c r="H56" s="310"/>
+      <c r="I56" s="310"/>
+      <c r="J56" s="310"/>
+      <c r="K56" s="310"/>
+      <c r="R56" s="309" t="s">
+        <v>583</v>
+      </c>
+      <c r="S56" s="310"/>
+      <c r="T56" s="310"/>
+      <c r="U56" s="310"/>
+      <c r="V56" s="310"/>
+      <c r="Y56" s="288"/>
+      <c r="Z56" s="288"/>
       <c r="AA56" s="1" t="s">
         <v>73</v>
       </c>
@@ -46703,177 +46703,177 @@
         <v>24.084470804612451</v>
       </c>
       <c r="AK56" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL56" s="43" t="s">
         <v>624</v>
       </c>
-      <c r="AL56" s="43" t="s">
-        <v>625</v>
-      </c>
       <c r="AM56" s="128" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AN56" s="128" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AO56" s="128" t="s">
+        <v>771</v>
+      </c>
+      <c r="AP56" s="128" t="s">
+        <v>633</v>
+      </c>
+      <c r="AQ56" s="128" t="s">
+        <v>462</v>
+      </c>
+      <c r="AR56" s="128" t="s">
         <v>772</v>
       </c>
-      <c r="AP56" s="128" t="s">
-        <v>634</v>
-      </c>
-      <c r="AQ56" s="128" t="s">
-        <v>463</v>
-      </c>
-      <c r="AR56" s="128" t="s">
-        <v>773</v>
-      </c>
       <c r="AS56" s="130" t="s">
+        <v>687</v>
+      </c>
+      <c r="AT56" s="128" t="s">
         <v>688</v>
       </c>
-      <c r="AT56" s="128" t="s">
-        <v>689</v>
-      </c>
       <c r="AU56" s="128" t="s">
+        <v>464</v>
+      </c>
+      <c r="AV56" s="128" t="s">
         <v>465</v>
       </c>
-      <c r="AV56" s="128" t="s">
+      <c r="AW56" s="128" t="s">
         <v>466</v>
       </c>
-      <c r="AW56" s="128" t="s">
-        <v>467</v>
-      </c>
       <c r="AX56" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="AY56" s="128" t="s">
         <v>436</v>
-      </c>
-      <c r="AY56" s="128" t="s">
-        <v>437</v>
       </c>
       <c r="AZ56" s="128" t="s">
         <v>129</v>
       </c>
       <c r="BA56" s="129" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="BB56" s="128" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BC56" s="128" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="BD56" s="128"/>
       <c r="BE56" s="128" t="s">
         <v>327</v>
       </c>
       <c r="BF56" s="128" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BG56" s="128" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="BH56" s="128" t="s">
         <v>84</v>
       </c>
       <c r="BI56" s="43" t="s">
+        <v>692</v>
+      </c>
+      <c r="BJ56" s="128" t="s">
+        <v>619</v>
+      </c>
+      <c r="BK56" s="128" t="s">
         <v>693</v>
       </c>
-      <c r="BJ56" s="128" t="s">
-        <v>620</v>
-      </c>
-      <c r="BK56" s="128" t="s">
+      <c r="BL56" s="128" t="s">
         <v>694</v>
       </c>
-      <c r="BL56" s="128" t="s">
-        <v>695</v>
-      </c>
       <c r="BM56" s="42" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="BN56" s="42" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="BO56" s="42" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="BP56" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BQ56" s="42"/>
       <c r="BR56" s="42" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="BS56" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="BT56" s="42" t="s">
         <v>132</v>
       </c>
       <c r="BU56" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="BV56" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="BW56" s="42" t="s">
+        <v>629</v>
+      </c>
+      <c r="BX56" s="42" t="s">
         <v>616</v>
       </c>
-      <c r="BV56" s="42" t="s">
-        <v>610</v>
-      </c>
-      <c r="BW56" s="42" t="s">
-        <v>630</v>
-      </c>
-      <c r="BX56" s="42" t="s">
-        <v>617</v>
-      </c>
       <c r="BY56" s="42" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BZ56" s="195" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="CA56" s="195" t="s">
+        <v>464</v>
+      </c>
+      <c r="CB56" s="195" t="s">
         <v>465</v>
       </c>
-      <c r="CB56" s="195" t="s">
+      <c r="CC56" s="195" t="s">
+        <v>766</v>
+      </c>
+      <c r="CD56" s="195" t="s">
+        <v>765</v>
+      </c>
+      <c r="CE56" s="196" t="s">
+        <v>685</v>
+      </c>
+      <c r="CF56" s="195" t="s">
+        <v>686</v>
+      </c>
+      <c r="CG56" s="195" t="s">
         <v>466</v>
       </c>
-      <c r="CC56" s="195" t="s">
-        <v>767</v>
-      </c>
-      <c r="CD56" s="195" t="s">
-        <v>766</v>
-      </c>
-      <c r="CE56" s="196" t="s">
-        <v>686</v>
-      </c>
-      <c r="CF56" s="195" t="s">
-        <v>687</v>
-      </c>
-      <c r="CG56" s="195" t="s">
-        <v>467</v>
-      </c>
       <c r="CH56" s="195" t="s">
+        <v>435</v>
+      </c>
+      <c r="CI56" s="195" t="s">
         <v>436</v>
-      </c>
-      <c r="CI56" s="195" t="s">
-        <v>437</v>
       </c>
       <c r="CJ56" s="195" t="s">
         <v>129</v>
       </c>
       <c r="CK56" s="197" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="CL56" s="195" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="CM56" s="195" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="CN56" s="195" t="s">
         <v>327</v>
       </c>
       <c r="CO56" s="195" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="CP56" s="42" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="CQ56" s="211" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="CR56" s="128" t="s">
         <v>84</v>
@@ -46882,16 +46882,16 @@
         <v>163</v>
       </c>
       <c r="CT56" s="42" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="CV56" t="s">
+        <v>695</v>
+      </c>
+      <c r="CW56" t="s">
         <v>696</v>
       </c>
-      <c r="CW56" t="s">
-        <v>697</v>
-      </c>
       <c r="CY56" s="225" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="57" spans="1:105" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -46920,10 +46920,10 @@
         <f>(J57+J58)/2*(G58-G57)</f>
         <v>9.5809999999988179E-3</v>
       </c>
-      <c r="N57" s="305" t="s">
-        <v>765</v>
-      </c>
-      <c r="O57" s="306"/>
+      <c r="N57" s="295" t="s">
+        <v>764</v>
+      </c>
+      <c r="O57" s="296"/>
       <c r="R57" s="171">
         <f>AL57</f>
         <v>0.10590399514291465</v>
@@ -46939,21 +46939,21 @@
         <v>0</v>
       </c>
       <c r="AA57" s="297" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AB57" s="298"/>
       <c r="AC57" s="297" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AD57" s="298"/>
       <c r="AE57" s="297" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AF57" s="298"/>
       <c r="AG57" s="204"/>
       <c r="AH57" s="204"/>
       <c r="AJ57" s="201" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AK57">
         <v>1</v>
@@ -47203,7 +47203,7 @@
     </row>
     <row r="58" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A58" s="159" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B58" s="160"/>
       <c r="C58" s="187"/>
@@ -47229,7 +47229,7 @@
         <v>8.1069999999980654E-3</v>
       </c>
       <c r="N58" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O58" s="25">
         <v>0.5</v>
@@ -47517,7 +47517,7 @@
     </row>
     <row r="59" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B59" s="3">
         <f>CP41</f>
@@ -47548,14 +47548,14 @@
       <c r="L59" s="73"/>
       <c r="M59" s="73"/>
       <c r="N59" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O59" s="3">
         <f>CP35</f>
         <v>1.439395029033021E-2</v>
       </c>
       <c r="P59" s="132" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q59" s="73"/>
       <c r="R59" s="171">
@@ -47596,7 +47596,7 @@
         <v>-65.915529195387549</v>
       </c>
       <c r="AG59" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH59">
         <v>0.23</v>
@@ -47847,17 +47847,17 @@
     </row>
     <row r="60" spans="1:105" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B60" s="3">
         <f>CP42</f>
         <v>1.0281393064521579E-2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G60" s="171">
         <f t="shared" si="111"/>
@@ -47882,7 +47882,7 @@
       <c r="L60" s="73"/>
       <c r="M60" s="73"/>
       <c r="N60" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O60" s="3">
         <f>O59*P60</f>
@@ -47909,21 +47909,21 @@
       <c r="W60" s="73"/>
       <c r="X60" s="73"/>
       <c r="AA60" s="165" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AB60" s="3">
         <f>1-SIN(RADIANS(90+AB59))/SIN(RADIANS(90-AB58))</f>
         <v>0.27848482149173193</v>
       </c>
       <c r="AC60" s="165" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AD60" s="3">
         <f>1-SIN(RADIANS(90+AD59))/SIN(RADIANS(90-AD58))</f>
         <v>0.3023404564131017</v>
       </c>
       <c r="AE60" s="165" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF60" s="3">
         <f>1-SIN(RADIANS(90+AF59))/SIN(RADIANS(90-AF58))</f>
@@ -48177,7 +48177,7 @@
     </row>
     <row r="61" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B61" s="3">
         <f>1/CP43</f>
@@ -48192,7 +48192,7 @@
         <v>6.5493137692234568E-3</v>
       </c>
       <c r="F61" s="149" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G61" s="174">
         <f t="shared" si="111"/>
@@ -48237,19 +48237,19 @@
         <v>0</v>
       </c>
       <c r="AA61" s="165" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AB61" s="3">
         <v>1.25</v>
       </c>
       <c r="AC61" s="165" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AD61" s="3">
         <v>1.25</v>
       </c>
       <c r="AE61" s="165" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF61" s="3">
         <v>1.25</v>
@@ -48502,7 +48502,7 @@
     </row>
     <row r="62" spans="1:105" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B62" s="3" t="e">
         <f ca="1">CP44</f>
@@ -48555,24 +48555,24 @@
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="Y62" s="284" t="s">
-        <v>570</v>
-      </c>
-      <c r="Z62" s="295"/>
+      <c r="Y62" s="291" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z62" s="311"/>
       <c r="AA62" s="165" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB62" s="3">
         <v>14.5</v>
       </c>
       <c r="AC62" s="165" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AD62" s="3">
         <v>14.5</v>
       </c>
       <c r="AE62" s="165" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF62" s="3">
         <v>14.5</v>
@@ -48825,7 +48825,7 @@
     </row>
     <row r="63" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B63" s="3">
         <f>CP45</f>
@@ -48854,7 +48854,7 @@
         <v>7.3699999999981766E-4</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O63" s="3">
         <f>-O62</f>
@@ -48875,21 +48875,21 @@
         <v>0</v>
       </c>
       <c r="AA63" s="165" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB63" s="3">
         <f>$B$59*AB62</f>
         <v>9.2365936267372071</v>
       </c>
       <c r="AC63" s="165" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AD63" s="3">
         <f>$B$59*AD62</f>
         <v>9.2365936267372071</v>
       </c>
       <c r="AE63" s="165" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF63" s="3">
         <f>$B$59*AF62</f>
@@ -49143,7 +49143,7 @@
     </row>
     <row r="64" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B64" s="3" t="e">
         <f ca="1">CP46</f>
@@ -49175,7 +49175,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O64" s="3">
         <v>54.8</v>
@@ -49452,7 +49452,7 @@
     </row>
     <row r="65" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B65" s="3">
         <f>(AX8/AY8)^2</f>
@@ -49481,7 +49481,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O65" s="3">
         <v>-64.5</v>
@@ -49507,25 +49507,25 @@
         <f t="shared" si="132"/>
         <v>0</v>
       </c>
-      <c r="X65" s="284" t="s">
-        <v>570</v>
-      </c>
-      <c r="Y65" s="284"/>
-      <c r="Z65" s="295"/>
+      <c r="X65" s="291" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y65" s="291"/>
+      <c r="Z65" s="311"/>
       <c r="AA65" s="166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AB65" s="38">
         <v>1.7</v>
       </c>
       <c r="AC65" s="166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AD65" s="38">
         <v>1.7</v>
       </c>
       <c r="AE65" s="166" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AF65" s="38">
         <v>1.7</v>
@@ -49778,7 +49778,7 @@
     </row>
     <row r="66" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B66" s="3">
         <f>AX11</f>
@@ -49807,7 +49807,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O66" s="3">
         <f>DEGREES(ATAN(0.5*(TAN(RADIANS(O64))+TAN(RADIANS(O65)))))</f>
@@ -49834,21 +49834,21 @@
       <c r="Y66" s="73"/>
       <c r="Z66" s="73"/>
       <c r="AA66" s="104" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AB66" s="38">
         <f>AB65/SIN(RADIANS(90+AB59))/100/$B$59</f>
         <v>6.4225571433256773E-2</v>
       </c>
       <c r="AC66" s="104" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AD66" s="38">
         <f>AD65/SIN(RADIANS(90+AD59))/100/$B$59</f>
         <v>6.459584818875766E-2</v>
       </c>
       <c r="AE66" s="104" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF66" s="38">
         <f>AF65/SIN(RADIANS(90+AF59))/100/$B$59</f>
@@ -50164,26 +50164,26 @@
       </c>
       <c r="W67" s="73"/>
       <c r="X67"/>
-      <c r="Y67" s="284" t="s">
-        <v>563</v>
-      </c>
-      <c r="Z67" s="295"/>
+      <c r="Y67" s="291" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z67" s="311"/>
       <c r="AA67" s="165" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AB67" s="3">
         <f>B76</f>
         <v>1.4</v>
       </c>
       <c r="AC67" s="165" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AD67" s="3">
         <f>B76</f>
         <v>1.4</v>
       </c>
       <c r="AE67" s="165" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF67" s="3">
         <f>B76</f>
@@ -50193,7 +50193,7 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="189"/>
       <c r="AJ67" s="201" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AK67" s="132">
         <v>11</v>
@@ -50507,7 +50507,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O68" s="3">
         <v>6.11</v>
@@ -50530,24 +50530,24 @@
         <v>0</v>
       </c>
       <c r="X68" s="73"/>
-      <c r="Y68" s="284" t="s">
-        <v>569</v>
-      </c>
-      <c r="Z68" s="295"/>
+      <c r="Y68" s="291" t="s">
+        <v>568</v>
+      </c>
+      <c r="Z68" s="311"/>
       <c r="AA68" s="166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AB68" s="163">
         <v>1</v>
       </c>
       <c r="AC68" s="166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AD68" s="163">
         <v>1</v>
       </c>
       <c r="AE68" s="166" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF68" s="163">
         <v>1</v>
@@ -50842,7 +50842,7 @@
         <v>0</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O69" s="3">
         <f>(COS(RADIANS(O65)))^2/(COS(RADIANS(O66)))^3</f>
@@ -50868,25 +50868,25 @@
         <f t="shared" si="132"/>
         <v>0</v>
       </c>
-      <c r="X69" s="284" t="s">
-        <v>564</v>
-      </c>
-      <c r="Y69" s="284"/>
-      <c r="Z69" s="295"/>
+      <c r="X69" s="291" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y69" s="291"/>
+      <c r="Z69" s="311"/>
       <c r="AA69" s="165" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AB69" s="164">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AC69" s="165" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AD69" s="164">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="AE69" s="165" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF69" s="164">
         <v>5.9999999999999995E-4</v>
@@ -51139,7 +51139,7 @@
     </row>
     <row r="70" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="159" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B70" s="160"/>
       <c r="C70" s="187"/>
@@ -51165,7 +51165,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O70" s="3">
         <f>O68^2*O69</f>
@@ -51195,37 +51195,37 @@
         <f t="shared" si="132"/>
         <v>3.1832167890308237E-3</v>
       </c>
-      <c r="X70" s="284" t="s">
-        <v>566</v>
-      </c>
-      <c r="Y70" s="284"/>
-      <c r="Z70" s="295"/>
+      <c r="X70" s="291" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y70" s="291"/>
+      <c r="Z70" s="311"/>
       <c r="AA70" s="165" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AB70" s="164">
         <f>AB69/$B$59/$B$60</f>
         <v>9.1612651514654961E-2</v>
       </c>
       <c r="AC70" s="165" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AD70" s="164">
         <f>AD69/$B$59/$B$60</f>
         <v>9.1612651514654961E-2</v>
       </c>
       <c r="AE70" s="165" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF70" s="164">
         <f>AF69/$B$59/$B$60</f>
         <v>9.1612651514654961E-2</v>
       </c>
       <c r="AG70" s="202"/>
-      <c r="AH70" s="294" t="s">
-        <v>761</v>
-      </c>
-      <c r="AI70" s="294"/>
+      <c r="AH70" s="301" t="s">
+        <v>760</v>
+      </c>
+      <c r="AI70" s="301"/>
       <c r="AK70">
         <v>14</v>
       </c>
@@ -51472,16 +51472,16 @@
     </row>
     <row r="71" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B71" s="3">
         <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F71" s="148" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G71" s="174">
         <f t="shared" si="111"/>
@@ -51504,13 +51504,13 @@
         <v>7.3699999999981766E-4</v>
       </c>
       <c r="N71" s="172" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O71" s="3">
         <v>14</v>
       </c>
       <c r="Q71" s="175" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R71" s="174">
         <f t="shared" si="114"/>
@@ -51556,8 +51556,8 @@
         <v>118.56742054402559</v>
       </c>
       <c r="AG71" s="2"/>
-      <c r="AH71" s="294"/>
-      <c r="AI71" s="294"/>
+      <c r="AH71" s="301"/>
+      <c r="AI71" s="301"/>
       <c r="AJ71" s="73"/>
       <c r="AK71">
         <v>15</v>
@@ -51805,7 +51805,7 @@
     </row>
     <row r="72" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B72" s="3">
         <f>B71*B59</f>
@@ -51836,7 +51836,7 @@
         <v>2.2109999999994669E-3</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O72" s="3">
         <f>O70*O58*O60/O59</f>
@@ -51866,25 +51866,25 @@
         <f t="shared" si="132"/>
         <v>1.5916083945154608E-2</v>
       </c>
-      <c r="X72" s="284" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y72" s="284"/>
-      <c r="Z72" s="295"/>
+      <c r="X72" s="291" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y72" s="291"/>
+      <c r="Z72" s="311"/>
       <c r="AA72" s="165" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AB72" s="3">
         <v>1.35</v>
       </c>
       <c r="AC72" s="165" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AD72" s="3">
         <v>1.35</v>
       </c>
       <c r="AE72" s="165" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF72" s="3">
         <v>1.335</v>
@@ -52144,13 +52144,13 @@
     </row>
     <row r="73" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B73" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D73" s="2"/>
       <c r="F73" s="32"/>
@@ -52199,27 +52199,27 @@
         <v>2.2282517523216014E-2</v>
       </c>
       <c r="W73" s="136"/>
-      <c r="X73" s="284" t="s">
-        <v>565</v>
-      </c>
-      <c r="Y73" s="284"/>
-      <c r="Z73" s="295"/>
+      <c r="X73" s="291" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y73" s="291"/>
+      <c r="Z73" s="311"/>
       <c r="AA73" s="165" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AB73" s="3">
         <f>0.95/100</f>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="AC73" s="165" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AD73" s="3">
         <f>0.95/100</f>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="AE73" s="165" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AF73" s="3">
         <f>0.95/100</f>
@@ -52480,7 +52480,7 @@
     </row>
     <row r="74" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B74">
         <f>B73</f>
@@ -52532,19 +52532,19 @@
       <c r="Y74" s="183"/>
       <c r="Z74" s="182"/>
       <c r="AA74" s="165" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AB74" s="3">
         <v>0.53</v>
       </c>
       <c r="AC74" s="165" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AD74" s="3">
         <v>0.53</v>
       </c>
       <c r="AE74" s="165" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AF74" s="3">
         <v>0.53</v>
@@ -52804,7 +52804,7 @@
     </row>
     <row r="75" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B75" s="3">
         <v>0.67</v>
@@ -52834,7 +52834,7 @@
         <v>6.6329999999984006E-3</v>
       </c>
       <c r="N75" s="169" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O75" s="170"/>
       <c r="P75" s="147"/>
@@ -53121,7 +53121,7 @@
     </row>
     <row r="76" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B76" s="3">
         <v>1.4</v>
@@ -53129,7 +53129,7 @@
       <c r="C76" s="187"/>
       <c r="D76" s="187"/>
       <c r="F76" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G76" s="171">
         <f t="shared" si="111"/>
@@ -53152,7 +53152,7 @@
         <v>8.1069999999980654E-3</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O76" s="3">
         <v>0.4</v>
@@ -53161,7 +53161,7 @@
         <v>198</v>
       </c>
       <c r="Q76" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R76" s="171">
         <f t="shared" si="114"/>
@@ -53429,7 +53429,7 @@
     </row>
     <row r="77" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="161" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B77" s="162"/>
       <c r="C77" s="140"/>
@@ -53460,14 +53460,14 @@
         <v>9.5809999999988179E-3</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O77" s="3">
         <f>O76*O59</f>
         <v>5.7575801161320848E-3</v>
       </c>
       <c r="P77" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q77">
         <f>ATAN(T77/S77)</f>
@@ -53494,7 +53494,7 @@
         <v>4.774825183549606E-2</v>
       </c>
       <c r="AJ77" s="201" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AK77">
         <v>21</v>
@@ -53715,7 +53715,7 @@
     </row>
     <row r="78" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="140" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B78" s="140">
         <f>B76*B75*B73</f>
@@ -53728,7 +53728,7 @@
         <v>3.6112999999992269E-2</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O78" s="3">
         <f>AL57+O77</f>
@@ -53748,7 +53748,7 @@
       <c r="AG78" s="147"/>
       <c r="AH78" s="147"/>
       <c r="AZ78" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="BA78">
         <f>SUM(BA57:BA76)</f>
@@ -53760,26 +53760,26 @@
     </row>
     <row r="79" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="159" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B79" s="160"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="G79" s="149" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H79" s="153"/>
       <c r="I79" s="153"/>
       <c r="J79" s="153"/>
       <c r="N79" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O79" s="3">
         <f>AL77-O77</f>
         <v>0.11454036531711279</v>
       </c>
       <c r="R79" s="149" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="S79" s="153"/>
       <c r="T79" s="153"/>
@@ -53791,7 +53791,7 @@
     </row>
     <row r="80" spans="1:147" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B80" s="3">
         <f>RADIANS(AX11-AY11)</f>
@@ -53807,7 +53807,7 @@
       <c r="I80" s="153"/>
       <c r="J80" s="153"/>
       <c r="N80" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O80" s="3">
         <f>O77/AK23</f>
@@ -53821,14 +53821,14 @@
       <c r="T80" s="153"/>
       <c r="U80" s="224"/>
       <c r="AZ80" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="BA80">
         <f>CG17</f>
         <v>0.7774823082743787</v>
       </c>
       <c r="BB80" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="BC80" s="140">
         <f>(BA78-BA80)/BA80*100</f>
@@ -53836,7 +53836,7 @@
       </c>
       <c r="BD80" s="140"/>
       <c r="CL80" s="108" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="CM80" s="109" t="e">
         <f ca="1">SUM(CK57:CK76)</f>
@@ -53847,7 +53847,7 @@
     </row>
     <row r="81" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B81" s="3">
         <f>AD61</f>
@@ -53856,7 +53856,7 @@
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="G81" s="152" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H81" s="154"/>
       <c r="I81" s="154"/>
@@ -53866,14 +53866,14 @@
       <c r="T81" s="154"/>
       <c r="U81" s="224"/>
       <c r="CL81" s="113" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="CM81" s="114">
         <f>CG13</f>
         <v>0.7774823082743787</v>
       </c>
       <c r="CN81" s="114" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="CO81" s="193" t="e">
         <f ca="1">(CM80-CM81)/CM81*100</f>
@@ -53882,7 +53882,7 @@
     </row>
     <row r="82" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B82" s="3">
         <f>B80/SQRT(B81)</f>
@@ -53904,13 +53904,13 @@
     </row>
     <row r="83" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B83" s="3">
         <v>0.05</v>
       </c>
       <c r="C83" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D83">
         <v>0.35</v>
@@ -53922,13 +53922,13 @@
     </row>
     <row r="84" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B84" s="3">
         <v>0.4</v>
       </c>
       <c r="C84" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D84">
         <v>0.35</v>
@@ -53937,7 +53937,7 @@
     </row>
     <row r="85" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B85" s="3">
         <f>D84/B61*B60</f>
@@ -53957,7 +53957,7 @@
     </row>
     <row r="86" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B86" s="3">
         <f>AL57+B85</f>
@@ -53966,8 +53966,8 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="U86" s="224"/>
-      <c r="AJ86" s="283" t="s">
-        <v>468</v>
+      <c r="AJ86" s="288" t="s">
+        <v>467</v>
       </c>
       <c r="AK86" t="s">
         <v>158</v>
@@ -53975,7 +53975,7 @@
     </row>
     <row r="87" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B87" s="3">
         <f>AL77-B85</f>
@@ -53984,7 +53984,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="U87" s="224"/>
-      <c r="AJ87" s="283"/>
+      <c r="AJ87" s="288"/>
       <c r="AU87" s="35"/>
       <c r="AV87" s="35"/>
       <c r="BH87" s="32"/>
@@ -53993,47 +53993,47 @@
     </row>
     <row r="88" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B88" s="3">
         <f>B85/AK23</f>
         <v>6.9999999999999938</v>
       </c>
-      <c r="AJ88" s="283"/>
+      <c r="AJ88" s="288"/>
       <c r="AK88" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AL88" s="40"/>
       <c r="AM88" s="40" t="s">
         <v>72</v>
       </c>
       <c r="AN88" s="37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AO88" s="37"/>
       <c r="AP88" s="37" t="s">
         <v>118</v>
       </c>
       <c r="AQ88" s="42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AR88" s="42"/>
       <c r="AS88" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AT88" s="43"/>
       <c r="AU88" s="43" t="s">
         <v>188</v>
       </c>
       <c r="AV88" s="37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AW88" s="37"/>
       <c r="AX88" s="37" t="s">
         <v>73</v>
       </c>
       <c r="AY88" s="41" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AZ88" s="41"/>
       <c r="BH88" s="32"/>
@@ -54056,7 +54056,7 @@
       </c>
     </row>
     <row r="89" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="AJ89" s="283"/>
+      <c r="AJ89" s="288"/>
       <c r="AK89" s="3" t="s">
         <v>159</v>
       </c>
@@ -54133,7 +54133,7 @@
       </c>
     </row>
     <row r="90" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="AJ90" s="283"/>
+      <c r="AJ90" s="288"/>
       <c r="AK90" s="3">
         <v>0</v>
       </c>
@@ -54194,7 +54194,7 @@
       <c r="BU90" s="32"/>
     </row>
     <row r="91" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="AJ91" s="283"/>
+      <c r="AJ91" s="288"/>
       <c r="AK91" s="63">
         <f>AN26</f>
         <v>768.22125433469159</v>
@@ -54266,7 +54266,7 @@
       </c>
     </row>
     <row r="92" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ92" s="283"/>
+      <c r="AJ92" s="288"/>
       <c r="AK92" s="32"/>
       <c r="AL92" s="32"/>
       <c r="AM92" s="32"/>
@@ -54302,7 +54302,7 @@
       </c>
     </row>
     <row r="93" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ93" s="283"/>
+      <c r="AJ93" s="288"/>
       <c r="AK93" s="55" t="s">
         <v>225</v>
       </c>
@@ -54349,7 +54349,7 @@
       <c r="BU93" s="78"/>
     </row>
     <row r="94" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="AJ94" s="283"/>
+      <c r="AJ94" s="288"/>
       <c r="AK94" s="60">
         <v>0</v>
       </c>
@@ -54584,8 +54584,8 @@
       <c r="BU102" s="73"/>
     </row>
     <row r="103" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ103" s="283" t="s">
-        <v>508</v>
+      <c r="AJ103" s="288" t="s">
+        <v>507</v>
       </c>
       <c r="AK103" t="s">
         <v>158</v>
@@ -54600,7 +54600,7 @@
       <c r="BU103" s="73"/>
     </row>
     <row r="104" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ104" s="283"/>
+      <c r="AJ104" s="288"/>
       <c r="AR104" s="35"/>
       <c r="AS104" s="35"/>
       <c r="BH104" s="32"/>
@@ -54613,41 +54613,41 @@
       <c r="BU104" s="73"/>
     </row>
     <row r="105" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ105" s="283"/>
+      <c r="AJ105" s="288"/>
       <c r="AK105" s="40" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AL105" s="40"/>
       <c r="AM105" s="40" t="s">
         <v>72</v>
       </c>
       <c r="AN105" s="37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AO105" s="37"/>
       <c r="AP105" s="37" t="s">
         <v>118</v>
       </c>
       <c r="AQ105" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AR105" s="42"/>
       <c r="AS105" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AT105" s="43"/>
       <c r="AU105" s="43" t="s">
         <v>188</v>
       </c>
       <c r="AV105" s="37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AW105" s="37"/>
       <c r="AX105" s="37" t="s">
         <v>73</v>
       </c>
       <c r="AY105" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AZ105" s="41"/>
       <c r="BH105" s="32"/>
@@ -54660,7 +54660,7 @@
       <c r="BU105" s="32"/>
     </row>
     <row r="106" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ106" s="283"/>
+      <c r="AJ106" s="288"/>
       <c r="AK106" s="3" t="s">
         <v>159</v>
       </c>
@@ -54727,7 +54727,7 @@
       <c r="BU106" s="32"/>
     </row>
     <row r="107" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ107" s="283"/>
+      <c r="AJ107" s="288"/>
       <c r="AK107" s="3">
         <v>0</v>
       </c>
@@ -54788,7 +54788,7 @@
       <c r="BU107" s="32"/>
     </row>
     <row r="108" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ108" s="283"/>
+      <c r="AJ108" s="288"/>
       <c r="AK108" s="63">
         <f>AN36</f>
         <v>736.43459771106996</v>
@@ -54851,7 +54851,7 @@
       <c r="BU108" s="71"/>
     </row>
     <row r="109" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ109" s="283"/>
+      <c r="AJ109" s="288"/>
       <c r="AK109" s="32"/>
       <c r="AL109" s="32"/>
       <c r="AM109" s="32"/>
@@ -54878,7 +54878,7 @@
       <c r="BU109" s="32"/>
     </row>
     <row r="110" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ110" s="283"/>
+      <c r="AJ110" s="288"/>
       <c r="AK110" s="55" t="s">
         <v>225</v>
       </c>
@@ -54925,7 +54925,7 @@
       <c r="BU110" s="78"/>
     </row>
     <row r="111" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ111" s="283"/>
+      <c r="AJ111" s="288"/>
       <c r="AK111" s="60">
         <v>0</v>
       </c>
@@ -55160,8 +55160,8 @@
       <c r="BU119" s="73"/>
     </row>
     <row r="120" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ120" s="283" t="s">
-        <v>509</v>
+      <c r="AJ120" s="288" t="s">
+        <v>508</v>
       </c>
       <c r="AK120" t="s">
         <v>158</v>
@@ -55176,7 +55176,7 @@
       <c r="BU120" s="73"/>
     </row>
     <row r="121" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ121" s="283"/>
+      <c r="AJ121" s="288"/>
       <c r="AR121" s="35"/>
       <c r="AS121" s="35"/>
       <c r="BH121" s="32"/>
@@ -55189,41 +55189,41 @@
       <c r="BU121" s="73"/>
     </row>
     <row r="122" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ122" s="283"/>
+      <c r="AJ122" s="288"/>
       <c r="AK122" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AL122" s="40"/>
       <c r="AM122" s="40" t="s">
         <v>72</v>
       </c>
       <c r="AN122" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AO122" s="37"/>
       <c r="AP122" s="37" t="s">
         <v>118</v>
       </c>
       <c r="AQ122" s="42" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AR122" s="42"/>
       <c r="AS122" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AT122" s="43"/>
       <c r="AU122" s="43" t="s">
         <v>188</v>
       </c>
       <c r="AV122" s="37" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AW122" s="37"/>
       <c r="AX122" s="37" t="s">
         <v>73</v>
       </c>
       <c r="AY122" s="41" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AZ122" s="41"/>
       <c r="BH122" s="32"/>
@@ -55236,7 +55236,7 @@
       <c r="BU122" s="32"/>
     </row>
     <row r="123" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ123" s="283"/>
+      <c r="AJ123" s="288"/>
       <c r="AK123" s="3" t="s">
         <v>159</v>
       </c>
@@ -55299,7 +55299,7 @@
       <c r="BU123" s="32"/>
     </row>
     <row r="124" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ124" s="283"/>
+      <c r="AJ124" s="288"/>
       <c r="AK124" s="3">
         <v>0</v>
       </c>
@@ -55360,7 +55360,7 @@
       <c r="BU124" s="32"/>
     </row>
     <row r="125" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ125" s="283"/>
+      <c r="AJ125" s="288"/>
       <c r="AK125" s="63">
         <f>AN46</f>
         <v>707.61315337357701</v>
@@ -55427,7 +55427,7 @@
       <c r="BU125" s="71"/>
     </row>
     <row r="126" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ126" s="283"/>
+      <c r="AJ126" s="288"/>
       <c r="AK126" s="32"/>
       <c r="AL126" s="32"/>
       <c r="AM126" s="32"/>
@@ -55454,7 +55454,7 @@
       <c r="BU126" s="32"/>
     </row>
     <row r="127" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ127" s="283"/>
+      <c r="AJ127" s="288"/>
       <c r="AK127" s="55" t="s">
         <v>225</v>
       </c>
@@ -55501,7 +55501,7 @@
       <c r="BU127" s="78"/>
     </row>
     <row r="128" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ128" s="283"/>
+      <c r="AJ128" s="288"/>
       <c r="AK128" s="60">
         <v>0</v>
       </c>
@@ -55565,34 +55565,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="CW54:DA54"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="BE55:BF55"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="AH39:AI40"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="AJ120:AJ128"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AJ86:AJ94"/>
-    <mergeCell ref="AJ103:AJ111"/>
     <mergeCell ref="AH70:AI71"/>
     <mergeCell ref="X72:Z72"/>
     <mergeCell ref="X73:Z73"/>
@@ -55609,6 +55581,34 @@
     <mergeCell ref="X69:Z69"/>
     <mergeCell ref="X70:Z70"/>
     <mergeCell ref="AE57:AF57"/>
+    <mergeCell ref="AJ120:AJ128"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AJ86:AJ94"/>
+    <mergeCell ref="AJ103:AJ111"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CW54:DA54"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="BE55:BF55"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="AH39:AI40"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y43:Z43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -55631,31 +55631,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C5" t="s">
         <v>114</v>
@@ -55663,10 +55663,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C6" t="s">
         <v>279</v>
@@ -55674,10 +55674,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C7" t="s">
         <v>279</v>
@@ -55685,10 +55685,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C8" t="s">
         <v>279</v>
@@ -55696,10 +55696,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B9" t="s">
         <v>722</v>
-      </c>
-      <c r="B9" t="s">
-        <v>723</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
@@ -55707,18 +55707,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="216" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C13" t="s">
         <v>121</v>
@@ -55726,10 +55726,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C14" t="s">
         <v>121</v>
@@ -55737,90 +55737,90 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="216" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="216" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>727</v>
+      </c>
+      <c r="B22" t="s">
         <v>728</v>
-      </c>
-      <c r="B22" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="216" t="s">
+        <v>734</v>
+      </c>
+      <c r="B23" t="s">
         <v>735</v>
-      </c>
-      <c r="B23" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B30" t="s">
         <v>335</v>
@@ -55831,7 +55831,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -55839,7 +55839,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -55847,31 +55847,31 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B34" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>744</v>
+      </c>
+      <c r="B35" t="s">
         <v>745</v>
-      </c>
-      <c r="B35" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -55879,7 +55879,7 @@
         <v>183</v>
       </c>
       <c r="B37" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/refs_jorge_june/Saavedra_Garcia_automobile_gas_generator_v2.xlsx
+++ b/refs_jorge_june/Saavedra_Garcia_automobile_gas_generator_v2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A489ACE-FE61-48A9-87AC-5329E9E9070B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E22300-A331-440B-888B-6EC6ADA5985C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4185,6 +4185,72 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4192,9 +4258,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4221,67 +4284,19 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4296,61 +4311,25 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4365,7 +4344,28 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -25484,8 +25484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25526,27 +25526,27 @@
       <c r="B1" s="246"/>
       <c r="C1" s="247"/>
       <c r="D1" s="78"/>
-      <c r="E1" s="267" t="s">
+      <c r="E1" s="272" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="I1" s="267" t="s">
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="I1" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="M1" s="268" t="s">
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="M1" s="263" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
-      <c r="R1" s="268"/>
-      <c r="S1" s="268"/>
-      <c r="T1" s="268"/>
-      <c r="U1" s="268"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="263"/>
+      <c r="T1" s="263"/>
+      <c r="U1" s="263"/>
       <c r="V1" s="79"/>
       <c r="W1" s="79"/>
     </row>
@@ -25927,11 +25927,11 @@
       <c r="AQ7" s="35"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="255" t="s">
+      <c r="A8" s="276" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="255"/>
-      <c r="C8" s="255"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="276"/>
       <c r="D8" s="78"/>
       <c r="F8" t="s">
         <v>370</v>
@@ -26353,31 +26353,31 @@
       <c r="B17" s="36"/>
       <c r="C17" s="2"/>
       <c r="D17" s="32"/>
-      <c r="F17" s="251" t="s">
+      <c r="F17" s="273" t="s">
         <v>237</v>
       </c>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="J17" s="252" t="s">
+      <c r="G17" s="273"/>
+      <c r="H17" s="273"/>
+      <c r="J17" s="274" t="s">
         <v>239</v>
       </c>
-      <c r="K17" s="252"/>
-      <c r="L17" s="252"/>
-      <c r="N17" s="253" t="s">
+      <c r="K17" s="274"/>
+      <c r="L17" s="274"/>
+      <c r="N17" s="275" t="s">
         <v>253</v>
       </c>
-      <c r="O17" s="253"/>
-      <c r="P17" s="253"/>
-      <c r="R17" s="265" t="s">
+      <c r="O17" s="275"/>
+      <c r="P17" s="275"/>
+      <c r="R17" s="270" t="s">
         <v>242</v>
       </c>
-      <c r="S17" s="265"/>
-      <c r="T17" s="265"/>
-      <c r="V17" s="266" t="s">
+      <c r="S17" s="270"/>
+      <c r="T17" s="270"/>
+      <c r="V17" s="271" t="s">
         <v>243</v>
       </c>
-      <c r="W17" s="266"/>
-      <c r="X17" s="266"/>
+      <c r="W17" s="271"/>
+      <c r="X17" s="271"/>
       <c r="AA17" s="32"/>
       <c r="AB17" s="32"/>
       <c r="AC17" s="32"/>
@@ -26396,11 +26396,11 @@
       <c r="AP17" s="32"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" s="256" t="s">
+      <c r="A18" s="277" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="256"/>
-      <c r="C18" s="256"/>
+      <c r="B18" s="277"/>
+      <c r="C18" s="277"/>
       <c r="D18" s="78"/>
       <c r="F18" s="10" t="s">
         <v>7</v>
@@ -26654,11 +26654,11 @@
       <c r="X21" s="5"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="257" t="s">
+      <c r="A22" s="278" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="257"/>
-      <c r="C22" s="257"/>
+      <c r="B22" s="278"/>
+      <c r="C22" s="278"/>
       <c r="D22" s="78"/>
       <c r="F22" s="9" t="s">
         <v>212</v>
@@ -26933,11 +26933,11 @@
       <c r="X26" s="8"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="257" t="s">
+      <c r="A27" s="278" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="257"/>
-      <c r="C27" s="257"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="278"/>
       <c r="D27" s="78"/>
       <c r="F27" s="9" t="str">
         <f t="shared" ref="F27:H30" si="0">E99</f>
@@ -27264,11 +27264,11 @@
       </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="254" t="s">
+      <c r="A32" s="269" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="254"/>
-      <c r="C32" s="254"/>
+      <c r="B32" s="269"/>
+      <c r="C32" s="269"/>
       <c r="D32" s="78"/>
       <c r="E32" s="71"/>
       <c r="J32" s="9" t="s">
@@ -27361,11 +27361,11 @@
       <c r="P34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R34" s="269" t="s">
+      <c r="R34" s="264" t="s">
         <v>698</v>
       </c>
-      <c r="S34" s="270"/>
-      <c r="T34" s="271"/>
+      <c r="S34" s="265"/>
+      <c r="T34" s="266"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -27771,11 +27771,11 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="254" t="s">
+      <c r="A45" s="269" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="254"/>
-      <c r="C45" s="254"/>
+      <c r="B45" s="269"/>
+      <c r="C45" s="269"/>
       <c r="D45" s="78"/>
       <c r="J45" s="9" t="s">
         <v>147</v>
@@ -27883,11 +27883,11 @@
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="258" t="s">
+      <c r="A48" s="279" t="s">
         <v>305</v>
       </c>
-      <c r="B48" s="259"/>
-      <c r="C48" s="260"/>
+      <c r="B48" s="280"/>
+      <c r="C48" s="281"/>
       <c r="D48" s="78"/>
       <c r="J48" s="9"/>
       <c r="K48" s="34"/>
@@ -28194,11 +28194,11 @@
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="261" t="s">
+      <c r="A58" s="282" t="s">
         <v>317</v>
       </c>
-      <c r="B58" s="261"/>
-      <c r="C58" s="261"/>
+      <c r="B58" s="282"/>
+      <c r="C58" s="282"/>
       <c r="N58" s="9" t="s">
         <v>520</v>
       </c>
@@ -28242,11 +28242,11 @@
       <c r="P60" s="5"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="262" t="s">
+      <c r="A61" s="283" t="s">
         <v>319</v>
       </c>
-      <c r="B61" s="262"/>
-      <c r="C61" s="262"/>
+      <c r="B61" s="283"/>
+      <c r="C61" s="283"/>
       <c r="N61" s="9" t="s">
         <v>613</v>
       </c>
@@ -28257,11 +28257,11 @@
       <c r="P61" s="5"/>
     </row>
     <row r="62" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="263" t="s">
+      <c r="A62" s="257" t="s">
         <v>299</v>
       </c>
-      <c r="B62" s="263"/>
-      <c r="C62" s="264"/>
+      <c r="B62" s="257"/>
+      <c r="C62" s="258"/>
       <c r="E62" t="s">
         <v>144</v>
       </c>
@@ -28299,11 +28299,11 @@
         <f>B70*B79*B126</f>
         <v>0.7774823082743787</v>
       </c>
-      <c r="M63" s="272" t="s">
+      <c r="M63" s="267" t="s">
         <v>302</v>
       </c>
-      <c r="N63" s="272"/>
-      <c r="O63" s="272"/>
+      <c r="N63" s="267"/>
+      <c r="O63" s="267"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -28320,11 +28320,11 @@
         <f>B40*(B19/B41)^U2</f>
         <v>1022.3999406809887</v>
       </c>
-      <c r="M64" s="273" t="s">
+      <c r="M64" s="268" t="s">
         <v>779</v>
       </c>
-      <c r="N64" s="273"/>
-      <c r="O64" s="273"/>
+      <c r="N64" s="268"/>
+      <c r="O64" s="268"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
@@ -28454,11 +28454,11 @@
         <v>114</v>
       </c>
       <c r="D71" s="78"/>
-      <c r="M71" s="273" t="s">
+      <c r="M71" s="268" t="s">
         <v>303</v>
       </c>
-      <c r="N71" s="273"/>
-      <c r="O71" s="273"/>
+      <c r="N71" s="268"/>
+      <c r="O71" s="268"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
@@ -28558,11 +28558,11 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="254" t="s">
+      <c r="A78" s="269" t="s">
         <v>135</v>
       </c>
-      <c r="B78" s="254"/>
-      <c r="C78" s="254"/>
+      <c r="B78" s="269"/>
+      <c r="C78" s="269"/>
       <c r="D78" s="32"/>
       <c r="F78" t="s">
         <v>321</v>
@@ -28691,11 +28691,11 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="254" t="s">
+      <c r="A82" s="269" t="s">
         <v>332</v>
       </c>
-      <c r="B82" s="254"/>
-      <c r="C82" s="254"/>
+      <c r="B82" s="269"/>
+      <c r="C82" s="269"/>
       <c r="D82" s="32"/>
       <c r="E82" s="35">
         <f>E81-E80</f>
@@ -28824,11 +28824,11 @@
       <c r="D86" s="78"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="279" t="s">
+      <c r="A87" s="256" t="s">
         <v>300</v>
       </c>
-      <c r="B87" s="263"/>
-      <c r="C87" s="264"/>
+      <c r="B87" s="257"/>
+      <c r="C87" s="258"/>
       <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
@@ -28884,11 +28884,11 @@
       <c r="D91" s="32"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="279" t="s">
+      <c r="A92" s="256" t="s">
         <v>329</v>
       </c>
-      <c r="B92" s="263"/>
-      <c r="C92" s="263"/>
+      <c r="B92" s="257"/>
+      <c r="C92" s="257"/>
       <c r="D92" s="32"/>
       <c r="E92" s="2"/>
     </row>
@@ -28948,17 +28948,17 @@
       <c r="D97" s="32"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="263" t="s">
+      <c r="A98" s="257" t="s">
         <v>180</v>
       </c>
-      <c r="B98" s="263"/>
-      <c r="C98" s="263"/>
+      <c r="B98" s="257"/>
+      <c r="C98" s="257"/>
       <c r="D98" s="32"/>
-      <c r="E98" s="263" t="s">
+      <c r="E98" s="257" t="s">
         <v>469</v>
       </c>
-      <c r="F98" s="263"/>
-      <c r="G98" s="263"/>
+      <c r="F98" s="257"/>
+      <c r="G98" s="257"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
@@ -29179,13 +29179,13 @@
         <v>217</v>
       </c>
       <c r="B111"/>
-      <c r="E111" s="280" t="s">
+      <c r="E111" s="259" t="s">
         <v>218</v>
       </c>
-      <c r="F111" s="280"/>
-      <c r="G111" s="280"/>
-      <c r="H111" s="280"/>
-      <c r="I111" s="280"/>
+      <c r="F111" s="259"/>
+      <c r="G111" s="259"/>
+      <c r="H111" s="259"/>
+      <c r="I111" s="259"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -29334,15 +29334,15 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="281" t="s">
+      <c r="A123" s="260" t="s">
         <v>181</v>
       </c>
-      <c r="B123" s="281"/>
-      <c r="H123" s="268" t="s">
+      <c r="B123" s="260"/>
+      <c r="H123" s="263" t="s">
         <v>487</v>
       </c>
-      <c r="I123" s="268"/>
-      <c r="J123" s="268"/>
+      <c r="I123" s="263"/>
+      <c r="J123" s="263"/>
     </row>
     <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
@@ -29353,11 +29353,11 @@
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="32"/>
-      <c r="H124" s="276" t="s">
+      <c r="H124" s="253" t="s">
         <v>488</v>
       </c>
-      <c r="I124" s="276"/>
-      <c r="J124" s="276"/>
+      <c r="I124" s="253"/>
+      <c r="J124" s="253"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
@@ -29618,16 +29618,16 @@
       <c r="D138" s="32"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="282" t="s">
+      <c r="A139" s="261" t="s">
         <v>186</v>
       </c>
-      <c r="B139" s="282"/>
+      <c r="B139" s="261"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="283" t="s">
+      <c r="A140" s="262" t="s">
         <v>304</v>
       </c>
-      <c r="B140" s="283"/>
+      <c r="B140" s="262"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
@@ -29666,10 +29666,10 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="274" t="s">
+      <c r="A145" s="251" t="s">
         <v>187</v>
       </c>
-      <c r="B145" s="275"/>
+      <c r="B145" s="252"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
@@ -29708,10 +29708,10 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="277" t="s">
+      <c r="A150" s="254" t="s">
         <v>259</v>
       </c>
-      <c r="B150" s="278"/>
+      <c r="B150" s="255"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
@@ -29938,10 +29938,10 @@
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="251" t="s">
+      <c r="A168" s="273" t="s">
         <v>339</v>
       </c>
-      <c r="B168" s="251"/>
+      <c r="B168" s="273"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -30777,28 +30777,6 @@
     <row r="217" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="E111:I111"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="M63:O63"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M71:O71"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:U1"/>
     <mergeCell ref="A168:B168"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F17:H17"/>
@@ -30815,6 +30793,28 @@
     <mergeCell ref="A58:C58"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A62:C62"/>
+    <mergeCell ref="R17:T17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:U1"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="M63:O63"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M71:O71"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="E111:I111"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H123:J123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -30866,17 +30866,17 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
-      <c r="F1" s="269" t="s">
+      <c r="F1" s="264" t="s">
         <v>432</v>
       </c>
-      <c r="G1" s="270"/>
-      <c r="H1" s="271"/>
-      <c r="I1" s="285" t="s">
+      <c r="G1" s="265"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="290" t="s">
         <v>422</v>
       </c>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="287"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="292"/>
       <c r="N1" s="108" t="s">
         <v>476</v>
       </c>
@@ -30974,26 +30974,26 @@
         <f>'1D Analysis'!Q2</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AG3" s="294" t="s">
+      <c r="AG3" s="288" t="s">
         <v>412</v>
       </c>
-      <c r="AH3" s="294"/>
-      <c r="AI3" s="294"/>
-      <c r="AJ3" s="293" t="s">
+      <c r="AH3" s="288"/>
+      <c r="AI3" s="288"/>
+      <c r="AJ3" s="287" t="s">
         <v>413</v>
       </c>
-      <c r="AK3" s="293"/>
-      <c r="AL3" s="293"/>
-      <c r="AM3" s="292" t="s">
+      <c r="AK3" s="287"/>
+      <c r="AL3" s="287"/>
+      <c r="AM3" s="286" t="s">
         <v>414</v>
       </c>
-      <c r="AN3" s="292"/>
-      <c r="AO3" s="292"/>
-      <c r="AP3" s="284" t="s">
+      <c r="AN3" s="286"/>
+      <c r="AO3" s="286"/>
+      <c r="AP3" s="289" t="s">
         <v>415</v>
       </c>
-      <c r="AQ3" s="284"/>
-      <c r="AR3" s="284"/>
+      <c r="AQ3" s="289"/>
+      <c r="AR3" s="289"/>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="str">
@@ -31890,11 +31890,11 @@
       </c>
     </row>
     <row r="15" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="265" t="s">
+      <c r="A15" s="270" t="s">
         <v>442</v>
       </c>
-      <c r="B15" s="265"/>
-      <c r="C15" s="265"/>
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
       <c r="F15" s="123" t="s">
         <v>275</v>
       </c>
@@ -31955,11 +31955,11 @@
       </c>
     </row>
     <row r="16" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="285" t="s">
         <v>443</v>
       </c>
-      <c r="B16" s="291"/>
-      <c r="C16" s="291"/>
+      <c r="B16" s="285"/>
+      <c r="C16" s="285"/>
       <c r="D16" t="s">
         <v>444</v>
       </c>
@@ -34640,17 +34640,17 @@
       </c>
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="N52" s="289" t="e">
+      <c r="N52" s="293" t="e">
         <f>NISRE!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O52" s="289"/>
-      <c r="P52" s="289"/>
-      <c r="Q52" s="290" t="s">
+      <c r="O52" s="293"/>
+      <c r="P52" s="293"/>
+      <c r="Q52" s="294" t="s">
         <v>486</v>
       </c>
-      <c r="R52" s="290"/>
-      <c r="S52" s="290"/>
+      <c r="R52" s="294"/>
+      <c r="S52" s="294"/>
       <c r="T52">
         <f>L9</f>
         <v>254.08869342764129</v>
@@ -37509,7 +37509,7 @@
       <c r="AE78" s="73"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="288" t="s">
+      <c r="A83" s="284" t="s">
         <v>467</v>
       </c>
       <c r="B83" t="s">
@@ -37517,12 +37517,12 @@
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="288"/>
+      <c r="A84" s="284"/>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="288"/>
+      <c r="A85" s="284"/>
       <c r="B85" s="40" t="s">
         <v>653</v>
       </c>
@@ -37561,7 +37561,7 @@
       <c r="Q85" s="41"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="288"/>
+      <c r="A86" s="284"/>
       <c r="B86" s="3" t="s">
         <v>159</v>
       </c>
@@ -37620,7 +37620,7 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="288"/>
+      <c r="A87" s="284"/>
       <c r="B87" s="3">
         <v>0</v>
       </c>
@@ -37671,7 +37671,7 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="288"/>
+      <c r="A88" s="284"/>
       <c r="B88" s="63">
         <f>E26</f>
         <v>766.42539896919243</v>
@@ -37726,7 +37726,7 @@
       </c>
     </row>
     <row r="89" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="288"/>
+      <c r="A89" s="284"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
       <c r="D89" s="32"/>
@@ -37745,7 +37745,7 @@
       <c r="Q89" s="32"/>
     </row>
     <row r="90" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="288"/>
+      <c r="A90" s="284"/>
       <c r="B90" s="55" t="s">
         <v>225</v>
       </c>
@@ -37784,7 +37784,7 @@
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="288"/>
+      <c r="A91" s="284"/>
       <c r="B91" s="60">
         <v>0</v>
       </c>
@@ -37939,7 +37939,7 @@
       <c r="M98" s="137"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="288" t="s">
+      <c r="A100" s="284" t="s">
         <v>507</v>
       </c>
       <c r="B100" t="s">
@@ -37947,12 +37947,12 @@
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="288"/>
+      <c r="A101" s="284"/>
       <c r="H101" s="35"/>
       <c r="I101" s="35"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="288"/>
+      <c r="A102" s="284"/>
       <c r="B102" s="40" t="s">
         <v>647</v>
       </c>
@@ -37991,7 +37991,7 @@
       <c r="Q102" s="41"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="288"/>
+      <c r="A103" s="284"/>
       <c r="B103" s="3" t="s">
         <v>159</v>
       </c>
@@ -38050,7 +38050,7 @@
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="288"/>
+      <c r="A104" s="284"/>
       <c r="B104" s="3">
         <v>0</v>
       </c>
@@ -38101,7 +38101,7 @@
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="288"/>
+      <c r="A105" s="284"/>
       <c r="B105" s="63">
         <f>E36</f>
         <v>736.43459771106996</v>
@@ -38156,7 +38156,7 @@
       </c>
     </row>
     <row r="106" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="288"/>
+      <c r="A106" s="284"/>
       <c r="B106" s="32"/>
       <c r="C106" s="32"/>
       <c r="D106" s="32"/>
@@ -38175,7 +38175,7 @@
       <c r="Q106" s="32"/>
     </row>
     <row r="107" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="288"/>
+      <c r="A107" s="284"/>
       <c r="B107" s="55" t="s">
         <v>225</v>
       </c>
@@ -38214,7 +38214,7 @@
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="288"/>
+      <c r="A108" s="284"/>
       <c r="B108" s="60">
         <v>0</v>
       </c>
@@ -38369,7 +38369,7 @@
       <c r="M115" s="137"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="288" t="s">
+      <c r="A117" s="284" t="s">
         <v>508</v>
       </c>
       <c r="B117" t="s">
@@ -38377,12 +38377,12 @@
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="288"/>
+      <c r="A118" s="284"/>
       <c r="H118" s="35"/>
       <c r="I118" s="35"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="288"/>
+      <c r="A119" s="284"/>
       <c r="B119" s="40" t="s">
         <v>659</v>
       </c>
@@ -38421,7 +38421,7 @@
       <c r="Q119" s="41"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="288"/>
+      <c r="A120" s="284"/>
       <c r="B120" s="3" t="s">
         <v>159</v>
       </c>
@@ -38476,7 +38476,7 @@
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="288"/>
+      <c r="A121" s="284"/>
       <c r="B121" s="3">
         <v>0</v>
       </c>
@@ -38529,7 +38529,7 @@
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="288"/>
+      <c r="A122" s="284"/>
       <c r="B122" s="63">
         <f>E46</f>
         <v>709.23797980811491</v>
@@ -38588,7 +38588,7 @@
       </c>
     </row>
     <row r="123" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="288"/>
+      <c r="A123" s="284"/>
       <c r="B123" s="32"/>
       <c r="C123" s="32"/>
       <c r="D123" s="32"/>
@@ -38607,7 +38607,7 @@
       <c r="Q123" s="32"/>
     </row>
     <row r="124" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="288"/>
+      <c r="A124" s="284"/>
       <c r="B124" s="55" t="s">
         <v>225</v>
       </c>
@@ -38646,7 +38646,7 @@
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="288"/>
+      <c r="A125" s="284"/>
       <c r="B125" s="60">
         <v>0</v>
       </c>
@@ -38697,12 +38697,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A117:A125"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="F1:H1"/>
@@ -38710,6 +38704,12 @@
     <mergeCell ref="A100:A108"/>
     <mergeCell ref="N52:P52"/>
     <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="A117:A125"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38784,17 +38784,17 @@
       </c>
       <c r="AK1" s="11"/>
       <c r="AL1" s="12"/>
-      <c r="AS1" s="269" t="s">
+      <c r="AS1" s="264" t="s">
         <v>432</v>
       </c>
-      <c r="AT1" s="270"/>
-      <c r="AU1" s="271"/>
-      <c r="AV1" s="285" t="s">
+      <c r="AT1" s="265"/>
+      <c r="AU1" s="266"/>
+      <c r="AV1" s="290" t="s">
         <v>422</v>
       </c>
-      <c r="AW1" s="286"/>
-      <c r="AX1" s="286"/>
-      <c r="AY1" s="287"/>
+      <c r="AW1" s="291"/>
+      <c r="AX1" s="291"/>
+      <c r="AY1" s="292"/>
       <c r="BA1" s="108" t="s">
         <v>476</v>
       </c>
@@ -38898,26 +38898,26 @@
       </c>
       <c r="BC3" s="2"/>
       <c r="BD3" s="2"/>
-      <c r="CF3" s="306" t="s">
+      <c r="CF3" s="305" t="s">
         <v>412</v>
       </c>
-      <c r="CG3" s="306"/>
-      <c r="CH3" s="306"/>
-      <c r="CI3" s="293" t="s">
+      <c r="CG3" s="305"/>
+      <c r="CH3" s="305"/>
+      <c r="CI3" s="287" t="s">
         <v>413</v>
       </c>
-      <c r="CJ3" s="293"/>
-      <c r="CK3" s="293"/>
-      <c r="CL3" s="292" t="s">
+      <c r="CJ3" s="287"/>
+      <c r="CK3" s="287"/>
+      <c r="CL3" s="286" t="s">
         <v>414</v>
       </c>
-      <c r="CM3" s="292"/>
-      <c r="CN3" s="292"/>
-      <c r="CO3" s="305" t="s">
+      <c r="CM3" s="286"/>
+      <c r="CN3" s="286"/>
+      <c r="CO3" s="304" t="s">
         <v>415</v>
       </c>
-      <c r="CP3" s="305"/>
-      <c r="CQ3" s="305"/>
+      <c r="CP3" s="304"/>
+      <c r="CQ3" s="304"/>
     </row>
     <row r="4" spans="36:95" x14ac:dyDescent="0.25">
       <c r="AJ4" s="9" t="str">
@@ -39810,11 +39810,11 @@
       <c r="CQ14" s="112"/>
     </row>
     <row r="15" spans="36:95" x14ac:dyDescent="0.25">
-      <c r="AJ15" s="265" t="s">
+      <c r="AJ15" s="270" t="s">
         <v>442</v>
       </c>
-      <c r="AK15" s="265"/>
-      <c r="AL15" s="265"/>
+      <c r="AK15" s="270"/>
+      <c r="AL15" s="270"/>
       <c r="AP15" s="3" t="s">
         <v>35</v>
       </c>
@@ -39879,11 +39879,11 @@
       <c r="CQ15" s="112"/>
     </row>
     <row r="16" spans="36:95" x14ac:dyDescent="0.25">
-      <c r="AJ16" s="291" t="s">
+      <c r="AJ16" s="285" t="s">
         <v>443</v>
       </c>
-      <c r="AK16" s="291"/>
-      <c r="AL16" s="291"/>
+      <c r="AK16" s="285"/>
+      <c r="AL16" s="285"/>
       <c r="AM16" t="s">
         <v>444</v>
       </c>
@@ -40417,17 +40417,17 @@
       <c r="F25" t="s">
         <v>588</v>
       </c>
-      <c r="G25" s="307" t="s">
+      <c r="G25" s="300" t="s">
         <v>585</v>
       </c>
-      <c r="H25" s="308"/>
-      <c r="I25" s="308"/>
-      <c r="J25" s="308"/>
-      <c r="K25" s="308"/>
-      <c r="Y25" s="291" t="s">
+      <c r="H25" s="301"/>
+      <c r="I25" s="301"/>
+      <c r="J25" s="301"/>
+      <c r="K25" s="301"/>
+      <c r="Y25" s="285" t="s">
         <v>628</v>
       </c>
-      <c r="Z25" s="291"/>
+      <c r="Z25" s="285"/>
       <c r="AA25" s="1" t="s">
         <v>72</v>
       </c>
@@ -40634,10 +40634,10 @@
       <c r="DC25" s="73"/>
     </row>
     <row r="26" spans="1:133" x14ac:dyDescent="0.25">
-      <c r="A26" s="299" t="s">
+      <c r="A26" s="308" t="s">
         <v>532</v>
       </c>
-      <c r="B26" s="300"/>
+      <c r="B26" s="309"/>
       <c r="C26" s="186"/>
       <c r="D26" s="186"/>
       <c r="E26" s="146"/>
@@ -40665,18 +40665,18 @@
         <f>(J26+J27)/2*(G27-G26)</f>
         <v>3.7968749999997302E-3</v>
       </c>
-      <c r="AA26" s="302" t="s">
+      <c r="AA26" s="310" t="s">
         <v>757</v>
       </c>
-      <c r="AB26" s="303"/>
-      <c r="AC26" s="302" t="s">
+      <c r="AB26" s="311"/>
+      <c r="AC26" s="310" t="s">
         <v>758</v>
       </c>
-      <c r="AD26" s="303"/>
-      <c r="AE26" s="302" t="s">
+      <c r="AD26" s="311"/>
+      <c r="AE26" s="310" t="s">
         <v>759</v>
       </c>
-      <c r="AF26" s="303"/>
+      <c r="AF26" s="311"/>
       <c r="AG26" s="146"/>
       <c r="AH26" s="146"/>
       <c r="AJ26" s="201" t="s">
@@ -41996,10 +41996,10 @@
         <f t="shared" si="31"/>
         <v>1.2656249999998205E-3</v>
       </c>
-      <c r="Y31" s="291" t="s">
+      <c r="Y31" s="285" t="s">
         <v>569</v>
       </c>
-      <c r="Z31" s="304"/>
+      <c r="Z31" s="297"/>
       <c r="AA31" s="165" t="s">
         <v>526</v>
       </c>
@@ -42853,10 +42853,10 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="291" t="s">
+      <c r="Y34" s="285" t="s">
         <v>569</v>
       </c>
-      <c r="Z34" s="291"/>
+      <c r="Z34" s="285"/>
       <c r="AA34" s="166" t="s">
         <v>590</v>
       </c>
@@ -43441,10 +43441,10 @@
       <c r="V36" s="73"/>
       <c r="W36" s="73"/>
       <c r="X36" s="73"/>
-      <c r="Y36" s="291" t="s">
+      <c r="Y36" s="285" t="s">
         <v>562</v>
       </c>
-      <c r="Z36" s="304"/>
+      <c r="Z36" s="297"/>
       <c r="AA36" s="165" t="s">
         <v>556</v>
       </c>
@@ -43742,10 +43742,10 @@
         <f t="shared" ref="K37" si="54">(J37+J36)/2*(G37-G36)*SUM($I$36:$I$46)</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="291" t="s">
+      <c r="Y37" s="285" t="s">
         <v>568</v>
       </c>
-      <c r="Z37" s="304"/>
+      <c r="Z37" s="297"/>
       <c r="AA37" s="166" t="s">
         <v>557</v>
       </c>
@@ -44008,10 +44008,10 @@
       <c r="EC37" s="73"/>
     </row>
     <row r="38" spans="1:143" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="299" t="s">
+      <c r="A38" s="308" t="s">
         <v>533</v>
       </c>
-      <c r="B38" s="300"/>
+      <c r="B38" s="309"/>
       <c r="C38" s="186"/>
       <c r="D38" s="186"/>
       <c r="E38" s="146"/>
@@ -44039,10 +44039,10 @@
         <f t="shared" ref="K38:K45" si="62">(J38+J37)/2*(G38-G37)</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="291" t="s">
+      <c r="Y38" s="285" t="s">
         <v>563</v>
       </c>
-      <c r="Z38" s="304"/>
+      <c r="Z38" s="297"/>
       <c r="AA38" s="168" t="s">
         <v>561</v>
       </c>
@@ -44308,10 +44308,10 @@
         <f t="shared" si="62"/>
         <v>2.5312499999996171E-4</v>
       </c>
-      <c r="Y39" s="291" t="s">
+      <c r="Y39" s="285" t="s">
         <v>565</v>
       </c>
-      <c r="Z39" s="304"/>
+      <c r="Z39" s="297"/>
       <c r="AA39" s="165" t="s">
         <v>567</v>
       </c>
@@ -44334,10 +44334,10 @@
         <v>8.5565759378543174E-2</v>
       </c>
       <c r="AG39" s="202"/>
-      <c r="AH39" s="301" t="s">
+      <c r="AH39" s="295" t="s">
         <v>760</v>
       </c>
-      <c r="AI39" s="301"/>
+      <c r="AI39" s="295"/>
       <c r="AJ39" s="73"/>
       <c r="AK39">
         <v>14</v>
@@ -44603,8 +44603,8 @@
         <v>1.8</v>
       </c>
       <c r="AG40" s="2"/>
-      <c r="AH40" s="301"/>
-      <c r="AI40" s="301"/>
+      <c r="AH40" s="295"/>
+      <c r="AI40" s="295"/>
       <c r="AK40">
         <v>15</v>
       </c>
@@ -45393,10 +45393,10 @@
         <f t="shared" si="62"/>
         <v>2.2781249999997261E-3</v>
       </c>
-      <c r="Y43" s="291" t="s">
+      <c r="Y43" s="285" t="s">
         <v>564</v>
       </c>
-      <c r="Z43" s="304"/>
+      <c r="Z43" s="297"/>
       <c r="AA43" s="165" t="s">
         <v>560</v>
       </c>
@@ -46564,11 +46564,11 @@
       <c r="BY54" s="73"/>
       <c r="BZ54" s="73"/>
       <c r="CA54" s="73"/>
-      <c r="CW54" s="291"/>
-      <c r="CX54" s="291"/>
-      <c r="CY54" s="291"/>
-      <c r="CZ54" s="291"/>
-      <c r="DA54" s="291"/>
+      <c r="CW54" s="285"/>
+      <c r="CX54" s="285"/>
+      <c r="CY54" s="285"/>
+      <c r="CZ54" s="285"/>
+      <c r="DA54" s="285"/>
     </row>
     <row r="55" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -46590,10 +46590,10 @@
       <c r="V55" t="s">
         <v>761</v>
       </c>
-      <c r="Y55" s="288" t="s">
+      <c r="Y55" s="284" t="s">
         <v>627</v>
       </c>
-      <c r="Z55" s="288"/>
+      <c r="Z55" s="284"/>
       <c r="AA55" s="1" t="s">
         <v>118</v>
       </c>
@@ -46619,10 +46619,10 @@
         <f>AY9</f>
         <v>254.08869342764129</v>
       </c>
-      <c r="BE55" s="253" t="s">
+      <c r="BE55" s="275" t="s">
         <v>622</v>
       </c>
-      <c r="BF55" s="253"/>
+      <c r="BF55" s="275"/>
       <c r="BG55" s="209"/>
       <c r="BH55" s="210" t="s">
         <v>637</v>
@@ -46665,22 +46665,22 @@
       <c r="F56" t="s">
         <v>588</v>
       </c>
-      <c r="G56" s="309" t="s">
+      <c r="G56" s="302" t="s">
         <v>584</v>
       </c>
-      <c r="H56" s="310"/>
-      <c r="I56" s="310"/>
-      <c r="J56" s="310"/>
-      <c r="K56" s="310"/>
-      <c r="R56" s="309" t="s">
+      <c r="H56" s="303"/>
+      <c r="I56" s="303"/>
+      <c r="J56" s="303"/>
+      <c r="K56" s="303"/>
+      <c r="R56" s="302" t="s">
         <v>583</v>
       </c>
-      <c r="S56" s="310"/>
-      <c r="T56" s="310"/>
-      <c r="U56" s="310"/>
-      <c r="V56" s="310"/>
-      <c r="Y56" s="288"/>
-      <c r="Z56" s="288"/>
+      <c r="S56" s="303"/>
+      <c r="T56" s="303"/>
+      <c r="U56" s="303"/>
+      <c r="V56" s="303"/>
+      <c r="Y56" s="284"/>
+      <c r="Z56" s="284"/>
       <c r="AA56" s="1" t="s">
         <v>73</v>
       </c>
@@ -46920,10 +46920,10 @@
         <f>(J57+J58)/2*(G58-G57)</f>
         <v>9.5809999999988179E-3</v>
       </c>
-      <c r="N57" s="295" t="s">
+      <c r="N57" s="306" t="s">
         <v>764</v>
       </c>
-      <c r="O57" s="296"/>
+      <c r="O57" s="307"/>
       <c r="R57" s="171">
         <f>AL57</f>
         <v>0.10590399514291465</v>
@@ -46938,18 +46938,18 @@
         <f>V58</f>
         <v>0</v>
       </c>
-      <c r="AA57" s="297" t="s">
+      <c r="AA57" s="298" t="s">
         <v>757</v>
       </c>
-      <c r="AB57" s="298"/>
-      <c r="AC57" s="297" t="s">
+      <c r="AB57" s="299"/>
+      <c r="AC57" s="298" t="s">
         <v>758</v>
       </c>
-      <c r="AD57" s="298"/>
-      <c r="AE57" s="297" t="s">
+      <c r="AD57" s="299"/>
+      <c r="AE57" s="298" t="s">
         <v>759</v>
       </c>
-      <c r="AF57" s="298"/>
+      <c r="AF57" s="299"/>
       <c r="AG57" s="204"/>
       <c r="AH57" s="204"/>
       <c r="AJ57" s="201" t="s">
@@ -48555,10 +48555,10 @@
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="Y62" s="291" t="s">
+      <c r="Y62" s="285" t="s">
         <v>569</v>
       </c>
-      <c r="Z62" s="311"/>
+      <c r="Z62" s="296"/>
       <c r="AA62" s="165" t="s">
         <v>526</v>
       </c>
@@ -49507,11 +49507,11 @@
         <f t="shared" si="132"/>
         <v>0</v>
       </c>
-      <c r="X65" s="291" t="s">
+      <c r="X65" s="285" t="s">
         <v>569</v>
       </c>
-      <c r="Y65" s="291"/>
-      <c r="Z65" s="311"/>
+      <c r="Y65" s="285"/>
+      <c r="Z65" s="296"/>
       <c r="AA65" s="166" t="s">
         <v>590</v>
       </c>
@@ -50164,10 +50164,10 @@
       </c>
       <c r="W67" s="73"/>
       <c r="X67"/>
-      <c r="Y67" s="291" t="s">
+      <c r="Y67" s="285" t="s">
         <v>562</v>
       </c>
-      <c r="Z67" s="311"/>
+      <c r="Z67" s="296"/>
       <c r="AA67" s="165" t="s">
         <v>556</v>
       </c>
@@ -50530,10 +50530,10 @@
         <v>0</v>
       </c>
       <c r="X68" s="73"/>
-      <c r="Y68" s="291" t="s">
+      <c r="Y68" s="285" t="s">
         <v>568</v>
       </c>
-      <c r="Z68" s="311"/>
+      <c r="Z68" s="296"/>
       <c r="AA68" s="166" t="s">
         <v>557</v>
       </c>
@@ -50868,11 +50868,11 @@
         <f t="shared" si="132"/>
         <v>0</v>
       </c>
-      <c r="X69" s="291" t="s">
+      <c r="X69" s="285" t="s">
         <v>563</v>
       </c>
-      <c r="Y69" s="291"/>
-      <c r="Z69" s="311"/>
+      <c r="Y69" s="285"/>
+      <c r="Z69" s="296"/>
       <c r="AA69" s="165" t="s">
         <v>561</v>
       </c>
@@ -51195,11 +51195,11 @@
         <f t="shared" si="132"/>
         <v>3.1832167890308237E-3</v>
       </c>
-      <c r="X70" s="291" t="s">
+      <c r="X70" s="285" t="s">
         <v>565</v>
       </c>
-      <c r="Y70" s="291"/>
-      <c r="Z70" s="311"/>
+      <c r="Y70" s="285"/>
+      <c r="Z70" s="296"/>
       <c r="AA70" s="165" t="s">
         <v>567</v>
       </c>
@@ -51222,10 +51222,10 @@
         <v>9.1612651514654961E-2</v>
       </c>
       <c r="AG70" s="202"/>
-      <c r="AH70" s="301" t="s">
+      <c r="AH70" s="295" t="s">
         <v>760</v>
       </c>
-      <c r="AI70" s="301"/>
+      <c r="AI70" s="295"/>
       <c r="AK70">
         <v>14</v>
       </c>
@@ -51556,8 +51556,8 @@
         <v>118.56742054402559</v>
       </c>
       <c r="AG71" s="2"/>
-      <c r="AH71" s="301"/>
-      <c r="AI71" s="301"/>
+      <c r="AH71" s="295"/>
+      <c r="AI71" s="295"/>
       <c r="AJ71" s="73"/>
       <c r="AK71">
         <v>15</v>
@@ -51866,11 +51866,11 @@
         <f t="shared" si="132"/>
         <v>1.5916083945154608E-2</v>
       </c>
-      <c r="X72" s="291" t="s">
+      <c r="X72" s="285" t="s">
         <v>566</v>
       </c>
-      <c r="Y72" s="291"/>
-      <c r="Z72" s="311"/>
+      <c r="Y72" s="285"/>
+      <c r="Z72" s="296"/>
       <c r="AA72" s="165" t="s">
         <v>558</v>
       </c>
@@ -52199,11 +52199,11 @@
         <v>2.2282517523216014E-2</v>
       </c>
       <c r="W73" s="136"/>
-      <c r="X73" s="291" t="s">
+      <c r="X73" s="285" t="s">
         <v>564</v>
       </c>
-      <c r="Y73" s="291"/>
-      <c r="Z73" s="311"/>
+      <c r="Y73" s="285"/>
+      <c r="Z73" s="296"/>
       <c r="AA73" s="165" t="s">
         <v>559</v>
       </c>
@@ -53966,7 +53966,7 @@
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="U86" s="224"/>
-      <c r="AJ86" s="288" t="s">
+      <c r="AJ86" s="284" t="s">
         <v>467</v>
       </c>
       <c r="AK86" t="s">
@@ -53984,7 +53984,7 @@
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="U87" s="224"/>
-      <c r="AJ87" s="288"/>
+      <c r="AJ87" s="284"/>
       <c r="AU87" s="35"/>
       <c r="AV87" s="35"/>
       <c r="BH87" s="32"/>
@@ -53999,7 +53999,7 @@
         <f>B85/AK23</f>
         <v>6.9999999999999938</v>
       </c>
-      <c r="AJ88" s="288"/>
+      <c r="AJ88" s="284"/>
       <c r="AK88" s="40" t="s">
         <v>666</v>
       </c>
@@ -54056,7 +54056,7 @@
       </c>
     </row>
     <row r="89" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="AJ89" s="288"/>
+      <c r="AJ89" s="284"/>
       <c r="AK89" s="3" t="s">
         <v>159</v>
       </c>
@@ -54133,7 +54133,7 @@
       </c>
     </row>
     <row r="90" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="AJ90" s="288"/>
+      <c r="AJ90" s="284"/>
       <c r="AK90" s="3">
         <v>0</v>
       </c>
@@ -54194,7 +54194,7 @@
       <c r="BU90" s="32"/>
     </row>
     <row r="91" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="AJ91" s="288"/>
+      <c r="AJ91" s="284"/>
       <c r="AK91" s="63">
         <f>AN26</f>
         <v>768.22125433469159</v>
@@ -54266,7 +54266,7 @@
       </c>
     </row>
     <row r="92" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ92" s="288"/>
+      <c r="AJ92" s="284"/>
       <c r="AK92" s="32"/>
       <c r="AL92" s="32"/>
       <c r="AM92" s="32"/>
@@ -54302,7 +54302,7 @@
       </c>
     </row>
     <row r="93" spans="1:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ93" s="288"/>
+      <c r="AJ93" s="284"/>
       <c r="AK93" s="55" t="s">
         <v>225</v>
       </c>
@@ -54349,7 +54349,7 @@
       <c r="BU93" s="78"/>
     </row>
     <row r="94" spans="1:93" x14ac:dyDescent="0.25">
-      <c r="AJ94" s="288"/>
+      <c r="AJ94" s="284"/>
       <c r="AK94" s="60">
         <v>0</v>
       </c>
@@ -54584,7 +54584,7 @@
       <c r="BU102" s="73"/>
     </row>
     <row r="103" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ103" s="288" t="s">
+      <c r="AJ103" s="284" t="s">
         <v>507</v>
       </c>
       <c r="AK103" t="s">
@@ -54600,7 +54600,7 @@
       <c r="BU103" s="73"/>
     </row>
     <row r="104" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ104" s="288"/>
+      <c r="AJ104" s="284"/>
       <c r="AR104" s="35"/>
       <c r="AS104" s="35"/>
       <c r="BH104" s="32"/>
@@ -54613,7 +54613,7 @@
       <c r="BU104" s="73"/>
     </row>
     <row r="105" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ105" s="288"/>
+      <c r="AJ105" s="284"/>
       <c r="AK105" s="40" t="s">
         <v>671</v>
       </c>
@@ -54660,7 +54660,7 @@
       <c r="BU105" s="32"/>
     </row>
     <row r="106" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ106" s="288"/>
+      <c r="AJ106" s="284"/>
       <c r="AK106" s="3" t="s">
         <v>159</v>
       </c>
@@ -54727,7 +54727,7 @@
       <c r="BU106" s="32"/>
     </row>
     <row r="107" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ107" s="288"/>
+      <c r="AJ107" s="284"/>
       <c r="AK107" s="3">
         <v>0</v>
       </c>
@@ -54788,7 +54788,7 @@
       <c r="BU107" s="32"/>
     </row>
     <row r="108" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ108" s="288"/>
+      <c r="AJ108" s="284"/>
       <c r="AK108" s="63">
         <f>AN36</f>
         <v>736.43459771106996</v>
@@ -54851,7 +54851,7 @@
       <c r="BU108" s="71"/>
     </row>
     <row r="109" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ109" s="288"/>
+      <c r="AJ109" s="284"/>
       <c r="AK109" s="32"/>
       <c r="AL109" s="32"/>
       <c r="AM109" s="32"/>
@@ -54878,7 +54878,7 @@
       <c r="BU109" s="32"/>
     </row>
     <row r="110" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ110" s="288"/>
+      <c r="AJ110" s="284"/>
       <c r="AK110" s="55" t="s">
         <v>225</v>
       </c>
@@ -54925,7 +54925,7 @@
       <c r="BU110" s="78"/>
     </row>
     <row r="111" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ111" s="288"/>
+      <c r="AJ111" s="284"/>
       <c r="AK111" s="60">
         <v>0</v>
       </c>
@@ -55160,7 +55160,7 @@
       <c r="BU119" s="73"/>
     </row>
     <row r="120" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ120" s="288" t="s">
+      <c r="AJ120" s="284" t="s">
         <v>508</v>
       </c>
       <c r="AK120" t="s">
@@ -55176,7 +55176,7 @@
       <c r="BU120" s="73"/>
     </row>
     <row r="121" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ121" s="288"/>
+      <c r="AJ121" s="284"/>
       <c r="AR121" s="35"/>
       <c r="AS121" s="35"/>
       <c r="BH121" s="32"/>
@@ -55189,7 +55189,7 @@
       <c r="BU121" s="73"/>
     </row>
     <row r="122" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ122" s="288"/>
+      <c r="AJ122" s="284"/>
       <c r="AK122" s="40" t="s">
         <v>677</v>
       </c>
@@ -55236,7 +55236,7 @@
       <c r="BU122" s="32"/>
     </row>
     <row r="123" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ123" s="288"/>
+      <c r="AJ123" s="284"/>
       <c r="AK123" s="3" t="s">
         <v>159</v>
       </c>
@@ -55299,7 +55299,7 @@
       <c r="BU123" s="32"/>
     </row>
     <row r="124" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ124" s="288"/>
+      <c r="AJ124" s="284"/>
       <c r="AK124" s="3">
         <v>0</v>
       </c>
@@ -55360,7 +55360,7 @@
       <c r="BU124" s="32"/>
     </row>
     <row r="125" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ125" s="288"/>
+      <c r="AJ125" s="284"/>
       <c r="AK125" s="63">
         <f>AN46</f>
         <v>707.61315337357701</v>
@@ -55427,7 +55427,7 @@
       <c r="BU125" s="71"/>
     </row>
     <row r="126" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ126" s="288"/>
+      <c r="AJ126" s="284"/>
       <c r="AK126" s="32"/>
       <c r="AL126" s="32"/>
       <c r="AM126" s="32"/>
@@ -55454,7 +55454,7 @@
       <c r="BU126" s="32"/>
     </row>
     <row r="127" spans="36:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ127" s="288"/>
+      <c r="AJ127" s="284"/>
       <c r="AK127" s="55" t="s">
         <v>225</v>
       </c>
@@ -55501,7 +55501,7 @@
       <c r="BU127" s="78"/>
     </row>
     <row r="128" spans="36:73" x14ac:dyDescent="0.25">
-      <c r="AJ128" s="288"/>
+      <c r="AJ128" s="284"/>
       <c r="AK128" s="60">
         <v>0</v>
       </c>
@@ -55565,6 +55565,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="CW54:DA54"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="BE55:BF55"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="AH39:AI40"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AD26"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="CO3:CQ3"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AY1"/>
+    <mergeCell ref="CF3:CH3"/>
+    <mergeCell ref="CI3:CK3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="R56:V56"/>
+    <mergeCell ref="AJ120:AJ128"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AJ86:AJ94"/>
+    <mergeCell ref="AJ103:AJ111"/>
     <mergeCell ref="AH70:AI71"/>
     <mergeCell ref="X72:Z72"/>
     <mergeCell ref="X73:Z73"/>
@@ -55581,34 +55609,6 @@
     <mergeCell ref="X69:Z69"/>
     <mergeCell ref="X70:Z70"/>
     <mergeCell ref="AE57:AF57"/>
-    <mergeCell ref="AJ120:AJ128"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AJ86:AJ94"/>
-    <mergeCell ref="AJ103:AJ111"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="R56:V56"/>
-    <mergeCell ref="CO3:CQ3"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AY1"/>
-    <mergeCell ref="CF3:CH3"/>
-    <mergeCell ref="CI3:CK3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CW54:DA54"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="BE55:BF55"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="AH39:AI40"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AD26"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="Y43:Z43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
